--- a/notebooks/arbitragem/resultados/estrategia.xlsx
+++ b/notebooks/arbitragem/resultados/estrategia.xlsx
@@ -1,93 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="15">
-  <si>
-    <t>timestamp</t>
-  </si>
-  <si>
-    <t>Ativo1</t>
-  </si>
-  <si>
-    <t>Ativo2</t>
-  </si>
-  <si>
-    <t>ativo1_mean</t>
-  </si>
-  <si>
-    <t>ativo2_mean</t>
-  </si>
-  <si>
-    <t>ativo1_std</t>
-  </si>
-  <si>
-    <t>ativo2_std</t>
-  </si>
-  <si>
-    <t>spread</t>
-  </si>
-  <si>
-    <t>rolling_mean</t>
-  </si>
-  <si>
-    <t>rolling_std</t>
-  </si>
-  <si>
-    <t>zscore</t>
-  </si>
-  <si>
-    <t>sinal</t>
-  </si>
-  <si>
-    <t>compra_1_vende_2</t>
-  </si>
-  <si>
-    <t>neutro</t>
-  </si>
-  <si>
-    <t>vende_1_compra_2</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -102,36 +49,94 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -419,1990 +424,2122 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Ativo1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Ativo2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>ativo1_mean</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ativo2_mean</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>ativo1_std</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ativo2_std</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>spread</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>rolling_mean</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>rolling_std</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>zscore</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>sinal</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
         <v>45807</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>103985.48</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>676.6</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>108000.4145454546</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>670.7790909090909</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>2100.692101248375</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>13.5636871495515</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>103308.88</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>107329.6354545455</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>2104.019330426241</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>-1.91098788704138</v>
       </c>
-      <c r="L2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="2">
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>compra_1_vende_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>45808</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>104591.88</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>654.12</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>107795.1318181818</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>671.13</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>2322.93248235854</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>13.01873188908963</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>103937.76</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>107124.0018181818</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>2324.477770910357</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>-1.370734475526496</v>
       </c>
-      <c r="L3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="2">
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>compra_1_vende_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>45809</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>105642.93</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>657.61</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>107431.3990909091</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>671.7827272727274</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>2317.725885429325</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>12.01868386380892</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>104985.32</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>106759.6163636364</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>2316.24991839082</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>-0.7660211230008533</v>
       </c>
-      <c r="L4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="2">
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>compra_1_vende_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>45810</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>105857.99</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>661.0700000000001</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>106900.6518181818</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>670.53</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>1868.339303616031</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>12.3797390925657</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>105196.92</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>106230.1218181818</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>1866.699995633043</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>-0.553491091551339</v>
       </c>
-      <c r="L5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="2">
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>compra_1_vende_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>45811</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>105376.89</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>666.75</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>106724.16</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>668.8509090909091</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>1916.029609071864</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>11.4020125017871</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>104710.14</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>106055.3090909091</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>1914.614942553497</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>-0.702579438304732</v>
       </c>
-      <c r="L6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="2">
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>compra_1_vende_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>45812</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>104696.86</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>661.38</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>106445.5190909091</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>669.3409090909091</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>1972.071665469889</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>10.89875814443595</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>104035.48</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>105776.1781818182</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="n">
         <v>1969.17178905661</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="n">
         <v>-0.8839747712677435</v>
       </c>
-      <c r="L7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="2">
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>compra_1_vende_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>45813</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>101508.68</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>663.54</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>105764.1090909091</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>668.9418181818181</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>2271.755586697043</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>11.03511288404593</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>100845.14</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>105095.1672727273</v>
       </c>
-      <c r="J8">
+      <c r="J8" t="n">
         <v>2267.949724787099</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="n">
         <v>-1.873951272498445</v>
       </c>
-      <c r="L8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="2">
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>compra_1_vende_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>45814</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>104288.44</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>632.96</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>105296.2590909091</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>665.5909090909091</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>1946.913340107684</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>15.45361669936558</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>103655.48</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="n">
         <v>104630.6681818182</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="n">
         <v>1940.820792030125</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="n">
         <v>-0.5024617346551307</v>
       </c>
-      <c r="L9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="2">
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>compra_1_vende_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>45815</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>105552.15</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>642.95</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>104988.4390909091</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>662.7581818181818</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>1538.323631427818</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>16.55267580675823</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>104909.2</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>104325.6809090909</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="n">
         <v>1533.646234804223</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <v>0.3804782861046034</v>
       </c>
-      <c r="L10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="2">
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>45816</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>105734</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>650.59</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>104802.2772727273</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>659.5445454545454</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>1266.344547775999</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>14.95652590920538</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>105083.41</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="n">
         <v>104142.7327272727</v>
       </c>
-      <c r="J11">
+      <c r="J11" t="n">
         <v>1267.000762115752</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="n">
         <v>0.7424441254135068</v>
       </c>
-      <c r="L11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="2">
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>45817</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>110263.02</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>652.45</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>105227.12</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>656.3654545454546</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>2079.67493137754</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="n">
         <v>11.82833662324225</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="n">
         <v>109610.57</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="n">
         <v>104570.7545454545</v>
       </c>
-      <c r="J12">
+      <c r="J12" t="n">
         <v>2082.256859541435</v>
       </c>
-      <c r="K12">
+      <c r="K12" t="n">
         <v>2.420362037205801</v>
       </c>
-      <c r="L12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="2">
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
         <v>45818</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>110274.39</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>667.49</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>105798.8390909091</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>655.5372727272728</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="n">
         <v>2521.671129574443</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="n">
         <v>10.51603260826956</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="n">
         <v>109606.9</v>
       </c>
-      <c r="I13">
+      <c r="I13" t="n">
         <v>105143.3018181818</v>
       </c>
-      <c r="J13">
+      <c r="J13" t="n">
         <v>2520.366159655463</v>
       </c>
-      <c r="K13">
+      <c r="K13" t="n">
         <v>1.771011789187153</v>
       </c>
-      <c r="L13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="2">
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
         <v>45819</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>108645.12</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>673.89</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>106167.3154545454</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>657.3345454545455</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="n">
         <v>2621.817966363686</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="n">
         <v>11.85390767944198</v>
       </c>
-      <c r="H14">
+      <c r="H14" t="n">
         <v>107971.23</v>
       </c>
-      <c r="I14">
+      <c r="I14" t="n">
         <v>105509.9809090909</v>
       </c>
-      <c r="J14">
+      <c r="J14" t="n">
         <v>2618.917971237195</v>
       </c>
-      <c r="K14">
+      <c r="K14" t="n">
         <v>0.9397961745805936</v>
       </c>
-      <c r="L14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="2">
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
         <v>45820</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>105671.73</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>667.26</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>106169.9336363636</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>658.2118181818182</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="n">
         <v>2621.256262208179</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="n">
         <v>12.22752781078998</v>
       </c>
-      <c r="H15">
+      <c r="H15" t="n">
         <v>105004.47</v>
       </c>
-      <c r="I15">
+      <c r="I15" t="n">
         <v>105511.7218181818</v>
       </c>
-      <c r="J15">
+      <c r="J15" t="n">
         <v>2618.540667470417</v>
       </c>
-      <c r="K15">
+      <c r="K15" t="n">
         <v>-0.1937154631521668</v>
       </c>
-      <c r="L15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="2">
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
         <v>45821</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>106066.59</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>651.45</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>106188.8972727273</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>657.3372727272728</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="n">
         <v>2619.527804433837</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="n">
         <v>12.34610958230114</v>
       </c>
-      <c r="H16">
+      <c r="H16" t="n">
         <v>105415.14</v>
       </c>
-      <c r="I16">
+      <c r="I16" t="n">
         <v>105531.56</v>
       </c>
-      <c r="J16">
+      <c r="J16" t="n">
         <v>2616.74322482739</v>
       </c>
-      <c r="K16">
+      <c r="K16" t="n">
         <v>-0.04449041804920608</v>
       </c>
-      <c r="L16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="2">
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
         <v>45822</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>105414.64</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>654.72</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>106192.3290909091</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>656.2436363636364</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="n">
         <v>2618.382098630608</v>
       </c>
-      <c r="G17">
+      <c r="G17" t="n">
         <v>11.95557800587458</v>
       </c>
-      <c r="H17">
+      <c r="H17" t="n">
         <v>104759.92</v>
       </c>
-      <c r="I17">
+      <c r="I17" t="n">
         <v>105536.0854545455</v>
       </c>
-      <c r="J17">
+      <c r="J17" t="n">
         <v>2615.223188236011</v>
       </c>
-      <c r="K17">
+      <c r="K17" t="n">
         <v>-0.2967874627438569</v>
       </c>
-      <c r="L17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="2">
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
         <v>45823</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>105594.01</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>645.52</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>106273.8881818182</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>654.8018181818182</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="n">
         <v>2580.845507553</v>
       </c>
-      <c r="G18">
+      <c r="G18" t="n">
         <v>12.22745011699673</v>
       </c>
-      <c r="H18">
+      <c r="H18" t="n">
         <v>104948.49</v>
       </c>
-      <c r="I18">
+      <c r="I18" t="n">
         <v>105619.0863636364</v>
       </c>
-      <c r="J18">
+      <c r="J18" t="n">
         <v>2577.044708010612</v>
       </c>
-      <c r="K18">
+      <c r="K18" t="n">
         <v>-0.2602191423190522</v>
       </c>
-      <c r="L18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="2">
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
         <v>45824</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>106794.53</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>648.04</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>106754.42</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>653.3927272727274</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="n">
         <v>2040.379256760884</v>
       </c>
-      <c r="G19">
+      <c r="G19" t="n">
         <v>12.0109567403346</v>
       </c>
-      <c r="H19">
+      <c r="H19" t="n">
         <v>106146.49</v>
       </c>
-      <c r="I19">
+      <c r="I19" t="n">
         <v>106101.0272727273</v>
       </c>
-      <c r="J19">
+      <c r="J19" t="n">
         <v>2033.328491543324</v>
       </c>
-      <c r="K19">
+      <c r="K19" t="n">
         <v>0.02235877157173761</v>
       </c>
-      <c r="L19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="2">
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
         <v>45825</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>104551.17</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>650.1799999999999</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="n">
         <v>106778.3045454545</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
         <v>654.9581818181819</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="n">
         <v>2009.936644018256</v>
       </c>
-      <c r="G20">
+      <c r="G20" t="n">
         <v>10.04240490936526</v>
       </c>
-      <c r="H20">
+      <c r="H20" t="n">
         <v>103900.99</v>
       </c>
-      <c r="I20">
+      <c r="I20" t="n">
         <v>106123.3463636364</v>
       </c>
-      <c r="J20">
+      <c r="J20" t="n">
         <v>2004.949638356406</v>
       </c>
-      <c r="K20">
+      <c r="K20" t="n">
         <v>-1.108435005608513</v>
       </c>
-      <c r="L20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="2">
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>compra_1_vende_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
         <v>45826</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>104886.78</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>648.65</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>106717.8163636364</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>655.4763636363637</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="n">
         <v>2059.917868383483</v>
       </c>
-      <c r="G21">
+      <c r="G21" t="n">
         <v>9.492850228174495</v>
       </c>
-      <c r="H21">
+      <c r="H21" t="n">
         <v>104238.13</v>
       </c>
-      <c r="I21">
+      <c r="I21" t="n">
         <v>106062.34</v>
       </c>
-      <c r="J21">
+      <c r="J21" t="n">
         <v>2055.168614211502</v>
       </c>
-      <c r="K21">
+      <c r="K21" t="n">
         <v>-0.8876206007553685</v>
       </c>
-      <c r="L21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="2">
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>compra_1_vende_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
         <v>45827</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>104658.59</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>644.61</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="n">
         <v>106620.0518181818</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="n">
         <v>654.9327272727273</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="n">
         <v>2135.415600166973</v>
       </c>
-      <c r="G22">
+      <c r="G22" t="n">
         <v>9.960383618023412</v>
       </c>
-      <c r="H22">
+      <c r="H22" t="n">
         <v>104013.98</v>
       </c>
-      <c r="I22">
+      <c r="I22" t="n">
         <v>105965.1190909091</v>
       </c>
-      <c r="J22">
+      <c r="J22" t="n">
         <v>2130.039532879407</v>
       </c>
-      <c r="K22">
+      <c r="K22" t="n">
         <v>-0.9160107410173354</v>
       </c>
-      <c r="L22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="2">
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>compra_1_vende_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
         <v>45828</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>103297.99</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>644.5700000000001</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="n">
         <v>105986.8672727273</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="n">
         <v>654.2163636363636</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="n">
         <v>1973.695165161521</v>
       </c>
-      <c r="G23">
+      <c r="G23" t="n">
         <v>10.42914020687002</v>
       </c>
-      <c r="H23">
+      <c r="H23" t="n">
         <v>102653.42</v>
       </c>
-      <c r="I23">
+      <c r="I23" t="n">
         <v>105332.6509090909</v>
       </c>
-      <c r="J23">
+      <c r="J23" t="n">
         <v>1965.923361763912</v>
       </c>
-      <c r="K23">
+      <c r="K23" t="n">
         <v>-1.362835887298782</v>
       </c>
-      <c r="L23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="2">
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>compra_1_vende_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
         <v>45829</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>102120.01</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>641.58</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="n">
         <v>105245.56</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="n">
         <v>651.860909090909</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="n">
         <v>1716.961236662087</v>
       </c>
-      <c r="G24">
+      <c r="G24" t="n">
         <v>10.05051287700867</v>
       </c>
-      <c r="H24">
+      <c r="H24" t="n">
         <v>101478.43</v>
       </c>
-      <c r="I24">
+      <c r="I24" t="n">
         <v>104593.6990909091</v>
       </c>
-      <c r="J24">
+      <c r="J24" t="n">
         <v>1709.614356593067</v>
       </c>
-      <c r="K24">
+      <c r="K24" t="n">
         <v>-1.822205738326404</v>
       </c>
-      <c r="L24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="2">
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>compra_1_vende_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
         <v>45830</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="n">
         <v>100963.87</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>629.54</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="n">
         <v>104547.2645454546</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="n">
         <v>647.829090909091</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="n">
         <v>1757.601717803987</v>
       </c>
-      <c r="G25">
+      <c r="G25" t="n">
         <v>9.188357257470914</v>
       </c>
-      <c r="H25">
+      <c r="H25" t="n">
         <v>100334.33</v>
       </c>
-      <c r="I25">
+      <c r="I25" t="n">
         <v>103899.4354545455</v>
       </c>
-      <c r="J25">
+      <c r="J25" t="n">
         <v>1751.008296064671</v>
       </c>
-      <c r="K25">
+      <c r="K25" t="n">
         <v>-2.036030019136917</v>
       </c>
-      <c r="L25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="2">
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>compra_1_vende_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
         <v>45831</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>105333.93</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>616.21</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="n">
         <v>104516.5554545454</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="n">
         <v>643.1881818181818</v>
       </c>
-      <c r="F26">
+      <c r="F26" t="n">
         <v>1738.841120754719</v>
       </c>
-      <c r="G26">
+      <c r="G26" t="n">
         <v>11.08849567631458</v>
       </c>
-      <c r="H26">
+      <c r="H26" t="n">
         <v>104717.72</v>
       </c>
-      <c r="I26">
+      <c r="I26" t="n">
         <v>103873.3672727273</v>
       </c>
-      <c r="J26">
+      <c r="J26" t="n">
         <v>1734.973017900234</v>
       </c>
-      <c r="K26">
+      <c r="K26" t="n">
         <v>0.4866662008926185</v>
       </c>
-      <c r="L26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="2">
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
         <v>45832</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>106083</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>640.61</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="n">
         <v>104518.0472727273</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="n">
         <v>642.2027272727273</v>
       </c>
-      <c r="F27">
+      <c r="F27" t="n">
         <v>1740.310356615185</v>
       </c>
-      <c r="G27">
+      <c r="G27" t="n">
         <v>10.75757601963346</v>
       </c>
-      <c r="H27">
+      <c r="H27" t="n">
         <v>105442.39</v>
       </c>
-      <c r="I27">
+      <c r="I27" t="n">
         <v>103875.8445454545</v>
       </c>
-      <c r="J27">
+      <c r="J27" t="n">
         <v>1737.412311423889</v>
       </c>
-      <c r="K27">
+      <c r="K27" t="n">
         <v>0.9016543996177857</v>
       </c>
-      <c r="L27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="2">
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
         <v>45833</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>107340.58</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>643.21</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="n">
         <v>104693.1327272727</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="n">
         <v>641.1563636363636</v>
       </c>
-      <c r="F28">
+      <c r="F28" t="n">
         <v>1926.458143096304</v>
       </c>
-      <c r="G28">
+      <c r="G28" t="n">
         <v>9.947578874005318</v>
       </c>
-      <c r="H28">
+      <c r="H28" t="n">
         <v>106697.37</v>
       </c>
-      <c r="I28">
+      <c r="I28" t="n">
         <v>104051.9763636364</v>
       </c>
-      <c r="J28">
+      <c r="J28" t="n">
         <v>1924.166970121221</v>
       </c>
-      <c r="K28">
+      <c r="K28" t="n">
         <v>1.374825406236432</v>
       </c>
-      <c r="L28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="2">
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
         <v>45834</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>106947.06</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>646.01</v>
       </c>
-      <c r="D29">
+      <c r="D29" t="n">
         <v>104816.1372727273</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="n">
         <v>641.2009090909091</v>
       </c>
-      <c r="F29">
+      <c r="F29" t="n">
         <v>2030.137600287737</v>
       </c>
-      <c r="G29">
+      <c r="G29" t="n">
         <v>9.970144888160879</v>
       </c>
-      <c r="H29">
+      <c r="H29" t="n">
         <v>106301.05</v>
       </c>
-      <c r="I29">
+      <c r="I29" t="n">
         <v>104174.9363636364</v>
       </c>
-      <c r="J29">
+      <c r="J29" t="n">
         <v>2027.621020631194</v>
       </c>
-      <c r="K29">
+      <c r="K29" t="n">
         <v>1.048575456029637</v>
       </c>
-      <c r="L29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="2">
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
         <v>45835</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>107047.59</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>642.3099999999999</v>
       </c>
-      <c r="D30">
+      <c r="D30" t="n">
         <v>104839.1427272727</v>
       </c>
-      <c r="E30">
+      <c r="E30" t="n">
         <v>640.6799999999999</v>
       </c>
-      <c r="F30">
+      <c r="F30" t="n">
         <v>2056.066839658197</v>
       </c>
-      <c r="G30">
+      <c r="G30" t="n">
         <v>9.723733850739212</v>
       </c>
-      <c r="H30">
+      <c r="H30" t="n">
         <v>106405.28</v>
       </c>
-      <c r="I30">
+      <c r="I30" t="n">
         <v>104198.4627272727</v>
       </c>
-      <c r="J30">
+      <c r="J30" t="n">
         <v>2054.112719414844</v>
       </c>
-      <c r="K30">
+      <c r="K30" t="n">
         <v>1.074340882985194</v>
       </c>
-      <c r="L30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="2">
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
         <v>45836</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>107296.79</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>645.24</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="n">
         <v>105088.7445454545</v>
       </c>
-      <c r="E31">
+      <c r="E31" t="n">
         <v>640.2309090909091</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="n">
         <v>2180.502202999915</v>
       </c>
-      <c r="G31">
+      <c r="G31" t="n">
         <v>9.347914692107592</v>
       </c>
-      <c r="H31">
+      <c r="H31" t="n">
         <v>106651.55</v>
       </c>
-      <c r="I31">
+      <c r="I31" t="n">
         <v>104448.5136363636</v>
       </c>
-      <c r="J31">
+      <c r="J31" t="n">
         <v>2177.961380655194</v>
       </c>
-      <c r="K31">
+      <c r="K31" t="n">
         <v>1.011513052161478</v>
       </c>
-      <c r="L31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="2">
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
         <v>45837</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>108356.93</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>648.7</v>
       </c>
-      <c r="D32">
+      <c r="D32" t="n">
         <v>105404.2127272727</v>
       </c>
-      <c r="E32">
+      <c r="E32" t="n">
         <v>640.2354545454546</v>
       </c>
-      <c r="F32">
+      <c r="F32" t="n">
         <v>2389.381157317101</v>
       </c>
-      <c r="G32">
+      <c r="G32" t="n">
         <v>9.352428950424551</v>
       </c>
-      <c r="H32">
+      <c r="H32" t="n">
         <v>107708.23</v>
       </c>
-      <c r="I32">
+      <c r="I32" t="n">
         <v>104763.9772727273</v>
       </c>
-      <c r="J32">
+      <c r="J32" t="n">
         <v>2385.832284311252</v>
       </c>
-      <c r="K32">
+      <c r="K32" t="n">
         <v>1.234056872577978</v>
       </c>
-      <c r="L32" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="2">
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
         <v>45838</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>107146.5</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
         <v>655.24</v>
       </c>
-      <c r="D33">
+      <c r="D33" t="n">
         <v>105630.3863636364</v>
       </c>
-      <c r="E33">
+      <c r="E33" t="n">
         <v>641.2018181818182</v>
       </c>
-      <c r="F33">
+      <c r="F33" t="n">
         <v>2429.163131349074</v>
       </c>
-      <c r="G33">
+      <c r="G33" t="n">
         <v>10.34604544565932</v>
       </c>
-      <c r="H33">
+      <c r="H33" t="n">
         <v>106491.26</v>
       </c>
-      <c r="I33">
+      <c r="I33" t="n">
         <v>104989.1845454546</v>
       </c>
-      <c r="J33">
+      <c r="J33" t="n">
         <v>2424.56315914585</v>
       </c>
-      <c r="K33">
+      <c r="K33" t="n">
         <v>0.6195241600035722</v>
       </c>
-      <c r="L33" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="2">
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
         <v>45839</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="n">
         <v>105681.14</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="n">
         <v>657.3200000000001</v>
       </c>
-      <c r="D34">
+      <c r="D34" t="n">
         <v>105847.0363636364</v>
       </c>
-      <c r="E34">
+      <c r="E34" t="n">
         <v>642.3609090909091</v>
       </c>
-      <c r="F34">
+      <c r="F34" t="n">
         <v>2303.356873653241</v>
       </c>
-      <c r="G34">
+      <c r="G34" t="n">
         <v>11.41962911354483</v>
       </c>
-      <c r="H34">
+      <c r="H34" t="n">
         <v>105023.82</v>
       </c>
-      <c r="I34">
+      <c r="I34" t="n">
         <v>105204.6754545454</v>
       </c>
-      <c r="J34">
+      <c r="J34" t="n">
         <v>2298.253012156693</v>
       </c>
-      <c r="K34">
+      <c r="K34" t="n">
         <v>-0.07869257805333529</v>
       </c>
-      <c r="L34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="2">
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
         <v>45840</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="n">
         <v>108849.6</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="n">
         <v>646.4</v>
       </c>
-      <c r="D35">
+      <c r="D35" t="n">
         <v>106458.8172727273</v>
       </c>
-      <c r="E35">
+      <c r="E35" t="n">
         <v>642.7990909090909</v>
       </c>
-      <c r="F35">
+      <c r="F35" t="n">
         <v>2099.098784269567</v>
       </c>
-      <c r="G35">
+      <c r="G35" t="n">
         <v>11.47898815623226</v>
       </c>
-      <c r="H35">
+      <c r="H35" t="n">
         <v>108203.2</v>
       </c>
-      <c r="I35">
+      <c r="I35" t="n">
         <v>105816.0181818182</v>
       </c>
-      <c r="J35">
+      <c r="J35" t="n">
         <v>2093.197891002286</v>
       </c>
-      <c r="K35">
+      <c r="K35" t="n">
         <v>1.140447268957812</v>
       </c>
-      <c r="L35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="2">
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
         <v>45841</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="n">
         <v>109584.78</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
         <v>660.49</v>
       </c>
-      <c r="D36">
+      <c r="D36" t="n">
         <v>107242.5363636364</v>
       </c>
-      <c r="E36">
+      <c r="E36" t="n">
         <v>645.6127272727273</v>
       </c>
-      <c r="F36">
+      <c r="F36" t="n">
         <v>1299.345325748923</v>
       </c>
-      <c r="G36">
+      <c r="G36" t="n">
         <v>11.69510332652912</v>
       </c>
-      <c r="H36">
+      <c r="H36" t="n">
         <v>108924.29</v>
       </c>
-      <c r="I36">
+      <c r="I36" t="n">
         <v>106596.9236363636</v>
       </c>
-      <c r="J36">
+      <c r="J36" t="n">
         <v>1293.030388802027</v>
       </c>
-      <c r="K36">
+      <c r="K36" t="n">
         <v>1.799931682806491</v>
       </c>
-      <c r="L36" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="2">
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
         <v>45842</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="n">
         <v>107984.24</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="n">
         <v>664.01</v>
       </c>
-      <c r="D37">
+      <c r="D37" t="n">
         <v>107483.4736363636</v>
       </c>
-      <c r="E37">
+      <c r="E37" t="n">
         <v>649.9581818181819</v>
       </c>
-      <c r="F37">
+      <c r="F37" t="n">
         <v>1146.811681360792</v>
       </c>
-      <c r="G37">
+      <c r="G37" t="n">
         <v>7.962292155130089</v>
       </c>
-      <c r="H37">
+      <c r="H37" t="n">
         <v>107320.23</v>
       </c>
-      <c r="I37">
+      <c r="I37" t="n">
         <v>106833.5154545454</v>
       </c>
-      <c r="J37">
+      <c r="J37" t="n">
         <v>1144.34737207167</v>
       </c>
-      <c r="K37">
+      <c r="K37" t="n">
         <v>0.425320630197668</v>
       </c>
-      <c r="L37" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="2">
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
         <v>45843</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="n">
         <v>108198.12</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="n">
         <v>653.59</v>
       </c>
-      <c r="D38">
+      <c r="D38" t="n">
         <v>107675.7572727273</v>
       </c>
-      <c r="E38">
+      <c r="E38" t="n">
         <v>651.1381818181818</v>
       </c>
-      <c r="F38">
+      <c r="F38" t="n">
         <v>1062.753987478723</v>
       </c>
-      <c r="G38">
+      <c r="G38" t="n">
         <v>7.378795048220668</v>
       </c>
-      <c r="H38">
+      <c r="H38" t="n">
         <v>107544.53</v>
       </c>
-      <c r="I38">
+      <c r="I38" t="n">
         <v>107024.6190909091</v>
       </c>
-      <c r="J38">
+      <c r="J38" t="n">
         <v>1061.314945484683</v>
       </c>
-      <c r="K38">
+      <c r="K38" t="n">
         <v>0.4898742934911607</v>
       </c>
-      <c r="L38" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="2">
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
         <v>45844</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="n">
         <v>109203.84</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="n">
         <v>656.1900000000001</v>
       </c>
-      <c r="D39">
+      <c r="D39" t="n">
         <v>107845.1445454545</v>
       </c>
-      <c r="E39">
+      <c r="E39" t="n">
         <v>652.3181818181819</v>
       </c>
-      <c r="F39">
+      <c r="F39" t="n">
         <v>1148.979584956747</v>
       </c>
-      <c r="G39">
+      <c r="G39" t="n">
         <v>7.012949191577365</v>
       </c>
-      <c r="H39">
+      <c r="H39" t="n">
         <v>108547.65</v>
       </c>
-      <c r="I39">
+      <c r="I39" t="n">
         <v>107192.8263636364</v>
       </c>
-      <c r="J39">
+      <c r="J39" t="n">
         <v>1147.396826083075</v>
       </c>
-      <c r="K39">
+      <c r="K39" t="n">
         <v>1.180780359127062</v>
       </c>
-      <c r="L39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="2">
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
         <v>45845</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="n">
         <v>108262.94</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="n">
         <v>663.0700000000001</v>
       </c>
-      <c r="D40">
+      <c r="D40" t="n">
         <v>107964.77</v>
       </c>
-      <c r="E40">
+      <c r="E40" t="n">
         <v>653.8690909090909</v>
       </c>
-      <c r="F40">
+      <c r="F40" t="n">
         <v>1114.09718222429</v>
       </c>
-      <c r="G40">
+      <c r="G40" t="n">
         <v>7.35638831838817</v>
       </c>
-      <c r="H40">
+      <c r="H40" t="n">
         <v>107599.87</v>
       </c>
-      <c r="I40">
+      <c r="I40" t="n">
         <v>107310.9009090909</v>
       </c>
-      <c r="J40">
+      <c r="J40" t="n">
         <v>1112.755886216357</v>
       </c>
-      <c r="K40">
+      <c r="K40" t="n">
         <v>0.259687766641852</v>
       </c>
-      <c r="L40" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="2">
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
         <v>45846</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="n">
         <v>108922.98</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="n">
         <v>661.3200000000001</v>
       </c>
-      <c r="D41">
+      <c r="D41" t="n">
         <v>108135.26</v>
       </c>
-      <c r="E41">
+      <c r="E41" t="n">
         <v>655.5972727272728</v>
       </c>
-      <c r="F41">
+      <c r="F41" t="n">
         <v>1103.147194394338</v>
       </c>
-      <c r="G41">
+      <c r="G41" t="n">
         <v>6.559079342269781</v>
       </c>
-      <c r="H41">
+      <c r="H41" t="n">
         <v>108261.66</v>
       </c>
-      <c r="I41">
+      <c r="I41" t="n">
         <v>107479.6627272727</v>
       </c>
-      <c r="J41">
+      <c r="J41" t="n">
         <v>1102.395762737627</v>
       </c>
-      <c r="K41">
+      <c r="K41" t="n">
         <v>0.709361645934929</v>
       </c>
-      <c r="L41" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="2">
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
         <v>45847</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="n">
         <v>111233.99</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="n">
         <v>660.4299999999999</v>
       </c>
-      <c r="D42">
+      <c r="D42" t="n">
         <v>108493.1872727273</v>
       </c>
-      <c r="E42">
+      <c r="E42" t="n">
         <v>656.9781818181818</v>
       </c>
-      <c r="F42">
+      <c r="F42" t="n">
         <v>1402.112753626436</v>
       </c>
-      <c r="G42">
+      <c r="G42" t="n">
         <v>5.703694974632172</v>
       </c>
-      <c r="H42">
+      <c r="H42" t="n">
         <v>110573.56</v>
       </c>
-      <c r="I42">
+      <c r="I42" t="n">
         <v>107836.2090909091</v>
       </c>
-      <c r="J42">
+      <c r="J42" t="n">
         <v>1401.456935424396</v>
       </c>
-      <c r="K42">
+      <c r="K42" t="n">
         <v>1.953217997570505</v>
       </c>
-      <c r="L42" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="2">
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
         <v>45848</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="n">
         <v>116010</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="n">
         <v>669.54</v>
       </c>
-      <c r="D43">
+      <c r="D43" t="n">
         <v>109188.9209090909</v>
       </c>
-      <c r="E43">
+      <c r="E43" t="n">
         <v>658.8727272727273</v>
       </c>
-      <c r="F43">
+      <c r="F43" t="n">
         <v>2661.176639212281</v>
       </c>
-      <c r="G43">
+      <c r="G43" t="n">
         <v>6.124622585775323</v>
       </c>
-      <c r="H43">
+      <c r="H43" t="n">
         <v>115340.46</v>
       </c>
-      <c r="I43">
+      <c r="I43" t="n">
         <v>108530.0481818182</v>
       </c>
-      <c r="J43">
+      <c r="J43" t="n">
         <v>2657.869051563001</v>
       </c>
-      <c r="K43">
+      <c r="K43" t="n">
         <v>2.562357921349391</v>
       </c>
-      <c r="L43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="2">
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>vende_1_compra_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
         <v>45849</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="n">
         <v>117527.66</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="n">
         <v>685.89</v>
       </c>
-      <c r="D44">
+      <c r="D44" t="n">
         <v>110132.6627272727</v>
       </c>
-      <c r="E44">
+      <c r="E44" t="n">
         <v>661.6590909090909</v>
       </c>
-      <c r="F44">
+      <c r="F44" t="n">
         <v>3555.060656219792</v>
       </c>
-      <c r="G44">
+      <c r="G44" t="n">
         <v>10.03216971003361</v>
       </c>
-      <c r="H44">
+      <c r="H44" t="n">
         <v>116841.77</v>
       </c>
-      <c r="I44">
+      <c r="I44" t="n">
         <v>109471.0036363636</v>
       </c>
-      <c r="J44">
+      <c r="J44" t="n">
         <v>3547.271802995294</v>
       </c>
-      <c r="K44">
+      <c r="K44" t="n">
         <v>2.077869070369109</v>
       </c>
-      <c r="L44" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="2">
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>vende_1_compra_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
         <v>45850</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="n">
         <v>117420</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="n">
         <v>690.11</v>
       </c>
-      <c r="D45">
+      <c r="D45" t="n">
         <v>111199.8318181818</v>
       </c>
-      <c r="E45">
+      <c r="E45" t="n">
         <v>664.64</v>
       </c>
-      <c r="F45">
+      <c r="F45" t="n">
         <v>3835.967206254041</v>
       </c>
-      <c r="G45">
+      <c r="G45" t="n">
         <v>13.03582295062365</v>
       </c>
-      <c r="H45">
+      <c r="H45" t="n">
         <v>116729.89</v>
       </c>
-      <c r="I45">
+      <c r="I45" t="n">
         <v>110535.1918181818</v>
       </c>
-      <c r="J45">
+      <c r="J45" t="n">
         <v>3824.760123698788</v>
       </c>
-      <c r="K45">
+      <c r="K45" t="n">
         <v>1.619630507919931</v>
       </c>
-      <c r="L45" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="A46" s="2">
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>vende_1_compra_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
         <v>45851</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="n">
         <v>119086.64</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="n">
         <v>685.5700000000001</v>
       </c>
-      <c r="D46">
+      <c r="D46" t="n">
         <v>112130.4718181818</v>
       </c>
-      <c r="E46">
+      <c r="E46" t="n">
         <v>668.2009090909091</v>
       </c>
-      <c r="F46">
+      <c r="F46" t="n">
         <v>4407.920131610422</v>
       </c>
-      <c r="G46">
+      <c r="G46" t="n">
         <v>12.90431435958201</v>
       </c>
-      <c r="H46">
+      <c r="H46" t="n">
         <v>118401.07</v>
       </c>
-      <c r="I46">
+      <c r="I46" t="n">
         <v>111462.2709090909</v>
       </c>
-      <c r="J46">
+      <c r="J46" t="n">
         <v>4396.220214237345</v>
       </c>
-      <c r="K46">
+      <c r="K46" t="n">
         <v>1.578355667543101</v>
       </c>
-      <c r="L46" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="2">
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>vende_1_compra_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
         <v>45852</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="n">
         <v>119841.18</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="n">
         <v>692.3200000000001</v>
       </c>
-      <c r="D47">
+      <c r="D47" t="n">
         <v>113062.8718181818</v>
       </c>
-      <c r="E47">
+      <c r="E47" t="n">
         <v>671.0945454545455</v>
       </c>
-      <c r="F47">
+      <c r="F47" t="n">
         <v>4875.541050371378</v>
       </c>
-      <c r="G47">
+      <c r="G47" t="n">
         <v>14.47543185099262</v>
       </c>
-      <c r="H47">
+      <c r="H47" t="n">
         <v>119148.86</v>
       </c>
-      <c r="I47">
+      <c r="I47" t="n">
         <v>112391.7772727273</v>
       </c>
-      <c r="J47">
+      <c r="J47" t="n">
         <v>4862.160256489057</v>
       </c>
-      <c r="K47">
+      <c r="K47" t="n">
         <v>1.389728509720484</v>
       </c>
-      <c r="L47" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="2">
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>vende_1_compra_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
         <v>45853</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="n">
         <v>117758.09</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="n">
         <v>688.4299999999999</v>
       </c>
-      <c r="D48">
+      <c r="D48" t="n">
         <v>113951.4036363637</v>
       </c>
-      <c r="E48">
+      <c r="E48" t="n">
         <v>673.3145454545455</v>
       </c>
-      <c r="F48">
+      <c r="F48" t="n">
         <v>4746.337548654284</v>
       </c>
-      <c r="G48">
+      <c r="G48" t="n">
         <v>15.13768830676372</v>
       </c>
-      <c r="H48">
+      <c r="H48" t="n">
         <v>117069.66</v>
       </c>
-      <c r="I48">
+      <c r="I48" t="n">
         <v>113278.0890909091</v>
       </c>
-      <c r="J48">
+      <c r="J48" t="n">
         <v>4732.092387505658</v>
       </c>
-      <c r="K48">
+      <c r="K48" t="n">
         <v>0.8012461715882706</v>
       </c>
-      <c r="L48" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
-      <c r="A49" s="2">
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>vende_1_compra_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
         <v>45854</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="n">
         <v>118630.43</v>
       </c>
-      <c r="C49">
+      <c r="C49" t="n">
         <v>689.99</v>
       </c>
-      <c r="D49">
+      <c r="D49" t="n">
         <v>114899.7954545455</v>
       </c>
-      <c r="E49">
+      <c r="E49" t="n">
         <v>676.6236363636364</v>
       </c>
-      <c r="F49">
+      <c r="F49" t="n">
         <v>4518.587156624003</v>
       </c>
-      <c r="G49">
+      <c r="G49" t="n">
         <v>14.352903032298</v>
       </c>
-      <c r="H49">
+      <c r="H49" t="n">
         <v>117940.44</v>
       </c>
-      <c r="I49">
+      <c r="I49" t="n">
         <v>114223.1718181818</v>
       </c>
-      <c r="J49">
+      <c r="J49" t="n">
         <v>4505.172636139066</v>
       </c>
-      <c r="K49">
+      <c r="K49" t="n">
         <v>0.8251111515681803</v>
       </c>
-      <c r="L49" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="A50" s="2">
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>vende_1_compra_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
         <v>45855</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="n">
         <v>119177.56</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="n">
         <v>709.4</v>
       </c>
-      <c r="D50">
+      <c r="D50" t="n">
         <v>115806.4972727273</v>
       </c>
-      <c r="E50">
+      <c r="E50" t="n">
         <v>681.460909090909</v>
       </c>
-      <c r="F50">
+      <c r="F50" t="n">
         <v>4254.273966591943</v>
       </c>
-      <c r="G50">
+      <c r="G50" t="n">
         <v>15.68254918981327</v>
       </c>
-      <c r="H50">
+      <c r="H50" t="n">
         <v>118468.16</v>
       </c>
-      <c r="I50">
+      <c r="I50" t="n">
         <v>115125.0363636364</v>
       </c>
-      <c r="J50">
+      <c r="J50" t="n">
         <v>4240.604029232775</v>
       </c>
-      <c r="K50">
+      <c r="K50" t="n">
         <v>0.7883602461625004</v>
       </c>
-      <c r="L50" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="A51" s="2">
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>vende_1_compra_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
         <v>45856</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="n">
         <v>117924.84</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="n">
         <v>722.52</v>
       </c>
-      <c r="D51">
+      <c r="D51" t="n">
         <v>116684.8518181818</v>
       </c>
-      <c r="E51">
+      <c r="E51" t="n">
         <v>686.8654545454546</v>
       </c>
-      <c r="F51">
+      <c r="F51" t="n">
         <v>3465.31406410393</v>
       </c>
-      <c r="G51">
+      <c r="G51" t="n">
         <v>18.67015445229981</v>
       </c>
-      <c r="H51">
+      <c r="H51" t="n">
         <v>117202.32</v>
       </c>
-      <c r="I51">
+      <c r="I51" t="n">
         <v>115997.9863636364</v>
       </c>
-      <c r="J51">
+      <c r="J51" t="n">
         <v>3451.546683813676</v>
       </c>
-      <c r="K51">
+      <c r="K51" t="n">
         <v>0.348925785072369</v>
       </c>
-      <c r="L51" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
-      <c r="A52" s="2">
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
         <v>45857</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="n">
         <v>117840</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="n">
         <v>730.22</v>
       </c>
-      <c r="D52">
+      <c r="D52" t="n">
         <v>117495.49</v>
       </c>
-      <c r="E52">
+      <c r="E52" t="n">
         <v>693.1290909090909</v>
       </c>
-      <c r="F52">
+      <c r="F52" t="n">
         <v>2322.568663114208</v>
       </c>
-      <c r="G52">
+      <c r="G52" t="n">
         <v>20.69112972002527</v>
       </c>
-      <c r="H52">
+      <c r="H52" t="n">
         <v>117109.78</v>
       </c>
-      <c r="I52">
+      <c r="I52" t="n">
         <v>116802.3609090909</v>
       </c>
-      <c r="J52">
+      <c r="J52" t="n">
         <v>2310.841450370136</v>
       </c>
-      <c r="K52">
+      <c r="K52" t="n">
         <v>0.1330333982281031</v>
       </c>
-      <c r="L52" t="s">
-        <v>13</v>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/notebooks/arbitragem/resultados/estrategia.xlsx
+++ b/notebooks/arbitragem/resultados/estrategia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:M91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,55 +445,60 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>status_cointegracao</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Ativo1</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Ativo2</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>ativo1_mean</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ativo2_mean</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>ativo1_std</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ativo2_std</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>spread</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>rolling_mean</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>rolling_std</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>zscore</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>sinal</t>
         </is>
@@ -501,359 +506,386 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45807</v>
-      </c>
-      <c r="B2" t="n">
-        <v>103985.48</v>
+        <v>45677</v>
+      </c>
+      <c r="B2" t="b">
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>676.6</v>
+        <v>2.033e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>108000.4145454546</v>
+        <v>3284</v>
       </c>
       <c r="E2" t="n">
-        <v>670.7790909090909</v>
+        <v>2.2302e-05</v>
       </c>
       <c r="F2" t="n">
-        <v>2100.692101248375</v>
+        <v>3377.676</v>
       </c>
       <c r="G2" t="n">
-        <v>13.5636871495515</v>
+        <v>1.308247522049009e-06</v>
       </c>
       <c r="H2" t="n">
-        <v>103308.88</v>
+        <v>162.5495190752004</v>
       </c>
       <c r="I2" t="n">
-        <v>107329.6354545455</v>
+        <v>-3283.99997967</v>
       </c>
       <c r="J2" t="n">
-        <v>2104.019330426241</v>
+        <v>-3377.675977698</v>
       </c>
       <c r="K2" t="n">
-        <v>-1.91098788704138</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>compra_1_vende_2</t>
+        <v>162.549517919145</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.5762920691933145</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>neutro</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45808</v>
-      </c>
-      <c r="B3" t="n">
-        <v>104591.88</v>
+        <v>45678</v>
+      </c>
+      <c r="B3" t="b">
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>654.12</v>
+        <v>2.09e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>107795.1318181818</v>
+        <v>3327.54</v>
       </c>
       <c r="E3" t="n">
-        <v>671.13</v>
+        <v>2.2262e-05</v>
       </c>
       <c r="F3" t="n">
-        <v>2322.93248235854</v>
+        <v>3376.034000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>13.01873188908963</v>
+        <v>1.339479867631267e-06</v>
       </c>
       <c r="H3" t="n">
-        <v>103937.76</v>
+        <v>162.8989225643668</v>
       </c>
       <c r="I3" t="n">
-        <v>107124.0018181818</v>
+        <v>-3327.5399791</v>
       </c>
       <c r="J3" t="n">
-        <v>2324.477770910357</v>
+        <v>-3376.033977738</v>
       </c>
       <c r="K3" t="n">
-        <v>-1.370734475526496</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>compra_1_vende_2</t>
+        <v>162.8989213918692</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.2976937982378866</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>neutro</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45809</v>
-      </c>
-      <c r="B4" t="n">
-        <v>105642.93</v>
+        <v>45679</v>
+      </c>
+      <c r="B4" t="b">
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>657.61</v>
+        <v>2.018e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>107431.3990909091</v>
+        <v>3242.6</v>
       </c>
       <c r="E4" t="n">
-        <v>671.7827272727274</v>
+        <v>2.21255e-05</v>
       </c>
       <c r="F4" t="n">
-        <v>2317.725885429325</v>
+        <v>3365.3805</v>
       </c>
       <c r="G4" t="n">
-        <v>12.01868386380892</v>
+        <v>1.407350908248321e-06</v>
       </c>
       <c r="H4" t="n">
-        <v>104985.32</v>
+        <v>164.377280907929</v>
       </c>
       <c r="I4" t="n">
-        <v>106759.6163636364</v>
+        <v>-3242.59997982</v>
       </c>
       <c r="J4" t="n">
-        <v>2316.24991839082</v>
+        <v>-3365.3804778745</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.7660211230008533</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>compra_1_vende_2</t>
+        <v>164.3772796828606</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.7469432411303122</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>neutro</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45810</v>
-      </c>
-      <c r="B5" t="n">
-        <v>105857.99</v>
+        <v>45680</v>
+      </c>
+      <c r="B5" t="b">
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>661.0700000000001</v>
+        <v>2.014e-05</v>
       </c>
       <c r="D5" t="n">
-        <v>106900.6518181818</v>
+        <v>3338.21</v>
       </c>
       <c r="E5" t="n">
-        <v>670.53</v>
+        <v>2.1911e-05</v>
       </c>
       <c r="F5" t="n">
-        <v>1868.339303616031</v>
+        <v>3351.8405</v>
       </c>
       <c r="G5" t="n">
-        <v>12.3797390925657</v>
+        <v>1.363883387514068e-06</v>
       </c>
       <c r="H5" t="n">
-        <v>105196.92</v>
+        <v>154.0837417385685</v>
       </c>
       <c r="I5" t="n">
-        <v>106230.1218181818</v>
+        <v>-3338.20997986</v>
       </c>
       <c r="J5" t="n">
-        <v>1866.699995633043</v>
+        <v>-3351.840478089</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.553491091551339</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>compra_1_vende_2</t>
+        <v>154.0837406248506</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.08846162595562999</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>neutro</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45811</v>
-      </c>
-      <c r="B6" t="n">
-        <v>105376.89</v>
+        <v>45681</v>
+      </c>
+      <c r="B6" t="b">
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>666.75</v>
+        <v>1.997e-05</v>
       </c>
       <c r="D6" t="n">
-        <v>106724.16</v>
+        <v>3310.09</v>
       </c>
       <c r="E6" t="n">
-        <v>668.8509090909091</v>
+        <v>2.1693e-05</v>
       </c>
       <c r="F6" t="n">
-        <v>1916.029609071864</v>
+        <v>3334.501</v>
       </c>
       <c r="G6" t="n">
-        <v>11.4020125017871</v>
+        <v>1.304018485500234e-06</v>
       </c>
       <c r="H6" t="n">
-        <v>104710.14</v>
+        <v>136.4541628031764</v>
       </c>
       <c r="I6" t="n">
-        <v>106055.3090909091</v>
+        <v>-3310.08998003</v>
       </c>
       <c r="J6" t="n">
-        <v>1914.614942553497</v>
+        <v>-3334.500978307</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.702579438304732</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>compra_1_vende_2</t>
+        <v>136.4541618280823</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.1788952271588054</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>neutro</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45812</v>
-      </c>
-      <c r="B7" t="n">
-        <v>104696.86</v>
+        <v>45682</v>
+      </c>
+      <c r="B7" t="b">
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>661.38</v>
+        <v>1.994e-05</v>
       </c>
       <c r="D7" t="n">
-        <v>106445.5190909091</v>
+        <v>3318.77</v>
       </c>
       <c r="E7" t="n">
-        <v>669.3409090909091</v>
+        <v>2.1494e-05</v>
       </c>
       <c r="F7" t="n">
-        <v>1972.071665469889</v>
+        <v>3318.64</v>
       </c>
       <c r="G7" t="n">
-        <v>10.89875814443595</v>
+        <v>1.248794787406098e-06</v>
       </c>
       <c r="H7" t="n">
-        <v>104035.48</v>
+        <v>116.5502948132377</v>
       </c>
       <c r="I7" t="n">
-        <v>105776.1781818182</v>
+        <v>-3318.76998006</v>
       </c>
       <c r="J7" t="n">
-        <v>1969.17178905661</v>
+        <v>-3318.639978506</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.8839747712677435</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>compra_1_vende_2</t>
+        <v>116.5502939908728</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-0.00111541163517122</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>neutro</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45813</v>
-      </c>
-      <c r="B8" t="n">
-        <v>101508.68</v>
+        <v>45683</v>
+      </c>
+      <c r="B8" t="b">
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>663.54</v>
+        <v>1.909e-05</v>
       </c>
       <c r="D8" t="n">
-        <v>105764.1090909091</v>
+        <v>3232.61</v>
       </c>
       <c r="E8" t="n">
-        <v>668.9418181818181</v>
+        <v>2.12455e-05</v>
       </c>
       <c r="F8" t="n">
-        <v>2271.755586697043</v>
+        <v>3295.898</v>
       </c>
       <c r="G8" t="n">
-        <v>11.03511288404593</v>
+        <v>1.205035378384347e-06</v>
       </c>
       <c r="H8" t="n">
-        <v>100845.14</v>
+        <v>79.18393866913863</v>
       </c>
       <c r="I8" t="n">
-        <v>105095.1672727273</v>
+        <v>-3232.60998091</v>
       </c>
       <c r="J8" t="n">
-        <v>2267.949724787099</v>
+        <v>-3295.8979787545</v>
       </c>
       <c r="K8" t="n">
-        <v>-1.873951272498445</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>compra_1_vende_2</t>
+        <v>79.18393802539296</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.7992529725435592</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>neutro</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45814</v>
-      </c>
-      <c r="B9" t="n">
-        <v>104288.44</v>
+        <v>45684</v>
+      </c>
+      <c r="B9" t="b">
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>632.96</v>
+        <v>1.897e-05</v>
       </c>
       <c r="D9" t="n">
-        <v>105296.2590909091</v>
+        <v>3182.44</v>
       </c>
       <c r="E9" t="n">
-        <v>665.5909090909091</v>
+        <v>2.11045e-05</v>
       </c>
       <c r="F9" t="n">
-        <v>1946.913340107684</v>
+        <v>3285.9545</v>
       </c>
       <c r="G9" t="n">
-        <v>15.45361669936558</v>
+        <v>1.299268923988455e-06</v>
       </c>
       <c r="H9" t="n">
-        <v>103655.48</v>
+        <v>80.37146354501972</v>
       </c>
       <c r="I9" t="n">
-        <v>104630.6681818182</v>
+        <v>-3182.43998103</v>
       </c>
       <c r="J9" t="n">
-        <v>1940.820792030125</v>
+        <v>-3285.9544788955</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.5024617346551307</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>compra_1_vende_2</t>
+        <v>80.37146279053752</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.287950900374642</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>neutro</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45815</v>
-      </c>
-      <c r="B10" t="n">
-        <v>105552.15</v>
+        <v>45685</v>
+      </c>
+      <c r="B10" t="b">
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>642.95</v>
+        <v>1.796e-05</v>
       </c>
       <c r="D10" t="n">
-        <v>104988.4390909091</v>
+        <v>3077.72</v>
       </c>
       <c r="E10" t="n">
-        <v>662.7581818181818</v>
+        <v>2.09375e-05</v>
       </c>
       <c r="F10" t="n">
-        <v>1538.323631427818</v>
+        <v>3273.476</v>
       </c>
       <c r="G10" t="n">
-        <v>16.55267580675823</v>
+        <v>1.475515520972786e-06</v>
       </c>
       <c r="H10" t="n">
-        <v>104909.2</v>
+        <v>92.12994115292881</v>
       </c>
       <c r="I10" t="n">
-        <v>104325.6809090909</v>
+        <v>-3077.71998204</v>
       </c>
       <c r="J10" t="n">
-        <v>1533.646234804223</v>
+        <v>-3273.4759790625</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3804782861046034</v>
-      </c>
-      <c r="L10" t="inlineStr">
+        <v>92.12994014909962</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.124781549903283</v>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>neutro</t>
         </is>
@@ -861,39 +893,42 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45816</v>
-      </c>
-      <c r="B11" t="n">
-        <v>105734</v>
+        <v>45686</v>
+      </c>
+      <c r="B11" t="b">
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>650.59</v>
+        <v>1.829e-05</v>
       </c>
       <c r="D11" t="n">
-        <v>104802.2772727273</v>
+        <v>3113.9</v>
       </c>
       <c r="E11" t="n">
-        <v>659.5445454545454</v>
+        <v>2.08e-05</v>
       </c>
       <c r="F11" t="n">
-        <v>1266.344547775999</v>
+        <v>3268.211</v>
       </c>
       <c r="G11" t="n">
-        <v>14.95652590920538</v>
+        <v>1.589213642025519e-06</v>
       </c>
       <c r="H11" t="n">
-        <v>105083.41</v>
+        <v>98.20354966786303</v>
       </c>
       <c r="I11" t="n">
-        <v>104142.7327272727</v>
+        <v>-3113.89998171</v>
       </c>
       <c r="J11" t="n">
-        <v>1267.000762115752</v>
+        <v>-3268.2109792</v>
       </c>
       <c r="K11" t="n">
-        <v>0.7424441254135068</v>
-      </c>
-      <c r="L11" t="inlineStr">
+        <v>98.2035485044719</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.571338305386928</v>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>neutro</t>
         </is>
@@ -901,39 +936,42 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45817</v>
-      </c>
-      <c r="B12" t="n">
-        <v>110263.02</v>
+        <v>45687</v>
+      </c>
+      <c r="B12" t="b">
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>652.45</v>
+        <v>1.868e-05</v>
       </c>
       <c r="D12" t="n">
-        <v>105227.12</v>
+        <v>3247.39</v>
       </c>
       <c r="E12" t="n">
-        <v>656.3654545454546</v>
+        <v>2.0656e-05</v>
       </c>
       <c r="F12" t="n">
-        <v>2079.67493137754</v>
+        <v>3267.2285</v>
       </c>
       <c r="G12" t="n">
-        <v>11.82833662324225</v>
+        <v>1.646183464866543e-06</v>
       </c>
       <c r="H12" t="n">
-        <v>109610.57</v>
+        <v>98.314116043532</v>
       </c>
       <c r="I12" t="n">
-        <v>104570.7545454545</v>
+        <v>-3247.38998132</v>
       </c>
       <c r="J12" t="n">
-        <v>2082.256859541435</v>
+        <v>-3267.228479344</v>
       </c>
       <c r="K12" t="n">
-        <v>2.420362037205801</v>
-      </c>
-      <c r="L12" t="inlineStr">
+        <v>98.31411485885737</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.201786875185527</v>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>neutro</t>
         </is>
@@ -941,39 +979,42 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45818</v>
-      </c>
-      <c r="B13" t="n">
-        <v>110274.39</v>
+        <v>45688</v>
+      </c>
+      <c r="B13" t="b">
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>667.49</v>
+        <v>1.89e-05</v>
       </c>
       <c r="D13" t="n">
-        <v>105798.8390909091</v>
+        <v>3300.99</v>
       </c>
       <c r="E13" t="n">
-        <v>655.5372727272728</v>
+        <v>2.04905e-05</v>
       </c>
       <c r="F13" t="n">
-        <v>2521.671129574443</v>
+        <v>3268.1365</v>
       </c>
       <c r="G13" t="n">
-        <v>10.51603260826956</v>
+        <v>1.648113674541457e-06</v>
       </c>
       <c r="H13" t="n">
-        <v>109606.9</v>
+        <v>98.54936931491973</v>
       </c>
       <c r="I13" t="n">
-        <v>105143.3018181818</v>
+        <v>-3300.9899811</v>
       </c>
       <c r="J13" t="n">
-        <v>2520.366159655463</v>
+        <v>-3268.136479509501</v>
       </c>
       <c r="K13" t="n">
-        <v>1.771011789187153</v>
-      </c>
-      <c r="L13" t="inlineStr">
+        <v>98.54936817607823</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-0.3333710017480747</v>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>neutro</t>
         </is>
@@ -981,39 +1022,42 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45819</v>
-      </c>
-      <c r="B14" t="n">
-        <v>108645.12</v>
+        <v>45689</v>
+      </c>
+      <c r="B14" t="b">
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>673.89</v>
+        <v>1.76e-05</v>
       </c>
       <c r="D14" t="n">
-        <v>106167.3154545454</v>
+        <v>3117.54</v>
       </c>
       <c r="E14" t="n">
-        <v>657.3345454545455</v>
+        <v>2.02925e-05</v>
       </c>
       <c r="F14" t="n">
-        <v>2621.817966363686</v>
+        <v>3260.6485</v>
       </c>
       <c r="G14" t="n">
-        <v>11.85390767944198</v>
+        <v>1.747725966114711e-06</v>
       </c>
       <c r="H14" t="n">
-        <v>107971.23</v>
+        <v>104.1468570551878</v>
       </c>
       <c r="I14" t="n">
-        <v>105509.9809090909</v>
+        <v>-3117.5399824</v>
       </c>
       <c r="J14" t="n">
-        <v>2618.917971237195</v>
+        <v>-3260.6484797075</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9397961745805936</v>
-      </c>
-      <c r="L14" t="inlineStr">
+        <v>104.1468557721052</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.374102907347014</v>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>neutro</t>
         </is>
@@ -1021,39 +1065,42 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45820</v>
-      </c>
-      <c r="B15" t="n">
-        <v>105671.73</v>
+        <v>45690</v>
+      </c>
+      <c r="B15" t="b">
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>667.26</v>
+        <v>1.551e-05</v>
       </c>
       <c r="D15" t="n">
-        <v>106169.9336363636</v>
+        <v>2869.68</v>
       </c>
       <c r="E15" t="n">
-        <v>658.2118181818182</v>
+        <v>2.0008e-05</v>
       </c>
       <c r="F15" t="n">
-        <v>2621.256262208179</v>
+        <v>3247.257</v>
       </c>
       <c r="G15" t="n">
-        <v>12.22752781078998</v>
+        <v>2.032192489846742e-06</v>
       </c>
       <c r="H15" t="n">
-        <v>105004.47</v>
+        <v>133.8088623490908</v>
       </c>
       <c r="I15" t="n">
-        <v>105511.7218181818</v>
+        <v>-2869.67998449</v>
       </c>
       <c r="J15" t="n">
-        <v>2618.540667470417</v>
+        <v>-3247.256979992</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.1937154631521668</v>
-      </c>
-      <c r="L15" t="inlineStr">
+        <v>133.8088606009932</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2.821763774133788</v>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>neutro</t>
         </is>
@@ -1061,39 +1108,42 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45821</v>
-      </c>
-      <c r="B16" t="n">
-        <v>106066.59</v>
+        <v>45691</v>
+      </c>
+      <c r="B16" t="b">
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>651.45</v>
+        <v>1.68e-05</v>
       </c>
       <c r="D16" t="n">
-        <v>106188.8972727273</v>
+        <v>2879.9</v>
       </c>
       <c r="E16" t="n">
-        <v>657.3372727272728</v>
+        <v>1.97665e-05</v>
       </c>
       <c r="F16" t="n">
-        <v>2619.527804433837</v>
+        <v>3229.9705</v>
       </c>
       <c r="G16" t="n">
-        <v>12.34610958230114</v>
+        <v>2.11461399986406e-06</v>
       </c>
       <c r="H16" t="n">
-        <v>105415.14</v>
+        <v>157.0615698740969</v>
       </c>
       <c r="I16" t="n">
-        <v>105531.56</v>
+        <v>-2879.8999832</v>
       </c>
       <c r="J16" t="n">
-        <v>2616.74322482739</v>
+        <v>-3229.9704802335</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.04449041804920608</v>
-      </c>
-      <c r="L16" t="inlineStr">
+        <v>157.0615680061155</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.228874329204898</v>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>neutro</t>
         </is>
@@ -1101,39 +1151,42 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45822</v>
-      </c>
-      <c r="B17" t="n">
-        <v>105414.64</v>
+        <v>45692</v>
+      </c>
+      <c r="B17" t="b">
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>654.72</v>
+        <v>1.575e-05</v>
       </c>
       <c r="D17" t="n">
-        <v>106192.3290909091</v>
+        <v>2731.19</v>
       </c>
       <c r="E17" t="n">
-        <v>656.2436363636364</v>
+        <v>1.9417e-05</v>
       </c>
       <c r="F17" t="n">
-        <v>2618.382098630608</v>
+        <v>3193.954</v>
       </c>
       <c r="G17" t="n">
-        <v>11.95557800587458</v>
+        <v>2.174103808106017e-06</v>
       </c>
       <c r="H17" t="n">
-        <v>104759.92</v>
+        <v>183.8838933847004</v>
       </c>
       <c r="I17" t="n">
-        <v>105536.0854545455</v>
+        <v>-2731.18998425</v>
       </c>
       <c r="J17" t="n">
-        <v>2615.223188236011</v>
+        <v>-3193.953980583</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.2967874627438569</v>
-      </c>
-      <c r="L17" t="inlineStr">
+        <v>183.8838914764047</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2.516609761831041</v>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>neutro</t>
         </is>
@@ -1141,39 +1194,42 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45823</v>
-      </c>
-      <c r="B18" t="n">
-        <v>105594.01</v>
+        <v>45693</v>
+      </c>
+      <c r="B18" t="b">
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>645.52</v>
+        <v>1.577e-05</v>
       </c>
       <c r="D18" t="n">
-        <v>106273.8881818182</v>
+        <v>2788.25</v>
       </c>
       <c r="E18" t="n">
-        <v>654.8018181818182</v>
+        <v>1.91045e-05</v>
       </c>
       <c r="F18" t="n">
-        <v>2580.845507553</v>
+        <v>3167.964</v>
       </c>
       <c r="G18" t="n">
-        <v>12.22745011699673</v>
+        <v>2.22875578931858e-06</v>
       </c>
       <c r="H18" t="n">
-        <v>104948.49</v>
+        <v>202.6821046134226</v>
       </c>
       <c r="I18" t="n">
-        <v>105619.0863636364</v>
+        <v>-2788.24998423</v>
       </c>
       <c r="J18" t="n">
-        <v>2577.044708010612</v>
+        <v>-3167.9639808955</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.2602191423190522</v>
-      </c>
-      <c r="L18" t="inlineStr">
+        <v>202.6821026172024</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.873446109756672</v>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>neutro</t>
         </is>
@@ -1181,39 +1237,42 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45824</v>
-      </c>
-      <c r="B19" t="n">
-        <v>106794.53</v>
+        <v>45694</v>
+      </c>
+      <c r="B19" t="b">
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>648.04</v>
+        <v>1.486e-05</v>
       </c>
       <c r="D19" t="n">
-        <v>106754.42</v>
+        <v>2686.64</v>
       </c>
       <c r="E19" t="n">
-        <v>653.3927272727274</v>
+        <v>1.8638e-05</v>
       </c>
       <c r="F19" t="n">
-        <v>2040.379256760884</v>
+        <v>3128.6145</v>
       </c>
       <c r="G19" t="n">
-        <v>12.0109567403346</v>
+        <v>2.079735813181957e-06</v>
       </c>
       <c r="H19" t="n">
-        <v>106146.49</v>
+        <v>216.1619886609165</v>
       </c>
       <c r="I19" t="n">
-        <v>106101.0272727273</v>
+        <v>-2686.63998514</v>
       </c>
       <c r="J19" t="n">
-        <v>2033.328491543324</v>
+        <v>-3128.614481362</v>
       </c>
       <c r="K19" t="n">
-        <v>0.02235877157173761</v>
-      </c>
-      <c r="L19" t="inlineStr">
+        <v>216.1619867596263</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2.044644864933998</v>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>neutro</t>
         </is>
@@ -1221,279 +1280,300 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45825</v>
-      </c>
-      <c r="B20" t="n">
-        <v>104551.17</v>
+        <v>45695</v>
+      </c>
+      <c r="B20" t="b">
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>650.1799999999999</v>
+        <v>1.51e-05</v>
       </c>
       <c r="D20" t="n">
-        <v>106778.3045454545</v>
+        <v>2622.1</v>
       </c>
       <c r="E20" t="n">
-        <v>654.9581818181819</v>
+        <v>1.8254e-05</v>
       </c>
       <c r="F20" t="n">
-        <v>2009.936644018256</v>
+        <v>3094.334</v>
       </c>
       <c r="G20" t="n">
-        <v>10.04240490936526</v>
+        <v>1.981398761640782e-06</v>
       </c>
       <c r="H20" t="n">
-        <v>103900.99</v>
+        <v>239.3821859968525</v>
       </c>
       <c r="I20" t="n">
-        <v>106123.3463636364</v>
+        <v>-2622.0999849</v>
       </c>
       <c r="J20" t="n">
-        <v>2004.949638356406</v>
+        <v>-3094.333981746</v>
       </c>
       <c r="K20" t="n">
-        <v>-1.108435005608513</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>compra_1_vende_2</t>
+        <v>239.3821841069642</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.972719893954136</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>neutro</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45826</v>
-      </c>
-      <c r="B21" t="n">
-        <v>104886.78</v>
+        <v>45696</v>
+      </c>
+      <c r="B21" t="b">
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>648.65</v>
+        <v>1.596e-05</v>
       </c>
       <c r="D21" t="n">
-        <v>106717.8163636364</v>
+        <v>2632.46</v>
       </c>
       <c r="E21" t="n">
-        <v>655.4763636363637</v>
+        <v>1.8035e-05</v>
       </c>
       <c r="F21" t="n">
-        <v>2059.917868383483</v>
+        <v>3065.201</v>
       </c>
       <c r="G21" t="n">
-        <v>9.492850228174495</v>
+        <v>1.980758759455058e-06</v>
       </c>
       <c r="H21" t="n">
-        <v>104238.13</v>
+        <v>258.5930036074777</v>
       </c>
       <c r="I21" t="n">
-        <v>106062.34</v>
+        <v>-2632.45998404</v>
       </c>
       <c r="J21" t="n">
-        <v>2055.168614211502</v>
+        <v>-3065.200981965</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.8876206007553685</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>compra_1_vende_2</t>
+        <v>258.593001719593</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.673444350958287</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>neutro</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45827</v>
-      </c>
-      <c r="B22" t="n">
-        <v>104658.59</v>
+        <v>45697</v>
+      </c>
+      <c r="B22" t="b">
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>644.61</v>
+        <v>1.566e-05</v>
       </c>
       <c r="D22" t="n">
-        <v>106620.0518181818</v>
+        <v>2627.18</v>
       </c>
       <c r="E22" t="n">
-        <v>654.9327272727273</v>
+        <v>1.78015e-05</v>
       </c>
       <c r="F22" t="n">
-        <v>2135.415600166973</v>
+        <v>3032.36</v>
       </c>
       <c r="G22" t="n">
-        <v>9.960383618023412</v>
+        <v>1.971211956880188e-06</v>
       </c>
       <c r="H22" t="n">
-        <v>104013.98</v>
+        <v>270.7645371710887</v>
       </c>
       <c r="I22" t="n">
-        <v>105965.1190909091</v>
+        <v>-2627.17998434</v>
       </c>
       <c r="J22" t="n">
-        <v>2130.039532879407</v>
+        <v>-3032.3599821985</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.9160107410173354</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>compra_1_vende_2</t>
+        <v>270.7645352932736</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.496429351132107</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>neutro</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45828</v>
-      </c>
-      <c r="B23" t="n">
-        <v>103297.99</v>
+        <v>45698</v>
+      </c>
+      <c r="B23" t="b">
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>644.5700000000001</v>
+        <v>1.58e-05</v>
       </c>
       <c r="D23" t="n">
-        <v>105986.8672727273</v>
+        <v>2661.19</v>
       </c>
       <c r="E23" t="n">
-        <v>654.2163636363636</v>
+        <v>1.75465e-05</v>
       </c>
       <c r="F23" t="n">
-        <v>1973.695165161521</v>
+        <v>2999.0425</v>
       </c>
       <c r="G23" t="n">
-        <v>10.42914020687002</v>
+        <v>1.876904716758293e-06</v>
       </c>
       <c r="H23" t="n">
-        <v>102653.42</v>
+        <v>273.5141752869401</v>
       </c>
       <c r="I23" t="n">
-        <v>105332.6509090909</v>
+        <v>-2661.1899842</v>
       </c>
       <c r="J23" t="n">
-        <v>1965.923361763912</v>
+        <v>-2999.0424824535</v>
       </c>
       <c r="K23" t="n">
-        <v>-1.362835887298782</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>compra_1_vende_2</t>
+        <v>273.5141734937432</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.235228485375836</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>neutro</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45829</v>
-      </c>
-      <c r="B24" t="n">
-        <v>102120.01</v>
+        <v>45699</v>
+      </c>
+      <c r="B24" t="b">
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>641.58</v>
+        <v>1.569e-05</v>
       </c>
       <c r="D24" t="n">
-        <v>105245.56</v>
+        <v>2602.59</v>
       </c>
       <c r="E24" t="n">
-        <v>651.860909090909</v>
+        <v>1.7322e-05</v>
       </c>
       <c r="F24" t="n">
-        <v>1716.961236662087</v>
+        <v>2967.042</v>
       </c>
       <c r="G24" t="n">
-        <v>10.05051287700867</v>
+        <v>1.812760616471915e-06</v>
       </c>
       <c r="H24" t="n">
-        <v>101478.43</v>
+        <v>280.8599357349726</v>
       </c>
       <c r="I24" t="n">
-        <v>104593.6990909091</v>
+        <v>-2602.58998431</v>
       </c>
       <c r="J24" t="n">
-        <v>1709.614356593067</v>
+        <v>-2967.041982678</v>
       </c>
       <c r="K24" t="n">
-        <v>-1.822205738326404</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>compra_1_vende_2</t>
+        <v>280.8599339978729</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.297629010945933</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>neutro</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45830</v>
-      </c>
-      <c r="B25" t="n">
-        <v>100963.87</v>
+        <v>45700</v>
+      </c>
+      <c r="B25" t="b">
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>629.54</v>
+        <v>1.7e-05</v>
       </c>
       <c r="D25" t="n">
-        <v>104547.2645454546</v>
+        <v>2738.27</v>
       </c>
       <c r="E25" t="n">
-        <v>647.829090909091</v>
+        <v>1.7165e-05</v>
       </c>
       <c r="F25" t="n">
-        <v>1757.601717803987</v>
+        <v>2937.045</v>
       </c>
       <c r="G25" t="n">
-        <v>9.188357257470914</v>
+        <v>1.687500487329382e-06</v>
       </c>
       <c r="H25" t="n">
-        <v>100334.33</v>
+        <v>270.9960487282354</v>
       </c>
       <c r="I25" t="n">
-        <v>103899.4354545455</v>
+        <v>-2738.269983</v>
       </c>
       <c r="J25" t="n">
-        <v>1751.008296064671</v>
+        <v>-2937.044982835</v>
       </c>
       <c r="K25" t="n">
-        <v>-2.036030019136917</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>compra_1_vende_2</t>
+        <v>270.9960471350341</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.7334977832202577</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>neutro</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45831</v>
-      </c>
-      <c r="B26" t="n">
-        <v>105333.93</v>
+        <v>45701</v>
+      </c>
+      <c r="B26" t="b">
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>616.21</v>
+        <v>1.629e-05</v>
       </c>
       <c r="D26" t="n">
-        <v>104516.5554545454</v>
+        <v>2675.87</v>
       </c>
       <c r="E26" t="n">
-        <v>643.1881818181818</v>
+        <v>1.6981e-05</v>
       </c>
       <c r="F26" t="n">
-        <v>1738.841120754719</v>
+        <v>2905.334</v>
       </c>
       <c r="G26" t="n">
-        <v>11.08849567631458</v>
+        <v>1.561476696490944e-06</v>
       </c>
       <c r="H26" t="n">
-        <v>104717.72</v>
+        <v>262.0040546371682</v>
       </c>
       <c r="I26" t="n">
-        <v>103873.3672727273</v>
+        <v>-2675.86998371</v>
       </c>
       <c r="J26" t="n">
-        <v>1734.973017900234</v>
+        <v>-2905.333983019</v>
       </c>
       <c r="K26" t="n">
-        <v>0.4866662008926185</v>
-      </c>
-      <c r="L26" t="inlineStr">
+        <v>262.0040531770234</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.8758032424558041</v>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>neutro</t>
         </is>
@@ -1501,39 +1581,42 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45832</v>
-      </c>
-      <c r="B27" t="n">
-        <v>106083</v>
+        <v>45702</v>
+      </c>
+      <c r="B27" t="b">
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>640.61</v>
+        <v>1.672e-05</v>
       </c>
       <c r="D27" t="n">
-        <v>104518.0472727273</v>
+        <v>2725.95</v>
       </c>
       <c r="E27" t="n">
-        <v>642.2027272727273</v>
+        <v>1.682e-05</v>
       </c>
       <c r="F27" t="n">
-        <v>1740.310356615185</v>
+        <v>2875.693</v>
       </c>
       <c r="G27" t="n">
-        <v>10.75757601963346</v>
+        <v>1.397742540858788e-06</v>
       </c>
       <c r="H27" t="n">
-        <v>105442.39</v>
+        <v>245.8020046190375</v>
       </c>
       <c r="I27" t="n">
-        <v>103875.8445454545</v>
+        <v>-2725.94998328</v>
       </c>
       <c r="J27" t="n">
-        <v>1737.412311423889</v>
+        <v>-2875.69298318</v>
       </c>
       <c r="K27" t="n">
-        <v>0.9016543996177857</v>
-      </c>
-      <c r="L27" t="inlineStr">
+        <v>245.8020033350066</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.6092017065292731</v>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>neutro</t>
         </is>
@@ -1541,39 +1624,42 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45833</v>
-      </c>
-      <c r="B28" t="n">
-        <v>107340.58</v>
+        <v>45703</v>
+      </c>
+      <c r="B28" t="b">
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>643.21</v>
+        <v>1.632e-05</v>
       </c>
       <c r="D28" t="n">
-        <v>104693.1327272727</v>
+        <v>2693.04</v>
       </c>
       <c r="E28" t="n">
-        <v>641.1563636363636</v>
+        <v>1.66815e-05</v>
       </c>
       <c r="F28" t="n">
-        <v>1926.458143096304</v>
+        <v>2848.7145</v>
       </c>
       <c r="G28" t="n">
-        <v>9.947578874005318</v>
+        <v>1.294389817636119e-06</v>
       </c>
       <c r="H28" t="n">
-        <v>106697.37</v>
+        <v>233.888127586787</v>
       </c>
       <c r="I28" t="n">
-        <v>104051.9763636364</v>
+        <v>-2693.03998368</v>
       </c>
       <c r="J28" t="n">
-        <v>1924.166970121221</v>
+        <v>-2848.7144833185</v>
       </c>
       <c r="K28" t="n">
-        <v>1.374825406236432</v>
-      </c>
-      <c r="L28" t="inlineStr">
+        <v>233.8881264159341</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.6655938547374434</v>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>neutro</t>
         </is>
@@ -1581,39 +1667,42 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45834</v>
-      </c>
-      <c r="B29" t="n">
-        <v>106947.06</v>
+        <v>45704</v>
+      </c>
+      <c r="B29" t="b">
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>646.01</v>
+        <v>1.596e-05</v>
       </c>
       <c r="D29" t="n">
-        <v>104816.1372727273</v>
+        <v>2661.41</v>
       </c>
       <c r="E29" t="n">
-        <v>641.2009090909091</v>
+        <v>1.6531e-05</v>
       </c>
       <c r="F29" t="n">
-        <v>2030.137600287737</v>
+        <v>2822.663</v>
       </c>
       <c r="G29" t="n">
-        <v>9.970144888160879</v>
+        <v>1.184633632016807e-06</v>
       </c>
       <c r="H29" t="n">
-        <v>106301.05</v>
+        <v>223.548666739601</v>
       </c>
       <c r="I29" t="n">
-        <v>104174.9363636364</v>
+        <v>-2661.40998404</v>
       </c>
       <c r="J29" t="n">
-        <v>2027.621020631194</v>
+        <v>-2822.662983469</v>
       </c>
       <c r="K29" t="n">
-        <v>1.048575456029637</v>
-      </c>
-      <c r="L29" t="inlineStr">
+        <v>223.5486656810498</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.7213328647600588</v>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>neutro</t>
         </is>
@@ -1621,39 +1710,42 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45835</v>
-      </c>
-      <c r="B30" t="n">
-        <v>107047.59</v>
+        <v>45705</v>
+      </c>
+      <c r="B30" t="b">
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>642.3099999999999</v>
+        <v>1.575e-05</v>
       </c>
       <c r="D30" t="n">
-        <v>104839.1427272727</v>
+        <v>2744.05</v>
       </c>
       <c r="E30" t="n">
-        <v>640.6799999999999</v>
+        <v>1.64205e-05</v>
       </c>
       <c r="F30" t="n">
-        <v>2056.066839658197</v>
+        <v>2805.9795</v>
       </c>
       <c r="G30" t="n">
-        <v>9.723733850739212</v>
+        <v>1.146791749093768e-06</v>
       </c>
       <c r="H30" t="n">
-        <v>106405.28</v>
+        <v>215.8295219910736</v>
       </c>
       <c r="I30" t="n">
-        <v>104198.4627272727</v>
+        <v>-2744.04998425</v>
       </c>
       <c r="J30" t="n">
-        <v>2054.112719414844</v>
+        <v>-2805.9794835795</v>
       </c>
       <c r="K30" t="n">
-        <v>1.074340882985194</v>
-      </c>
-      <c r="L30" t="inlineStr">
+        <v>215.8295209775628</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.2869371115174619</v>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>neutro</t>
         </is>
@@ -1661,39 +1753,42 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45836</v>
-      </c>
-      <c r="B31" t="n">
-        <v>107296.79</v>
+        <v>45706</v>
+      </c>
+      <c r="B31" t="b">
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>645.24</v>
+        <v>1.523e-05</v>
       </c>
       <c r="D31" t="n">
-        <v>105088.7445454545</v>
+        <v>2671.99</v>
       </c>
       <c r="E31" t="n">
-        <v>640.2309090909091</v>
+        <v>1.62675e-05</v>
       </c>
       <c r="F31" t="n">
-        <v>2180.502202999915</v>
+        <v>2783.884</v>
       </c>
       <c r="G31" t="n">
-        <v>9.347914692107592</v>
+        <v>1.086800591790353e-06</v>
       </c>
       <c r="H31" t="n">
-        <v>106651.55</v>
+        <v>204.9954040665831</v>
       </c>
       <c r="I31" t="n">
-        <v>104448.5136363636</v>
+        <v>-2671.98998477</v>
       </c>
       <c r="J31" t="n">
-        <v>2177.961380655194</v>
+        <v>-2783.8839837325</v>
       </c>
       <c r="K31" t="n">
-        <v>1.011513052161478</v>
-      </c>
-      <c r="L31" t="inlineStr">
+        <v>204.9954031237097</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.5458366249070218</v>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>neutro</t>
         </is>
@@ -1701,39 +1796,42 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45837</v>
-      </c>
-      <c r="B32" t="n">
-        <v>108356.93</v>
+        <v>45707</v>
+      </c>
+      <c r="B32" t="b">
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>648.7</v>
+        <v>1.541e-05</v>
       </c>
       <c r="D32" t="n">
-        <v>105404.2127272727</v>
+        <v>2715.5</v>
       </c>
       <c r="E32" t="n">
-        <v>640.2354545454546</v>
+        <v>1.6104e-05</v>
       </c>
       <c r="F32" t="n">
-        <v>2389.381157317101</v>
+        <v>2757.2895</v>
       </c>
       <c r="G32" t="n">
-        <v>9.352428950424551</v>
+        <v>9.409424167179534e-07</v>
       </c>
       <c r="H32" t="n">
-        <v>107708.23</v>
+        <v>173.8318014777523</v>
       </c>
       <c r="I32" t="n">
-        <v>104763.9772727273</v>
+        <v>-2715.49998459</v>
       </c>
       <c r="J32" t="n">
-        <v>2385.832284311252</v>
+        <v>-2757.289483896</v>
       </c>
       <c r="K32" t="n">
-        <v>1.234056872577978</v>
-      </c>
-      <c r="L32" t="inlineStr">
+        <v>173.8318007129853</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.2404019237826246</v>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>neutro</t>
         </is>
@@ -1741,39 +1839,42 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45838</v>
-      </c>
-      <c r="B33" t="n">
-        <v>107146.5</v>
+        <v>45708</v>
+      </c>
+      <c r="B33" t="b">
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>655.24</v>
+        <v>1.554e-05</v>
       </c>
       <c r="D33" t="n">
-        <v>105630.3863636364</v>
+        <v>2738.04</v>
       </c>
       <c r="E33" t="n">
-        <v>641.2018181818182</v>
+        <v>1.5936e-05</v>
       </c>
       <c r="F33" t="n">
-        <v>2429.163131349074</v>
+        <v>2729.142</v>
       </c>
       <c r="G33" t="n">
-        <v>10.34604544565932</v>
+        <v>6.789341491981724e-07</v>
       </c>
       <c r="H33" t="n">
-        <v>106491.26</v>
+        <v>117.6630074944216</v>
       </c>
       <c r="I33" t="n">
-        <v>104989.1845454546</v>
+        <v>-2738.03998446</v>
       </c>
       <c r="J33" t="n">
-        <v>2424.56315914585</v>
+        <v>-2729.141984064</v>
       </c>
       <c r="K33" t="n">
-        <v>0.6195241600035722</v>
-      </c>
-      <c r="L33" t="inlineStr">
+        <v>117.6630070820176</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-0.07562275193083966</v>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>neutro</t>
         </is>
@@ -1781,39 +1882,42 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45839</v>
-      </c>
-      <c r="B34" t="n">
-        <v>105681.14</v>
+        <v>45709</v>
+      </c>
+      <c r="B34" t="b">
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>657.3200000000001</v>
+        <v>1.508e-05</v>
       </c>
       <c r="D34" t="n">
-        <v>105847.0363636364</v>
+        <v>2663</v>
       </c>
       <c r="E34" t="n">
-        <v>642.3609090909091</v>
+        <v>1.581e-05</v>
       </c>
       <c r="F34" t="n">
-        <v>2303.356873653241</v>
+        <v>2706.415</v>
       </c>
       <c r="G34" t="n">
-        <v>11.41962911354483</v>
+        <v>5.805804717785515e-07</v>
       </c>
       <c r="H34" t="n">
-        <v>105023.82</v>
+        <v>74.7763368495165</v>
       </c>
       <c r="I34" t="n">
-        <v>105204.6754545454</v>
+        <v>-2662.99998492</v>
       </c>
       <c r="J34" t="n">
-        <v>2298.253012156693</v>
+        <v>-2706.41498419</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.07869257805333529</v>
-      </c>
-      <c r="L34" t="inlineStr">
+        <v>74.77633665594276</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.5805981037792602</v>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>neutro</t>
         </is>
@@ -1821,39 +1925,42 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45840</v>
-      </c>
-      <c r="B35" t="n">
-        <v>108849.6</v>
+        <v>45710</v>
+      </c>
+      <c r="B35" t="b">
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>646.4</v>
+        <v>1.56e-05</v>
       </c>
       <c r="D35" t="n">
-        <v>106458.8172727273</v>
+        <v>2763.22</v>
       </c>
       <c r="E35" t="n">
-        <v>642.7990909090909</v>
+        <v>1.58145e-05</v>
       </c>
       <c r="F35" t="n">
-        <v>2099.098784269567</v>
+        <v>2701.092</v>
       </c>
       <c r="G35" t="n">
-        <v>11.47898815623226</v>
+        <v>5.784778119750553e-07</v>
       </c>
       <c r="H35" t="n">
-        <v>108203.2</v>
+        <v>65.79200548139529</v>
       </c>
       <c r="I35" t="n">
-        <v>105816.0181818182</v>
+        <v>-2763.2199844</v>
       </c>
       <c r="J35" t="n">
-        <v>2093.197891002286</v>
+        <v>-2701.0919841855</v>
       </c>
       <c r="K35" t="n">
-        <v>1.140447268957812</v>
-      </c>
-      <c r="L35" t="inlineStr">
+        <v>65.79200523136545</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-0.9443092666961495</v>
+      </c>
+      <c r="M35" t="inlineStr">
         <is>
           <t>neutro</t>
         </is>
@@ -1861,39 +1968,42 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45841</v>
-      </c>
-      <c r="B36" t="n">
-        <v>109584.78</v>
+        <v>45711</v>
+      </c>
+      <c r="B36" t="b">
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>660.49</v>
+        <v>1.546e-05</v>
       </c>
       <c r="D36" t="n">
-        <v>107242.5363636364</v>
+        <v>2819.69</v>
       </c>
       <c r="E36" t="n">
-        <v>645.6127272727273</v>
+        <v>1.57475e-05</v>
       </c>
       <c r="F36" t="n">
-        <v>1299.345325748923</v>
+        <v>2698.0815</v>
       </c>
       <c r="G36" t="n">
-        <v>11.69510332652912</v>
+        <v>5.342370358992306e-07</v>
       </c>
       <c r="H36" t="n">
-        <v>108924.29</v>
+        <v>58.1083807050127</v>
       </c>
       <c r="I36" t="n">
-        <v>106596.9236363636</v>
+        <v>-2819.68998454</v>
       </c>
       <c r="J36" t="n">
-        <v>1293.030388802027</v>
+        <v>-2698.0814842525</v>
       </c>
       <c r="K36" t="n">
-        <v>1.799931682806491</v>
-      </c>
-      <c r="L36" t="inlineStr">
+        <v>58.10838062326261</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-2.092787632061734</v>
+      </c>
+      <c r="M36" t="inlineStr">
         <is>
           <t>neutro</t>
         </is>
@@ -1901,39 +2011,42 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45842</v>
-      </c>
-      <c r="B37" t="n">
-        <v>107984.24</v>
+        <v>45712</v>
+      </c>
+      <c r="B37" t="b">
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>664.01</v>
+        <v>1.364e-05</v>
       </c>
       <c r="D37" t="n">
-        <v>107483.4736363636</v>
+        <v>2513.52</v>
       </c>
       <c r="E37" t="n">
-        <v>649.9581818181819</v>
+        <v>1.5642e-05</v>
       </c>
       <c r="F37" t="n">
-        <v>1146.811681360792</v>
+        <v>2687.198</v>
       </c>
       <c r="G37" t="n">
-        <v>7.962292155130089</v>
+        <v>7.123615285573066e-07</v>
       </c>
       <c r="H37" t="n">
-        <v>107320.23</v>
+        <v>70.61864123959856</v>
       </c>
       <c r="I37" t="n">
-        <v>106833.5154545454</v>
+        <v>-2513.51998636</v>
       </c>
       <c r="J37" t="n">
-        <v>1144.34737207167</v>
+        <v>-2687.197984358</v>
       </c>
       <c r="K37" t="n">
-        <v>0.425320630197668</v>
-      </c>
-      <c r="L37" t="inlineStr">
+        <v>70.61864089961594</v>
+      </c>
+      <c r="L37" t="n">
+        <v>2.459378937140444</v>
+      </c>
+      <c r="M37" t="inlineStr">
         <is>
           <t>neutro</t>
         </is>
@@ -1941,39 +2054,42 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45843</v>
-      </c>
-      <c r="B38" t="n">
-        <v>108198.12</v>
+        <v>45713</v>
+      </c>
+      <c r="B38" t="b">
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>653.59</v>
+        <v>1.409e-05</v>
       </c>
       <c r="D38" t="n">
-        <v>107675.7572727273</v>
+        <v>2495.7</v>
       </c>
       <c r="E38" t="n">
-        <v>651.1381818181818</v>
+        <v>1.5558e-05</v>
       </c>
       <c r="F38" t="n">
-        <v>1062.753987478723</v>
+        <v>2672.5705</v>
       </c>
       <c r="G38" t="n">
-        <v>7.378795048220668</v>
+        <v>7.911656956003716e-07</v>
       </c>
       <c r="H38" t="n">
-        <v>107544.53</v>
+        <v>78.44997047901764</v>
       </c>
       <c r="I38" t="n">
-        <v>107024.6190909091</v>
+        <v>-2495.69998591</v>
       </c>
       <c r="J38" t="n">
-        <v>1061.314945484683</v>
+        <v>-2672.570484442</v>
       </c>
       <c r="K38" t="n">
-        <v>0.4898742934911607</v>
-      </c>
-      <c r="L38" t="inlineStr">
+        <v>78.44996999874589</v>
+      </c>
+      <c r="L38" t="n">
+        <v>2.254564259678207</v>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>neutro</t>
         </is>
@@ -1981,39 +2097,42 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45844</v>
-      </c>
-      <c r="B39" t="n">
-        <v>109203.84</v>
+        <v>45714</v>
+      </c>
+      <c r="B39" t="b">
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>656.1900000000001</v>
+        <v>1.443e-05</v>
       </c>
       <c r="D39" t="n">
-        <v>107845.1445454545</v>
+        <v>2336.37</v>
       </c>
       <c r="E39" t="n">
-        <v>652.3181818181819</v>
+        <v>1.55365e-05</v>
       </c>
       <c r="F39" t="n">
-        <v>1148.979584956747</v>
+        <v>2655.057</v>
       </c>
       <c r="G39" t="n">
-        <v>7.012949191577365</v>
+        <v>8.16567108145648e-07</v>
       </c>
       <c r="H39" t="n">
-        <v>108547.65</v>
+        <v>108.4900992863347</v>
       </c>
       <c r="I39" t="n">
-        <v>107192.8263636364</v>
+        <v>-2336.36998557</v>
       </c>
       <c r="J39" t="n">
-        <v>1147.396826083075</v>
+        <v>-2655.0569844635</v>
       </c>
       <c r="K39" t="n">
-        <v>1.180780359127062</v>
-      </c>
-      <c r="L39" t="inlineStr">
+        <v>108.4900987539592</v>
+      </c>
+      <c r="L39" t="n">
+        <v>2.937475424519977</v>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>neutro</t>
         </is>
@@ -2021,39 +2140,42 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45845</v>
-      </c>
-      <c r="B40" t="n">
-        <v>108262.94</v>
+        <v>45715</v>
+      </c>
+      <c r="B40" t="b">
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>663.0700000000001</v>
+        <v>1.443e-05</v>
       </c>
       <c r="D40" t="n">
-        <v>107964.77</v>
+        <v>2307.72</v>
       </c>
       <c r="E40" t="n">
-        <v>653.8690909090909</v>
+        <v>1.5503e-05</v>
       </c>
       <c r="F40" t="n">
-        <v>1114.09718222429</v>
+        <v>2639.338</v>
       </c>
       <c r="G40" t="n">
-        <v>7.35638831838817</v>
+        <v>8.485349603566445e-07</v>
       </c>
       <c r="H40" t="n">
-        <v>107599.87</v>
+        <v>133.425914732132</v>
       </c>
       <c r="I40" t="n">
-        <v>107310.9009090909</v>
+        <v>-2307.71998557</v>
       </c>
       <c r="J40" t="n">
-        <v>1112.755886216357</v>
+        <v>-2639.337984497</v>
       </c>
       <c r="K40" t="n">
-        <v>0.259687766641852</v>
-      </c>
-      <c r="L40" t="inlineStr">
+        <v>133.4259141574775</v>
+      </c>
+      <c r="L40" t="n">
+        <v>2.485409232689269</v>
+      </c>
+      <c r="M40" t="inlineStr">
         <is>
           <t>neutro</t>
         </is>
@@ -2061,39 +2183,42 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45846</v>
-      </c>
-      <c r="B41" t="n">
-        <v>108922.98</v>
+        <v>45716</v>
+      </c>
+      <c r="B41" t="b">
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>661.3200000000001</v>
+        <v>1.394e-05</v>
       </c>
       <c r="D41" t="n">
-        <v>108135.26</v>
+        <v>2237.59</v>
       </c>
       <c r="E41" t="n">
-        <v>655.5972727272728</v>
+        <v>1.5402e-05</v>
       </c>
       <c r="F41" t="n">
-        <v>1103.147194394338</v>
+        <v>2619.5945</v>
       </c>
       <c r="G41" t="n">
-        <v>6.559079342269781</v>
+        <v>9.093178472726173e-07</v>
       </c>
       <c r="H41" t="n">
-        <v>108261.66</v>
+        <v>160.8865328332555</v>
       </c>
       <c r="I41" t="n">
-        <v>107479.6627272727</v>
+        <v>-2237.58998606</v>
       </c>
       <c r="J41" t="n">
-        <v>1102.395762737627</v>
+        <v>-2619.594484598</v>
       </c>
       <c r="K41" t="n">
-        <v>0.709361645934929</v>
-      </c>
-      <c r="L41" t="inlineStr">
+        <v>160.8865321632849</v>
+      </c>
+      <c r="L41" t="n">
+        <v>2.37437213296574</v>
+      </c>
+      <c r="M41" t="inlineStr">
         <is>
           <t>neutro</t>
         </is>
@@ -2101,39 +2226,42 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B42" t="n">
-        <v>111233.99</v>
+        <v>45717</v>
+      </c>
+      <c r="B42" t="b">
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>660.4299999999999</v>
+        <v>1.365e-05</v>
       </c>
       <c r="D42" t="n">
-        <v>108493.1872727273</v>
+        <v>2217.39</v>
       </c>
       <c r="E42" t="n">
-        <v>656.9781818181818</v>
+        <v>1.53015e-05</v>
       </c>
       <c r="F42" t="n">
-        <v>1402.112753626436</v>
+        <v>2599.105</v>
       </c>
       <c r="G42" t="n">
-        <v>5.703694974632172</v>
+        <v>9.870544964425503e-07</v>
       </c>
       <c r="H42" t="n">
-        <v>110573.56</v>
+        <v>184.2651950886373</v>
       </c>
       <c r="I42" t="n">
-        <v>107836.2090909091</v>
+        <v>-2217.38998635</v>
       </c>
       <c r="J42" t="n">
-        <v>1401.456935424396</v>
+        <v>-2599.1049846985</v>
       </c>
       <c r="K42" t="n">
-        <v>1.953217997570505</v>
-      </c>
-      <c r="L42" t="inlineStr">
+        <v>184.2651943147195</v>
+      </c>
+      <c r="L42" t="n">
+        <v>2.071552361085304</v>
+      </c>
+      <c r="M42" t="inlineStr">
         <is>
           <t>neutro</t>
         </is>
@@ -2141,359 +2269,386 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45848</v>
-      </c>
-      <c r="B43" t="n">
-        <v>116010</v>
+        <v>45718</v>
+      </c>
+      <c r="B43" t="b">
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>669.54</v>
+        <v>1.515e-05</v>
       </c>
       <c r="D43" t="n">
-        <v>109188.9209090909</v>
+        <v>2518.11</v>
       </c>
       <c r="E43" t="n">
-        <v>658.8727272727273</v>
+        <v>1.5269e-05</v>
       </c>
       <c r="F43" t="n">
-        <v>2661.176639212281</v>
+        <v>2591.951</v>
       </c>
       <c r="G43" t="n">
-        <v>6.124622585775323</v>
+        <v>9.804558553094652e-07</v>
       </c>
       <c r="H43" t="n">
-        <v>115340.46</v>
+        <v>184.5052600562434</v>
       </c>
       <c r="I43" t="n">
-        <v>108530.0481818182</v>
+        <v>-2518.10998485</v>
       </c>
       <c r="J43" t="n">
-        <v>2657.869051563001</v>
+        <v>-2591.950984731</v>
       </c>
       <c r="K43" t="n">
-        <v>2.562357921349391</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>vende_1_compra_2</t>
+        <v>184.5052592899873</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.4002108133131494</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>neutro</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45849</v>
-      </c>
-      <c r="B44" t="n">
-        <v>117527.66</v>
+        <v>45719</v>
+      </c>
+      <c r="B44" t="b">
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>685.89</v>
+        <v>1.291e-05</v>
       </c>
       <c r="D44" t="n">
-        <v>110132.6627272727</v>
+        <v>2149.01</v>
       </c>
       <c r="E44" t="n">
-        <v>661.6590909090909</v>
+        <v>1.513e-05</v>
       </c>
       <c r="F44" t="n">
-        <v>3555.060656219792</v>
+        <v>2569.272</v>
       </c>
       <c r="G44" t="n">
-        <v>10.03216971003361</v>
+        <v>1.106578415420152e-06</v>
       </c>
       <c r="H44" t="n">
-        <v>116841.77</v>
+        <v>209.3345885268012</v>
       </c>
       <c r="I44" t="n">
-        <v>109471.0036363636</v>
+        <v>-2149.00998709</v>
       </c>
       <c r="J44" t="n">
-        <v>3547.271802995294</v>
+        <v>-2569.27198487</v>
       </c>
       <c r="K44" t="n">
-        <v>2.077869070369109</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>vende_1_compra_2</t>
+        <v>209.3345876056977</v>
+      </c>
+      <c r="L44" t="n">
+        <v>2.007608979418176</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>neutro</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45850</v>
-      </c>
-      <c r="B45" t="n">
-        <v>117420</v>
+        <v>45720</v>
+      </c>
+      <c r="B45" t="b">
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>690.11</v>
+        <v>1.309e-05</v>
       </c>
       <c r="D45" t="n">
-        <v>111199.8318181818</v>
+        <v>2171.51</v>
       </c>
       <c r="E45" t="n">
-        <v>664.64</v>
+        <v>1.49345e-05</v>
       </c>
       <c r="F45" t="n">
-        <v>3835.967206254041</v>
+        <v>2540.934</v>
       </c>
       <c r="G45" t="n">
-        <v>13.03582295062365</v>
+        <v>1.104204762666251e-06</v>
       </c>
       <c r="H45" t="n">
-        <v>116729.89</v>
+        <v>223.1581771889992</v>
       </c>
       <c r="I45" t="n">
-        <v>110535.1918181818</v>
+        <v>-2171.50998691</v>
       </c>
       <c r="J45" t="n">
-        <v>3824.760123698788</v>
+        <v>-2540.9339850655</v>
       </c>
       <c r="K45" t="n">
-        <v>1.619630507919931</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>vende_1_compra_2</t>
+        <v>223.1581762342449</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1.655435639372328</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>neutro</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45851</v>
-      </c>
-      <c r="B46" t="n">
-        <v>119086.64</v>
+        <v>45721</v>
+      </c>
+      <c r="B46" t="b">
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>685.5700000000001</v>
+        <v>1.337e-05</v>
       </c>
       <c r="D46" t="n">
-        <v>112130.4718181818</v>
+        <v>2241.59</v>
       </c>
       <c r="E46" t="n">
-        <v>668.2009090909091</v>
+        <v>1.47885e-05</v>
       </c>
       <c r="F46" t="n">
-        <v>4407.920131610422</v>
+        <v>2519.22</v>
       </c>
       <c r="G46" t="n">
-        <v>12.90431435958201</v>
+        <v>1.108580291705563e-06</v>
       </c>
       <c r="H46" t="n">
-        <v>118401.07</v>
+        <v>230.3499647789972</v>
       </c>
       <c r="I46" t="n">
-        <v>111462.2709090909</v>
+        <v>-2241.58998663</v>
       </c>
       <c r="J46" t="n">
-        <v>4396.220214237345</v>
+        <v>-2519.2199852115</v>
       </c>
       <c r="K46" t="n">
-        <v>1.578355667543101</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>vende_1_compra_2</t>
+        <v>230.3499638033248</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1.205253059290877</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>neutro</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45852</v>
-      </c>
-      <c r="B47" t="n">
-        <v>119841.18</v>
+        <v>45722</v>
+      </c>
+      <c r="B47" t="b">
+        <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>692.3200000000001</v>
+        <v>1.339e-05</v>
       </c>
       <c r="D47" t="n">
-        <v>113062.8718181818</v>
+        <v>2202.2</v>
       </c>
       <c r="E47" t="n">
-        <v>671.0945454545455</v>
+        <v>1.4622e-05</v>
       </c>
       <c r="F47" t="n">
-        <v>4875.541050371378</v>
+        <v>2493.0325</v>
       </c>
       <c r="G47" t="n">
-        <v>14.47543185099262</v>
+        <v>1.051833486922064e-06</v>
       </c>
       <c r="H47" t="n">
-        <v>119148.86</v>
+        <v>235.3284047515213</v>
       </c>
       <c r="I47" t="n">
-        <v>112391.7772727273</v>
+        <v>-2202.19998661</v>
       </c>
       <c r="J47" t="n">
-        <v>4862.160256489057</v>
+        <v>-2493.032485378</v>
       </c>
       <c r="K47" t="n">
-        <v>1.389728509720484</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>vende_1_compra_2</t>
+        <v>235.3284038061405</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1.235858035256905</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>neutro</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45853</v>
-      </c>
-      <c r="B48" t="n">
-        <v>117758.09</v>
+        <v>45723</v>
+      </c>
+      <c r="B48" t="b">
+        <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>688.4299999999999</v>
+        <v>1.315e-05</v>
       </c>
       <c r="D48" t="n">
-        <v>113951.4036363637</v>
+        <v>2141.6</v>
       </c>
       <c r="E48" t="n">
-        <v>673.3145454545455</v>
+        <v>1.44635e-05</v>
       </c>
       <c r="F48" t="n">
-        <v>4746.337548654284</v>
+        <v>2465.4605</v>
       </c>
       <c r="G48" t="n">
-        <v>15.13768830676372</v>
+        <v>1.020883389392219e-06</v>
       </c>
       <c r="H48" t="n">
-        <v>117069.66</v>
+        <v>242.8457602216533</v>
       </c>
       <c r="I48" t="n">
-        <v>113278.0890909091</v>
+        <v>-2141.59998685</v>
       </c>
       <c r="J48" t="n">
-        <v>4732.092387505658</v>
+        <v>-2465.460485536501</v>
       </c>
       <c r="K48" t="n">
-        <v>0.8012461715882706</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>vende_1_compra_2</t>
+        <v>242.8457592859682</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1.333605740692107</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>neutro</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45854</v>
-      </c>
-      <c r="B49" t="n">
-        <v>118630.43</v>
+        <v>45724</v>
+      </c>
+      <c r="B49" t="b">
+        <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>689.99</v>
+        <v>1.267e-05</v>
       </c>
       <c r="D49" t="n">
-        <v>114899.7954545455</v>
+        <v>2203.58</v>
       </c>
       <c r="E49" t="n">
-        <v>676.6236363636364</v>
+        <v>1.4299e-05</v>
       </c>
       <c r="F49" t="n">
-        <v>4518.587156624003</v>
+        <v>2442.569</v>
       </c>
       <c r="G49" t="n">
-        <v>14.352903032298</v>
+        <v>1.032059259824541e-06</v>
       </c>
       <c r="H49" t="n">
-        <v>117940.44</v>
+        <v>244.9717466179596</v>
       </c>
       <c r="I49" t="n">
-        <v>114223.1718181818</v>
+        <v>-2203.57998733</v>
       </c>
       <c r="J49" t="n">
-        <v>4505.172636139066</v>
+        <v>-2442.568985701</v>
       </c>
       <c r="K49" t="n">
-        <v>0.8251111515681803</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>vende_1_compra_2</t>
+        <v>244.9717456686673</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.9755778068146737</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>neutro</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45855</v>
-      </c>
-      <c r="B50" t="n">
-        <v>119177.56</v>
+        <v>45725</v>
+      </c>
+      <c r="B50" t="b">
+        <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>709.4</v>
+        <v>1.165e-05</v>
       </c>
       <c r="D50" t="n">
-        <v>115806.4972727273</v>
+        <v>2020.41</v>
       </c>
       <c r="E50" t="n">
-        <v>681.460909090909</v>
+        <v>1.4094e-05</v>
       </c>
       <c r="F50" t="n">
-        <v>4254.273966591943</v>
+        <v>2406.387</v>
       </c>
       <c r="G50" t="n">
-        <v>15.68254918981327</v>
+        <v>1.131116821180732e-06</v>
       </c>
       <c r="H50" t="n">
-        <v>118468.16</v>
+        <v>251.4543656013974</v>
       </c>
       <c r="I50" t="n">
-        <v>115125.0363636364</v>
+        <v>-2020.40998835</v>
       </c>
       <c r="J50" t="n">
-        <v>4240.604029232775</v>
+        <v>-2406.386985906</v>
       </c>
       <c r="K50" t="n">
-        <v>0.7883602461625004</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>vende_1_compra_2</t>
+        <v>251.4543645651207</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1.534978317928704</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>neutro</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45856</v>
-      </c>
-      <c r="B51" t="n">
-        <v>117924.84</v>
+        <v>45726</v>
+      </c>
+      <c r="B51" t="b">
+        <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>722.52</v>
+        <v>1.15e-05</v>
       </c>
       <c r="D51" t="n">
-        <v>116684.8518181818</v>
+        <v>1865.1</v>
       </c>
       <c r="E51" t="n">
-        <v>686.8654545454546</v>
+        <v>1.39075e-05</v>
       </c>
       <c r="F51" t="n">
-        <v>3465.31406410393</v>
+        <v>2366.0425</v>
       </c>
       <c r="G51" t="n">
-        <v>18.67015445229981</v>
+        <v>1.236543889020441e-06</v>
       </c>
       <c r="H51" t="n">
-        <v>117202.32</v>
+        <v>270.598727072805</v>
       </c>
       <c r="I51" t="n">
-        <v>115997.9863636364</v>
+        <v>-1865.0999885</v>
       </c>
       <c r="J51" t="n">
-        <v>3451.546683813676</v>
+        <v>-2366.0424860925</v>
       </c>
       <c r="K51" t="n">
-        <v>0.348925785072369</v>
-      </c>
-      <c r="L51" t="inlineStr">
+        <v>270.5987259247003</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1.851237458272062</v>
+      </c>
+      <c r="M51" t="inlineStr">
         <is>
           <t>neutro</t>
         </is>
@@ -2501,39 +2656,1719 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45857</v>
-      </c>
-      <c r="B52" t="n">
-        <v>117840</v>
+        <v>45727</v>
+      </c>
+      <c r="B52" t="b">
+        <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>730.22</v>
+        <v>1.205e-05</v>
       </c>
       <c r="D52" t="n">
-        <v>117495.49</v>
+        <v>1923.43</v>
       </c>
       <c r="E52" t="n">
-        <v>693.1290909090909</v>
+        <v>1.37395e-05</v>
       </c>
       <c r="F52" t="n">
-        <v>2322.568663114208</v>
+        <v>2326.439</v>
       </c>
       <c r="G52" t="n">
-        <v>20.69112972002527</v>
+        <v>1.249844095540725e-06</v>
       </c>
       <c r="H52" t="n">
-        <v>117109.78</v>
+        <v>274.6927745471703</v>
       </c>
       <c r="I52" t="n">
-        <v>116802.3609090909</v>
+        <v>-1923.42998795</v>
       </c>
       <c r="J52" t="n">
-        <v>2310.841450370136</v>
+        <v>-2326.4389862605</v>
       </c>
       <c r="K52" t="n">
-        <v>0.1330333982281031</v>
-      </c>
-      <c r="L52" t="inlineStr">
+        <v>274.6927733847496</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1.467126322052977</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45728</v>
+      </c>
+      <c r="B53" t="b">
+        <v>0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1.233e-05</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1908.2</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1.3579e-05</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2284.947</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1.211996612814493e-06</v>
+      </c>
+      <c r="H53" t="n">
+        <v>271.9077866154386</v>
+      </c>
+      <c r="I53" t="n">
+        <v>-1908.19998767</v>
+      </c>
+      <c r="J53" t="n">
+        <v>-2284.946986421</v>
+      </c>
+      <c r="K53" t="n">
+        <v>271.9077854962329</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1.385569001135567</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45729</v>
+      </c>
+      <c r="B54" t="b">
+        <v>0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1.202e-05</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1864.59</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1.3426e-05</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2245.0265</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1.205668192113323e-06</v>
+      </c>
+      <c r="H54" t="n">
+        <v>272.0919014883171</v>
+      </c>
+      <c r="I54" t="n">
+        <v>-1864.58998798</v>
+      </c>
+      <c r="J54" t="n">
+        <v>-2245.026486574</v>
+      </c>
+      <c r="K54" t="n">
+        <v>272.0919003764992</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1.398191192268429</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45730</v>
+      </c>
+      <c r="B55" t="b">
+        <v>0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1.278e-05</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1911.65</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1.3285e-05</v>
+      </c>
+      <c r="F55" t="n">
+        <v>2202.448</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1.098144367845916e-06</v>
+      </c>
+      <c r="H55" t="n">
+        <v>252.6702519636419</v>
+      </c>
+      <c r="I55" t="n">
+        <v>-1911.64998722</v>
+      </c>
+      <c r="J55" t="n">
+        <v>-2202.447986715</v>
+      </c>
+      <c r="K55" t="n">
+        <v>252.6702509811771</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1.15089923869456</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45731</v>
+      </c>
+      <c r="B56" t="b">
+        <v>0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1.284e-05</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1937.17</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1.3154e-05</v>
+      </c>
+      <c r="F56" t="n">
+        <v>2158.322</v>
+      </c>
+      <c r="G56" t="n">
+        <v>9.743197356969373e-07</v>
+      </c>
+      <c r="H56" t="n">
+        <v>213.1771590312469</v>
+      </c>
+      <c r="I56" t="n">
+        <v>-1937.16998716</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-2158.321986846</v>
+      </c>
+      <c r="K56" t="n">
+        <v>213.1771581976211</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1.03740945585261</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45732</v>
+      </c>
+      <c r="B57" t="b">
+        <v>0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1.311e-05</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1887</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1.31275e-05</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2126.996</v>
+      </c>
+      <c r="G57" t="n">
+        <v>9.675899251015506e-07</v>
+      </c>
+      <c r="H57" t="n">
+        <v>204.0728926118053</v>
+      </c>
+      <c r="I57" t="n">
+        <v>-1886.99998689</v>
+      </c>
+      <c r="J57" t="n">
+        <v>-2126.9959868725</v>
+      </c>
+      <c r="K57" t="n">
+        <v>204.0728917867135</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1.176030769600362</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B58" t="b">
+        <v>0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1.295e-05</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1926.31</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1.30705e-05</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2098.5265</v>
+      </c>
+      <c r="G58" t="n">
+        <v>9.411218110096193e-07</v>
+      </c>
+      <c r="H58" t="n">
+        <v>189.0963478807674</v>
+      </c>
+      <c r="I58" t="n">
+        <v>-1926.30998705</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-2098.5264869295</v>
+      </c>
+      <c r="K58" t="n">
+        <v>189.0963470882206</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.9107341444261462</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45734</v>
+      </c>
+      <c r="B59" t="b">
+        <v>0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1.255e-05</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1931.54</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1.29765e-05</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2078.285</v>
+      </c>
+      <c r="G59" t="n">
+        <v>8.907257537655379e-07</v>
+      </c>
+      <c r="H59" t="n">
+        <v>183.8923800115653</v>
+      </c>
+      <c r="I59" t="n">
+        <v>-1931.53998745</v>
+      </c>
+      <c r="J59" t="n">
+        <v>-2078.2849870235</v>
+      </c>
+      <c r="K59" t="n">
+        <v>183.8923792751505</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.7979939144402045</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45735</v>
+      </c>
+      <c r="B60" t="b">
+        <v>0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1.293e-05</v>
+      </c>
+      <c r="D60" t="n">
+        <v>2056.06</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1.29015e-05</v>
+      </c>
+      <c r="F60" t="n">
+        <v>2065.702</v>
+      </c>
+      <c r="G60" t="n">
+        <v>8.224307681630032e-07</v>
+      </c>
+      <c r="H60" t="n">
+        <v>175.7987238322702</v>
+      </c>
+      <c r="I60" t="n">
+        <v>-2056.05998707</v>
+      </c>
+      <c r="J60" t="n">
+        <v>-2065.7019870985</v>
+      </c>
+      <c r="K60" t="n">
+        <v>175.798723167133</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.05484681489599611</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45736</v>
+      </c>
+      <c r="B61" t="b">
+        <v>0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1.294e-05</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1983.79</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1.28515e-05</v>
+      </c>
+      <c r="F61" t="n">
+        <v>2053.012</v>
+      </c>
+      <c r="G61" t="n">
+        <v>7.855422197103758e-07</v>
+      </c>
+      <c r="H61" t="n">
+        <v>171.8539777834723</v>
+      </c>
+      <c r="I61" t="n">
+        <v>-1983.78998706</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-2053.0119871485</v>
+      </c>
+      <c r="K61" t="n">
+        <v>171.8539771625885</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.4027954501338659</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45737</v>
+      </c>
+      <c r="B62" t="b">
+        <v>0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1.251e-05</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1965.75</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1.27945e-05</v>
+      </c>
+      <c r="F62" t="n">
+        <v>2040.43</v>
+      </c>
+      <c r="G62" t="n">
+        <v>7.656608772475617e-07</v>
+      </c>
+      <c r="H62" t="n">
+        <v>168.3621408874713</v>
+      </c>
+      <c r="I62" t="n">
+        <v>-1965.74998749</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-2040.4299872055</v>
+      </c>
+      <c r="K62" t="n">
+        <v>168.3621402899104</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.4435676547405789</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45738</v>
+      </c>
+      <c r="B63" t="b">
+        <v>0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1.281e-05</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1980.69</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1.26775e-05</v>
+      </c>
+      <c r="F63" t="n">
+        <v>2013.559</v>
+      </c>
+      <c r="G63" t="n">
+        <v>5.289799021156145e-07</v>
+      </c>
+      <c r="H63" t="n">
+        <v>125.5556223101398</v>
+      </c>
+      <c r="I63" t="n">
+        <v>-1980.68998719</v>
+      </c>
+      <c r="J63" t="n">
+        <v>-2013.5589873225</v>
+      </c>
+      <c r="K63" t="n">
+        <v>125.5556220072562</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.2617883580760785</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45739</v>
+      </c>
+      <c r="B64" t="b">
+        <v>0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1.295e-05</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2005.99</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1.26795e-05</v>
+      </c>
+      <c r="F64" t="n">
+        <v>2006.408</v>
+      </c>
+      <c r="G64" t="n">
+        <v>5.29979890383273e-07</v>
+      </c>
+      <c r="H64" t="n">
+        <v>121.4404016531833</v>
+      </c>
+      <c r="I64" t="n">
+        <v>-2005.98998705</v>
+      </c>
+      <c r="J64" t="n">
+        <v>-2006.4079873205</v>
+      </c>
+      <c r="K64" t="n">
+        <v>121.4404013544545</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.003442019837205377</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B65" t="b">
+        <v>0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1.353e-05</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2081.2</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1.27015e-05</v>
+      </c>
+      <c r="F65" t="n">
+        <v>2001.8925</v>
+      </c>
+      <c r="G65" t="n">
+        <v>5.563913333164103e-07</v>
+      </c>
+      <c r="H65" t="n">
+        <v>116.5592304762381</v>
+      </c>
+      <c r="I65" t="n">
+        <v>-2081.19998647</v>
+      </c>
+      <c r="J65" t="n">
+        <v>-2001.8924872985</v>
+      </c>
+      <c r="K65" t="n">
+        <v>116.5592301659825</v>
+      </c>
+      <c r="L65" t="n">
+        <v>-0.6804051387313061</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45741</v>
+      </c>
+      <c r="B66" t="b">
+        <v>0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1.384e-05</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2066.15</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1.2725e-05</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1993.1205</v>
+      </c>
+      <c r="G66" t="n">
+        <v>5.94717978275711e-07</v>
+      </c>
+      <c r="H66" t="n">
+        <v>103.4332240970354</v>
+      </c>
+      <c r="I66" t="n">
+        <v>-2066.14998616</v>
+      </c>
+      <c r="J66" t="n">
+        <v>-1993.120487275</v>
+      </c>
+      <c r="K66" t="n">
+        <v>103.4332237896202</v>
+      </c>
+      <c r="L66" t="n">
+        <v>-0.7060545558701687</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45742</v>
+      </c>
+      <c r="B67" t="b">
+        <v>0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1.421e-05</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2009.52</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1.2766e-05</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1983.4865</v>
+      </c>
+      <c r="G67" t="n">
+        <v>6.668654089727163e-07</v>
+      </c>
+      <c r="H67" t="n">
+        <v>91.18189809243468</v>
+      </c>
+      <c r="I67" t="n">
+        <v>-2009.51998579</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1983.486487234</v>
+      </c>
+      <c r="K67" t="n">
+        <v>91.18189780535263</v>
+      </c>
+      <c r="L67" t="n">
+        <v>-0.2855116989511928</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45743</v>
+      </c>
+      <c r="B68" t="b">
+        <v>0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1.402e-05</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2003.66</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1.28095e-05</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1976.5895</v>
+      </c>
+      <c r="G68" t="n">
+        <v>7.195281714247337e-07</v>
+      </c>
+      <c r="H68" t="n">
+        <v>83.48474531157868</v>
+      </c>
+      <c r="I68" t="n">
+        <v>-2003.65998598</v>
+      </c>
+      <c r="J68" t="n">
+        <v>-1976.5894871905</v>
+      </c>
+      <c r="K68" t="n">
+        <v>83.48474501657411</v>
+      </c>
+      <c r="L68" t="n">
+        <v>-0.3242568302044357</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45744</v>
+      </c>
+      <c r="B69" t="b">
+        <v>0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1.324e-05</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1896.9</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1.2838e-05</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1961.2555</v>
+      </c>
+      <c r="G69" t="n">
+        <v>7.249798545296418e-07</v>
+      </c>
+      <c r="H69" t="n">
+        <v>65.91359954517991</v>
+      </c>
+      <c r="I69" t="n">
+        <v>-1896.89998676</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1961.255487162</v>
+      </c>
+      <c r="K69" t="n">
+        <v>65.91359916666364</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.9763614977127254</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45745</v>
+      </c>
+      <c r="B70" t="b">
+        <v>0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1.268e-05</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1828.08</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1.28895e-05</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1951.639</v>
+      </c>
+      <c r="G70" t="n">
+        <v>6.706985753283691e-07</v>
+      </c>
+      <c r="H70" t="n">
+        <v>70.68624781758237</v>
+      </c>
+      <c r="I70" t="n">
+        <v>-1828.07998732</v>
+      </c>
+      <c r="J70" t="n">
+        <v>-1951.6389871105</v>
+      </c>
+      <c r="K70" t="n">
+        <v>70.68624738925519</v>
+      </c>
+      <c r="L70" t="n">
+        <v>1.74799206852905</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45746</v>
+      </c>
+      <c r="B71" t="b">
+        <v>0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1.245e-05</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1807.74</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1.2937e-05</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1948.771</v>
+      </c>
+      <c r="G71" t="n">
+        <v>5.966670587082073e-07</v>
+      </c>
+      <c r="H71" t="n">
+        <v>75.38943880385536</v>
+      </c>
+      <c r="I71" t="n">
+        <v>-1807.73998755</v>
+      </c>
+      <c r="J71" t="n">
+        <v>-1948.770987063</v>
+      </c>
+      <c r="K71" t="n">
+        <v>75.3894384401424</v>
+      </c>
+      <c r="L71" t="n">
+        <v>1.870699695222899</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45747</v>
+      </c>
+      <c r="B72" t="b">
+        <v>0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1.238e-05</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1822.43</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1.29535e-05</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1943.721</v>
+      </c>
+      <c r="G72" t="n">
+        <v>5.750173910414663e-07</v>
+      </c>
+      <c r="H72" t="n">
+        <v>80.39298679154494</v>
+      </c>
+      <c r="I72" t="n">
+        <v>-1822.42998762</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1943.7209870465</v>
+      </c>
+      <c r="K72" t="n">
+        <v>80.39298641802256</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1.508726131852081</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B73" t="b">
+        <v>0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1.269e-05</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1904.98</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1.29715e-05</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1943.56</v>
+      </c>
+      <c r="G73" t="n">
+        <v>5.599085921640081e-07</v>
+      </c>
+      <c r="H73" t="n">
+        <v>80.47105376928529</v>
+      </c>
+      <c r="I73" t="n">
+        <v>-1904.97998731</v>
+      </c>
+      <c r="J73" t="n">
+        <v>-1943.5599870285</v>
+      </c>
+      <c r="K73" t="n">
+        <v>80.47105340389605</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.479427049685323</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B74" t="b">
+        <v>0</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1.205e-05</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1795.22</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1.2973e-05</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1940.0915</v>
+      </c>
+      <c r="G74" t="n">
+        <v>5.572592706604138e-07</v>
+      </c>
+      <c r="H74" t="n">
+        <v>85.39817089593187</v>
+      </c>
+      <c r="I74" t="n">
+        <v>-1795.21998795</v>
+      </c>
+      <c r="J74" t="n">
+        <v>-1940.091487027</v>
+      </c>
+      <c r="K74" t="n">
+        <v>85.39817051362292</v>
+      </c>
+      <c r="L74" t="n">
+        <v>1.696423918752326</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B75" t="b">
+        <v>0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1.223e-05</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1817.23</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1.29455e-05</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1935.3705</v>
+      </c>
+      <c r="G75" t="n">
+        <v>5.803762391307066e-07</v>
+      </c>
+      <c r="H75" t="n">
+        <v>89.56161557246351</v>
+      </c>
+      <c r="I75" t="n">
+        <v>-1817.22998777</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1935.3704870545</v>
+      </c>
+      <c r="K75" t="n">
+        <v>89.56161515903368</v>
+      </c>
+      <c r="L75" t="n">
+        <v>1.319097462397469</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B76" t="b">
+        <v>0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1.23e-05</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1816.87</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1.29185e-05</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1929.3555</v>
+      </c>
+      <c r="G76" t="n">
+        <v>5.978406318181849e-07</v>
+      </c>
+      <c r="H76" t="n">
+        <v>93.39218453017449</v>
+      </c>
+      <c r="I76" t="n">
+        <v>-1816.8699877</v>
+      </c>
+      <c r="J76" t="n">
+        <v>-1929.3554870815</v>
+      </c>
+      <c r="K76" t="n">
+        <v>93.39218409231805</v>
+      </c>
+      <c r="L76" t="n">
+        <v>1.204442325391043</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45752</v>
+      </c>
+      <c r="B77" t="b">
+        <v>0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1.234e-05</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1806.01</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1.288e-05</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1925.306</v>
+      </c>
+      <c r="G77" t="n">
+        <v>6.095382203811329e-07</v>
+      </c>
+      <c r="H77" t="n">
+        <v>97.0111381234257</v>
+      </c>
+      <c r="I77" t="n">
+        <v>-1806.00998766</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1925.30598712</v>
+      </c>
+      <c r="K77" t="n">
+        <v>97.01113766048196</v>
+      </c>
+      <c r="L77" t="n">
+        <v>1.229714467193551</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45753</v>
+      </c>
+      <c r="B78" t="b">
+        <v>0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1.133e-05</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1580.76</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1.2799e-05</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1908.0285</v>
+      </c>
+      <c r="G78" t="n">
+        <v>7.005854694469023e-07</v>
+      </c>
+      <c r="H78" t="n">
+        <v>123.8744601039901</v>
+      </c>
+      <c r="I78" t="n">
+        <v>-1580.75998867</v>
+      </c>
+      <c r="J78" t="n">
+        <v>-1908.028487201</v>
+      </c>
+      <c r="K78" t="n">
+        <v>123.8744595264575</v>
+      </c>
+      <c r="L78" t="n">
+        <v>2.641936843010816</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B79" t="b">
+        <v>0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1.142e-05</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1553.04</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1.27425e-05</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1889.1035</v>
+      </c>
+      <c r="G79" t="n">
+        <v>7.643839969131871e-07</v>
+      </c>
+      <c r="H79" t="n">
+        <v>146.8715313059693</v>
+      </c>
+      <c r="I79" t="n">
+        <v>-1553.03998858</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1889.1034872575</v>
+      </c>
+      <c r="K79" t="n">
+        <v>146.8715306490089</v>
+      </c>
+      <c r="L79" t="n">
+        <v>2.288145954443813</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="B80" t="b">
+        <v>0</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1.066e-05</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1473.41</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1.2629e-05</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1859.971</v>
+      </c>
+      <c r="G80" t="n">
+        <v>8.928187179702458e-07</v>
+      </c>
+      <c r="H80" t="n">
+        <v>168.2426583023284</v>
+      </c>
+      <c r="I80" t="n">
+        <v>-1473.40998934</v>
+      </c>
+      <c r="J80" t="n">
+        <v>-1859.970987371</v>
+      </c>
+      <c r="K80" t="n">
+        <v>168.2426574884875</v>
+      </c>
+      <c r="L80" t="n">
+        <v>2.297639634332642</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>45756</v>
+      </c>
+      <c r="B81" t="b">
+        <v>0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1.193e-05</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1669.51</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1.25785e-05</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1844.257</v>
+      </c>
+      <c r="G81" t="n">
+        <v>9.028100866913917e-07</v>
+      </c>
+      <c r="H81" t="n">
+        <v>170.7278383892185</v>
+      </c>
+      <c r="I81" t="n">
+        <v>-1669.50998807</v>
+      </c>
+      <c r="J81" t="n">
+        <v>-1844.2569874215</v>
+      </c>
+      <c r="K81" t="n">
+        <v>170.7278375629463</v>
+      </c>
+      <c r="L81" t="n">
+        <v>1.023541338342506</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45757</v>
+      </c>
+      <c r="B82" t="b">
+        <v>0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1.162e-05</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1522.25</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1.2534e-05</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1822.082</v>
+      </c>
+      <c r="G82" t="n">
+        <v>9.279485012934562e-07</v>
+      </c>
+      <c r="H82" t="n">
+        <v>182.512472208289</v>
+      </c>
+      <c r="I82" t="n">
+        <v>-1522.24998838</v>
+      </c>
+      <c r="J82" t="n">
+        <v>-1822.081987466</v>
+      </c>
+      <c r="K82" t="n">
+        <v>182.5124713496555</v>
+      </c>
+      <c r="L82" t="n">
+        <v>1.642802800645797</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>45758</v>
+      </c>
+      <c r="B83" t="b">
+        <v>0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1.22e-05</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1566.85</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1.25035e-05</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1801.39</v>
+      </c>
+      <c r="G83" t="n">
+        <v>9.284241034083582e-07</v>
+      </c>
+      <c r="H83" t="n">
+        <v>186.9884525846518</v>
+      </c>
+      <c r="I83" t="n">
+        <v>-1566.8499878</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1801.3899874965</v>
+      </c>
+      <c r="K83" t="n">
+        <v>186.9884517384514</v>
+      </c>
+      <c r="L83" t="n">
+        <v>1.25430205724448</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>45759</v>
+      </c>
+      <c r="B84" t="b">
+        <v>0</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1.254e-05</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1644.18</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1.2483e-05</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1783.2995</v>
+      </c>
+      <c r="G84" t="n">
+        <v>9.225542346060823e-07</v>
+      </c>
+      <c r="H84" t="n">
+        <v>183.6239645658957</v>
+      </c>
+      <c r="I84" t="n">
+        <v>-1644.17998746</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1783.299487517</v>
+      </c>
+      <c r="K84" t="n">
+        <v>183.6239637341459</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0.7576325945039484</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>45760</v>
+      </c>
+      <c r="B85" t="b">
+        <v>0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1.205e-05</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1597.76</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1.2409e-05</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1759.1275</v>
+      </c>
+      <c r="G85" t="n">
+        <v>8.9303680598408e-07</v>
+      </c>
+      <c r="H85" t="n">
+        <v>173.9074063032046</v>
+      </c>
+      <c r="I85" t="n">
+        <v>-1597.75998795</v>
+      </c>
+      <c r="J85" t="n">
+        <v>-1759.127487591</v>
+      </c>
+      <c r="K85" t="n">
+        <v>173.907405505891</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0.9278932036941553</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>45761</v>
+      </c>
+      <c r="B86" t="b">
+        <v>0</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1.2e-05</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1623.77</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1.2317e-05</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1737.0085</v>
+      </c>
+      <c r="G86" t="n">
+        <v>8.304412270468578e-07</v>
+      </c>
+      <c r="H86" t="n">
+        <v>160.4116033759224</v>
+      </c>
+      <c r="I86" t="n">
+        <v>-1623.769988</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1737.008487683</v>
+      </c>
+      <c r="K86" t="n">
+        <v>160.4116026508703</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0.705924620237472</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>45762</v>
+      </c>
+      <c r="B87" t="b">
+        <v>0</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1.167e-05</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1588.78</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1.219e-05</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1715.9715</v>
+      </c>
+      <c r="G87" t="n">
+        <v>7.1139595903158e-07</v>
+      </c>
+      <c r="H87" t="n">
+        <v>150.046278940699</v>
+      </c>
+      <c r="I87" t="n">
+        <v>-1588.77998833</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1715.97148781</v>
+      </c>
+      <c r="K87" t="n">
+        <v>150.046278331612</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0.8476818012033493</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>45763</v>
+      </c>
+      <c r="B88" t="b">
+        <v>0</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1.183e-05</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1577.14</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1.20805e-05</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1694.6455</v>
+      </c>
+      <c r="G88" t="n">
+        <v>5.692328632745356e-07</v>
+      </c>
+      <c r="H88" t="n">
+        <v>136.7243437868694</v>
+      </c>
+      <c r="I88" t="n">
+        <v>-1577.13998817</v>
+      </c>
+      <c r="J88" t="n">
+        <v>-1694.6454879195</v>
+      </c>
+      <c r="K88" t="n">
+        <v>136.7243433198375</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0.8594336377584263</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>45764</v>
+      </c>
+      <c r="B89" t="b">
+        <v>0</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1.18e-05</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1583.62</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1.20085e-05</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1678.9815</v>
+      </c>
+      <c r="G89" t="n">
+        <v>5.019464743954706e-07</v>
+      </c>
+      <c r="H89" t="n">
+        <v>130.1193659390144</v>
+      </c>
+      <c r="I89" t="n">
+        <v>-1583.6199882</v>
+      </c>
+      <c r="J89" t="n">
+        <v>-1678.9814879915</v>
+      </c>
+      <c r="K89" t="n">
+        <v>130.1193655396604</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0.7328770732626569</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>45765</v>
+      </c>
+      <c r="B90" t="b">
+        <v>0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1.229e-05</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1588.6</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1.1989e-05</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1667.0075</v>
+      </c>
+      <c r="G90" t="n">
+        <v>4.816517632613628e-07</v>
+      </c>
+      <c r="H90" t="n">
+        <v>126.649299824576</v>
+      </c>
+      <c r="I90" t="n">
+        <v>-1588.59998771</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1667.007488011</v>
+      </c>
+      <c r="K90" t="n">
+        <v>126.6492994684007</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0.6190914646200855</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>45766</v>
+      </c>
+      <c r="B91" t="b">
+        <v>0</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1.234e-05</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1613.27</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1.19835e-05</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1657.284</v>
+      </c>
+      <c r="G91" t="n">
+        <v>4.767132537657601e-07</v>
+      </c>
+      <c r="H91" t="n">
+        <v>122.6788728604829</v>
+      </c>
+      <c r="I91" t="n">
+        <v>-1613.26998766</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1657.2839880165</v>
+      </c>
+      <c r="K91" t="n">
+        <v>122.6788725291651</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0.3587740859456979</v>
+      </c>
+      <c r="M91" t="inlineStr">
         <is>
           <t>neutro</t>
         </is>

--- a/notebooks/arbitragem/resultados/estrategia.xlsx
+++ b/notebooks/arbitragem/resultados/estrategia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M91"/>
+  <dimension ref="A1:M198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,40 +506,40 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45677</v>
+        <v>45662</v>
       </c>
       <c r="B2" t="b">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2.033e-05</v>
+        <v>709.29</v>
       </c>
       <c r="D2" t="n">
-        <v>3284</v>
+        <v>115.72</v>
       </c>
       <c r="E2" t="n">
-        <v>2.2302e-05</v>
+        <v>710.3340000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>3377.676</v>
+        <v>110.004</v>
       </c>
       <c r="G2" t="n">
-        <v>1.308247522049009e-06</v>
+        <v>3.678210162565438</v>
       </c>
       <c r="H2" t="n">
-        <v>162.5495190752004</v>
+        <v>4.685181960180419</v>
       </c>
       <c r="I2" t="n">
-        <v>-3283.99997967</v>
+        <v>593.5699999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>-3377.675977698</v>
+        <v>600.3299999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>162.549517919145</v>
+        <v>3.819077113649323</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5762920691933145</v>
+        <v>-1.770061142740442</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -549,255 +549,255 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45678</v>
+        <v>45663</v>
       </c>
       <c r="B3" t="b">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2.09e-05</v>
+        <v>729.42</v>
       </c>
       <c r="D3" t="n">
-        <v>3327.54</v>
+        <v>114.01</v>
       </c>
       <c r="E3" t="n">
-        <v>2.2262e-05</v>
+        <v>714.65</v>
       </c>
       <c r="F3" t="n">
-        <v>3376.034000000001</v>
+        <v>111.758</v>
       </c>
       <c r="G3" t="n">
-        <v>1.339479867631267e-06</v>
+        <v>8.930747449121966</v>
       </c>
       <c r="H3" t="n">
-        <v>162.8989225643668</v>
+        <v>4.055042539850853</v>
       </c>
       <c r="I3" t="n">
-        <v>-3327.5399791</v>
+        <v>615.41</v>
       </c>
       <c r="J3" t="n">
-        <v>-3376.033977738</v>
+        <v>602.8920000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>162.8989213918692</v>
+        <v>7.870445984821962</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2976937982378866</v>
+        <v>1.590507072171093</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>neutro</t>
+          <t>vende_1_compra_2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45679</v>
+        <v>45664</v>
       </c>
       <c r="B4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>2.018e-05</v>
+        <v>698.01</v>
       </c>
       <c r="D4" t="n">
-        <v>3242.6</v>
+        <v>102.72</v>
       </c>
       <c r="E4" t="n">
-        <v>2.21255e-05</v>
+        <v>713.002</v>
       </c>
       <c r="F4" t="n">
-        <v>3365.3805</v>
+        <v>111.274</v>
       </c>
       <c r="G4" t="n">
-        <v>1.407350908248321e-06</v>
+        <v>11.31131159503613</v>
       </c>
       <c r="H4" t="n">
-        <v>164.377280907929</v>
+        <v>5.061860329957759</v>
       </c>
       <c r="I4" t="n">
-        <v>-3242.59997982</v>
+        <v>595.29</v>
       </c>
       <c r="J4" t="n">
-        <v>-3365.3804778745</v>
+        <v>601.728</v>
       </c>
       <c r="K4" t="n">
-        <v>164.3772796828606</v>
+        <v>8.596744732746219</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7469432411303122</v>
+        <v>-0.7488881198806258</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>neutro</t>
+          <t>vende_1_compra_2</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45680</v>
+        <v>45665</v>
       </c>
       <c r="B5" t="b">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2.014e-05</v>
+        <v>696.03</v>
       </c>
       <c r="D5" t="n">
-        <v>3338.21</v>
+        <v>101.43</v>
       </c>
       <c r="E5" t="n">
-        <v>2.1911e-05</v>
+        <v>709.232</v>
       </c>
       <c r="F5" t="n">
-        <v>3351.8405</v>
+        <v>109.018</v>
       </c>
       <c r="G5" t="n">
-        <v>1.363883387514068e-06</v>
+        <v>13.46514463346009</v>
       </c>
       <c r="H5" t="n">
-        <v>154.0837417385685</v>
+        <v>6.555232261331406</v>
       </c>
       <c r="I5" t="n">
-        <v>-3338.20997986</v>
+        <v>594.5999999999999</v>
       </c>
       <c r="J5" t="n">
-        <v>-3351.840478089</v>
+        <v>600.2139999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>154.0837406248506</v>
+        <v>9.148334821157322</v>
       </c>
       <c r="L5" t="n">
-        <v>0.08846162595562999</v>
+        <v>-0.6136635912162457</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>neutro</t>
+          <t>vende_1_compra_2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45681</v>
+        <v>45666</v>
       </c>
       <c r="B6" t="b">
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1.997e-05</v>
+        <v>685.48</v>
       </c>
       <c r="D6" t="n">
-        <v>3310.09</v>
+        <v>102.23</v>
       </c>
       <c r="E6" t="n">
-        <v>2.1693e-05</v>
+        <v>703.646</v>
       </c>
       <c r="F6" t="n">
-        <v>3334.501</v>
+        <v>107.222</v>
       </c>
       <c r="G6" t="n">
-        <v>1.304018485500234e-06</v>
+        <v>16.70273420730866</v>
       </c>
       <c r="H6" t="n">
-        <v>136.4541628031764</v>
+        <v>7.018338122376269</v>
       </c>
       <c r="I6" t="n">
-        <v>-3310.08998003</v>
+        <v>583.25</v>
       </c>
       <c r="J6" t="n">
-        <v>-3334.500978307</v>
+        <v>596.424</v>
       </c>
       <c r="K6" t="n">
-        <v>136.4541618280823</v>
+        <v>11.69167139462949</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1788952271588054</v>
+        <v>-1.126785004071478</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>neutro</t>
+          <t>vende_1_compra_2</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45682</v>
+        <v>45667</v>
       </c>
       <c r="B7" t="b">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1.994e-05</v>
+        <v>693.21</v>
       </c>
       <c r="D7" t="n">
-        <v>3318.77</v>
+        <v>103.96</v>
       </c>
       <c r="E7" t="n">
-        <v>2.1494e-05</v>
+        <v>700.4299999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>3318.64</v>
+        <v>104.87</v>
       </c>
       <c r="G7" t="n">
-        <v>1.248794787406098e-06</v>
+        <v>16.89132469642325</v>
       </c>
       <c r="H7" t="n">
-        <v>116.5502948132377</v>
+        <v>5.191180019995457</v>
       </c>
       <c r="I7" t="n">
-        <v>-3318.76998006</v>
+        <v>589.25</v>
       </c>
       <c r="J7" t="n">
-        <v>-3318.639978506</v>
+        <v>595.5600000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>116.5502939908728</v>
+        <v>12.10753071439411</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.00111541163517122</v>
+        <v>-0.5211632453261816</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>neutro</t>
+          <t>vende_1_compra_2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45683</v>
+        <v>45668</v>
       </c>
       <c r="B8" t="b">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1.909e-05</v>
+        <v>696.7</v>
       </c>
       <c r="D8" t="n">
-        <v>3232.61</v>
+        <v>104.39</v>
       </c>
       <c r="E8" t="n">
-        <v>2.12455e-05</v>
+        <v>693.886</v>
       </c>
       <c r="F8" t="n">
-        <v>3295.898</v>
+        <v>102.946</v>
       </c>
       <c r="G8" t="n">
-        <v>1.205035378384347e-06</v>
+        <v>5.015987440175433</v>
       </c>
       <c r="H8" t="n">
-        <v>79.18393866913863</v>
+        <v>1.222223383837811</v>
       </c>
       <c r="I8" t="n">
-        <v>-3232.60998091</v>
+        <v>592.3100000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>-3295.8979787545</v>
+        <v>590.9399999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>79.18393802539296</v>
+        <v>4.903753664285547</v>
       </c>
       <c r="L8" t="n">
-        <v>0.7992529725435592</v>
+        <v>0.2793778182574594</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -807,40 +807,40 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45684</v>
+        <v>45669</v>
       </c>
       <c r="B9" t="b">
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1.897e-05</v>
+        <v>693.34</v>
       </c>
       <c r="D9" t="n">
-        <v>3182.44</v>
+        <v>102.34</v>
       </c>
       <c r="E9" t="n">
-        <v>2.11045e-05</v>
+        <v>692.952</v>
       </c>
       <c r="F9" t="n">
-        <v>3285.9545</v>
+        <v>102.87</v>
       </c>
       <c r="G9" t="n">
-        <v>1.299268923988455e-06</v>
+        <v>4.460086322034328</v>
       </c>
       <c r="H9" t="n">
-        <v>80.37146354501972</v>
+        <v>1.251259365599294</v>
       </c>
       <c r="I9" t="n">
-        <v>-3182.43998103</v>
+        <v>591</v>
       </c>
       <c r="J9" t="n">
-        <v>-3285.9544788955</v>
+        <v>590.082</v>
       </c>
       <c r="K9" t="n">
-        <v>80.37146279053752</v>
+        <v>4.28915725988141</v>
       </c>
       <c r="L9" t="n">
-        <v>1.287950900374642</v>
+        <v>0.2140280582823368</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -850,40 +850,40 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45685</v>
+        <v>45670</v>
       </c>
       <c r="B10" t="b">
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1.796e-05</v>
+        <v>688.64</v>
       </c>
       <c r="D10" t="n">
-        <v>3077.72</v>
+        <v>98.37</v>
       </c>
       <c r="E10" t="n">
-        <v>2.09375e-05</v>
+        <v>691.474</v>
       </c>
       <c r="F10" t="n">
-        <v>3273.476</v>
+        <v>102.258</v>
       </c>
       <c r="G10" t="n">
-        <v>1.475515520972786e-06</v>
+        <v>4.409260709007555</v>
       </c>
       <c r="H10" t="n">
-        <v>92.12994115292881</v>
+        <v>2.375198939036462</v>
       </c>
       <c r="I10" t="n">
-        <v>-3077.71998204</v>
+        <v>590.27</v>
       </c>
       <c r="J10" t="n">
-        <v>-3273.4759790625</v>
+        <v>589.216</v>
       </c>
       <c r="K10" t="n">
-        <v>92.12994014909962</v>
+        <v>3.516415788838535</v>
       </c>
       <c r="L10" t="n">
-        <v>2.124781549903283</v>
+        <v>0.2997370229497541</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -893,341 +893,341 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45686</v>
+        <v>45671</v>
       </c>
       <c r="B11" t="b">
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.829e-05</v>
+        <v>698.89</v>
       </c>
       <c r="D11" t="n">
-        <v>3113.9</v>
+        <v>102.45</v>
       </c>
       <c r="E11" t="n">
-        <v>2.08e-05</v>
+        <v>694.1560000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>3268.211</v>
+        <v>102.302</v>
       </c>
       <c r="G11" t="n">
-        <v>1.589213642025519e-06</v>
+        <v>3.900952447800079</v>
       </c>
       <c r="H11" t="n">
-        <v>98.20354966786303</v>
+        <v>2.376587890232536</v>
       </c>
       <c r="I11" t="n">
-        <v>-3113.89998171</v>
+        <v>596.4399999999999</v>
       </c>
       <c r="J11" t="n">
-        <v>-3268.2109792</v>
+        <v>591.854</v>
       </c>
       <c r="K11" t="n">
-        <v>98.2035485044719</v>
+        <v>2.795465971890061</v>
       </c>
       <c r="L11" t="n">
-        <v>1.571338305386928</v>
+        <v>1.640513619594957</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>neutro</t>
+          <t>vende_1_compra_2</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45687</v>
+        <v>45672</v>
       </c>
       <c r="B12" t="b">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1.868e-05</v>
+        <v>714.59</v>
       </c>
       <c r="D12" t="n">
-        <v>3247.39</v>
+        <v>116.96</v>
       </c>
       <c r="E12" t="n">
-        <v>2.0656e-05</v>
+        <v>698.432</v>
       </c>
       <c r="F12" t="n">
-        <v>3267.2285</v>
+        <v>104.902</v>
       </c>
       <c r="G12" t="n">
-        <v>1.646183464866543e-06</v>
+        <v>9.824742744723521</v>
       </c>
       <c r="H12" t="n">
-        <v>98.314116043532</v>
+        <v>7.086971849810043</v>
       </c>
       <c r="I12" t="n">
-        <v>-3247.38998132</v>
+        <v>597.63</v>
       </c>
       <c r="J12" t="n">
-        <v>-3267.228479344</v>
+        <v>593.53</v>
       </c>
       <c r="K12" t="n">
-        <v>98.31411485885737</v>
+        <v>3.308889541824741</v>
       </c>
       <c r="L12" t="n">
-        <v>0.201786875185527</v>
+        <v>1.239086390819505</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>neutro</t>
+          <t>vende_1_compra_2</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45688</v>
+        <v>45673</v>
       </c>
       <c r="B13" t="b">
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.89e-05</v>
+        <v>708.1</v>
       </c>
       <c r="D13" t="n">
-        <v>3300.99</v>
+        <v>124.41</v>
       </c>
       <c r="E13" t="n">
-        <v>2.04905e-05</v>
+        <v>700.712</v>
       </c>
       <c r="F13" t="n">
-        <v>3268.1365</v>
+        <v>108.906</v>
       </c>
       <c r="G13" t="n">
-        <v>1.648113674541457e-06</v>
+        <v>10.61344289097546</v>
       </c>
       <c r="H13" t="n">
-        <v>98.54936931491973</v>
+        <v>11.19196720867248</v>
       </c>
       <c r="I13" t="n">
-        <v>-3300.9899811</v>
+        <v>583.6900000000001</v>
       </c>
       <c r="J13" t="n">
-        <v>-3268.136479509501</v>
+        <v>591.8059999999999</v>
       </c>
       <c r="K13" t="n">
-        <v>98.54936817607823</v>
+        <v>5.573852348241265</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.3333710017480747</v>
+        <v>-1.45608449828434</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>neutro</t>
+          <t>vende_1_compra_2</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45689</v>
+        <v>45674</v>
       </c>
       <c r="B14" t="b">
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.76e-05</v>
+        <v>721.76</v>
       </c>
       <c r="D14" t="n">
-        <v>3117.54</v>
+        <v>137.04</v>
       </c>
       <c r="E14" t="n">
-        <v>2.02925e-05</v>
+        <v>706.396</v>
       </c>
       <c r="F14" t="n">
-        <v>3260.6485</v>
+        <v>115.846</v>
       </c>
       <c r="G14" t="n">
-        <v>1.747725966114711e-06</v>
+        <v>13.0164638055041</v>
       </c>
       <c r="H14" t="n">
-        <v>104.1468570551878</v>
+        <v>15.87948456342334</v>
       </c>
       <c r="I14" t="n">
-        <v>-3117.5399824</v>
+        <v>584.72</v>
       </c>
       <c r="J14" t="n">
-        <v>-3260.6484797075</v>
+        <v>590.55</v>
       </c>
       <c r="K14" t="n">
-        <v>104.1468557721052</v>
+        <v>6.440989830763049</v>
       </c>
       <c r="L14" t="n">
-        <v>1.374102907347014</v>
+        <v>-0.9051403826404212</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>neutro</t>
+          <t>vende_1_compra_2</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45690</v>
+        <v>45675</v>
       </c>
       <c r="B15" t="b">
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1.551e-05</v>
+        <v>709.52</v>
       </c>
       <c r="D15" t="n">
-        <v>2869.68</v>
+        <v>125.4</v>
       </c>
       <c r="E15" t="n">
-        <v>2.0008e-05</v>
+        <v>710.572</v>
       </c>
       <c r="F15" t="n">
-        <v>3247.257</v>
+        <v>121.252</v>
       </c>
       <c r="G15" t="n">
-        <v>2.032192489846742e-06</v>
+        <v>8.441005271885484</v>
       </c>
       <c r="H15" t="n">
-        <v>133.8088623490908</v>
+        <v>12.73161694365646</v>
       </c>
       <c r="I15" t="n">
-        <v>-2869.67998449</v>
+        <v>584.12</v>
       </c>
       <c r="J15" t="n">
-        <v>-3247.256979992</v>
+        <v>589.3199999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>133.8088606009932</v>
+        <v>7.064831915905125</v>
       </c>
       <c r="L15" t="n">
-        <v>2.821763774133788</v>
+        <v>-0.7360401580528931</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>neutro</t>
+          <t>vende_1_compra_2</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45691</v>
+        <v>45676</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1.68e-05</v>
+        <v>683.1900000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>2879.9</v>
+        <v>115.57</v>
       </c>
       <c r="E16" t="n">
-        <v>1.97665e-05</v>
+        <v>707.432</v>
       </c>
       <c r="F16" t="n">
-        <v>3229.9705</v>
+        <v>123.876</v>
       </c>
       <c r="G16" t="n">
-        <v>2.11461399986406e-06</v>
+        <v>14.56888019032337</v>
       </c>
       <c r="H16" t="n">
-        <v>157.0615698740969</v>
+        <v>8.554521026919067</v>
       </c>
       <c r="I16" t="n">
-        <v>-2879.8999832</v>
+        <v>567.6200000000001</v>
       </c>
       <c r="J16" t="n">
-        <v>-3229.9704802335</v>
+        <v>583.556</v>
       </c>
       <c r="K16" t="n">
-        <v>157.0615680061155</v>
+        <v>10.65040515661189</v>
       </c>
       <c r="L16" t="n">
-        <v>2.228874329204898</v>
+        <v>-1.496281105334916</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>neutro</t>
+          <t>vende_1_compra_2</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45692</v>
+        <v>45677</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.575e-05</v>
+        <v>682.51</v>
       </c>
       <c r="D17" t="n">
-        <v>2731.19</v>
+        <v>118.58</v>
       </c>
       <c r="E17" t="n">
-        <v>1.9417e-05</v>
+        <v>701.016</v>
       </c>
       <c r="F17" t="n">
-        <v>3193.954</v>
+        <v>124.2</v>
       </c>
       <c r="G17" t="n">
-        <v>2.174103808106017e-06</v>
+        <v>17.41445462826774</v>
       </c>
       <c r="H17" t="n">
-        <v>183.8838933847004</v>
+        <v>8.252439033401</v>
       </c>
       <c r="I17" t="n">
-        <v>-2731.18998425</v>
+        <v>563.9299999999999</v>
       </c>
       <c r="J17" t="n">
-        <v>-3193.953980583</v>
+        <v>576.816</v>
       </c>
       <c r="K17" t="n">
-        <v>183.8838914764047</v>
+        <v>10.16967206944148</v>
       </c>
       <c r="L17" t="n">
-        <v>2.516609761831041</v>
+        <v>-1.267100837864851</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>neutro</t>
+          <t>vende_1_compra_2</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45693</v>
+        <v>45678</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1.577e-05</v>
+        <v>692.21</v>
       </c>
       <c r="D18" t="n">
-        <v>2788.25</v>
+        <v>119.11</v>
       </c>
       <c r="E18" t="n">
-        <v>1.91045e-05</v>
+        <v>697.838</v>
       </c>
       <c r="F18" t="n">
-        <v>3167.964</v>
+        <v>123.14</v>
       </c>
       <c r="G18" t="n">
-        <v>2.22875578931858e-06</v>
+        <v>17.24758736751304</v>
       </c>
       <c r="H18" t="n">
-        <v>202.6821046134226</v>
+        <v>8.553610348852722</v>
       </c>
       <c r="I18" t="n">
-        <v>-2788.24998423</v>
+        <v>573.1</v>
       </c>
       <c r="J18" t="n">
-        <v>-3167.9639808955</v>
+        <v>574.6980000000001</v>
       </c>
       <c r="K18" t="n">
-        <v>202.6821026172024</v>
+        <v>9.458013533505627</v>
       </c>
       <c r="L18" t="n">
-        <v>1.873446109756672</v>
+        <v>-0.1689572545375465</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1237,40 +1237,40 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45694</v>
+        <v>45679</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.486e-05</v>
+        <v>695.52</v>
       </c>
       <c r="D19" t="n">
-        <v>2686.64</v>
+        <v>115.38</v>
       </c>
       <c r="E19" t="n">
-        <v>1.8638e-05</v>
+        <v>692.5899999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>3128.6145</v>
+        <v>118.808</v>
       </c>
       <c r="G19" t="n">
-        <v>2.079735813181957e-06</v>
+        <v>11.01499659555077</v>
       </c>
       <c r="H19" t="n">
-        <v>216.1619886609165</v>
+        <v>4.056891667274388</v>
       </c>
       <c r="I19" t="n">
-        <v>-2686.63998514</v>
+        <v>580.14</v>
       </c>
       <c r="J19" t="n">
-        <v>-3128.614481362</v>
+        <v>573.7819999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>216.1619867596263</v>
+        <v>8.408264981550843</v>
       </c>
       <c r="L19" t="n">
-        <v>2.044644864933998</v>
+        <v>0.7561607553937214</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -1280,40 +1280,40 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45695</v>
+        <v>45680</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.51e-05</v>
+        <v>689.74</v>
       </c>
       <c r="D20" t="n">
-        <v>2622.1</v>
+        <v>116.42</v>
       </c>
       <c r="E20" t="n">
-        <v>1.8254e-05</v>
+        <v>688.634</v>
       </c>
       <c r="F20" t="n">
-        <v>3094.334</v>
+        <v>117.012</v>
       </c>
       <c r="G20" t="n">
-        <v>1.981398761640782e-06</v>
+        <v>5.669402966802953</v>
       </c>
       <c r="H20" t="n">
-        <v>239.3821859968525</v>
+        <v>1.72869025565609</v>
       </c>
       <c r="I20" t="n">
-        <v>-2622.0999849</v>
+        <v>573.3200000000001</v>
       </c>
       <c r="J20" t="n">
-        <v>-3094.333981746</v>
+        <v>571.6220000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>239.3821841069642</v>
+        <v>6.180753999308829</v>
       </c>
       <c r="L20" t="n">
-        <v>1.972719893954136</v>
+        <v>0.2747237635068246</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -1323,40 +1323,40 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45696</v>
+        <v>45681</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1.596e-05</v>
+        <v>680.45</v>
       </c>
       <c r="D21" t="n">
-        <v>2632.46</v>
+        <v>118.71</v>
       </c>
       <c r="E21" t="n">
-        <v>1.8035e-05</v>
+        <v>688.086</v>
       </c>
       <c r="F21" t="n">
-        <v>3065.201</v>
+        <v>117.64</v>
       </c>
       <c r="G21" t="n">
-        <v>1.980758759455058e-06</v>
+        <v>6.411078692388198</v>
       </c>
       <c r="H21" t="n">
-        <v>258.5930036074777</v>
+        <v>1.642056637269345</v>
       </c>
       <c r="I21" t="n">
-        <v>-2632.45998404</v>
+        <v>561.74</v>
       </c>
       <c r="J21" t="n">
-        <v>-3065.200981965</v>
+        <v>570.446</v>
       </c>
       <c r="K21" t="n">
-        <v>258.593001719593</v>
+        <v>7.542047467363953</v>
       </c>
       <c r="L21" t="n">
-        <v>1.673444350958287</v>
+        <v>-1.15432845492855</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -1366,40 +1366,40 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45697</v>
+        <v>45682</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1.566e-05</v>
+        <v>686.4</v>
       </c>
       <c r="D22" t="n">
-        <v>2627.18</v>
+        <v>123.92</v>
       </c>
       <c r="E22" t="n">
-        <v>1.78015e-05</v>
+        <v>688.864</v>
       </c>
       <c r="F22" t="n">
-        <v>3032.36</v>
+        <v>118.708</v>
       </c>
       <c r="G22" t="n">
-        <v>1.971211956880188e-06</v>
+        <v>5.769144650638789</v>
       </c>
       <c r="H22" t="n">
-        <v>270.7645371710887</v>
+        <v>3.302918406500578</v>
       </c>
       <c r="I22" t="n">
-        <v>-2627.17998434</v>
+        <v>562.48</v>
       </c>
       <c r="J22" t="n">
-        <v>-3032.3599821985</v>
+        <v>570.1560000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>270.7645352932736</v>
+        <v>7.875727268003288</v>
       </c>
       <c r="L22" t="n">
-        <v>1.496429351132107</v>
+        <v>-0.9746401492577484</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -1409,40 +1409,40 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45698</v>
+        <v>45683</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>1.58e-05</v>
+        <v>667.37</v>
       </c>
       <c r="D23" t="n">
-        <v>2661.19</v>
+        <v>117.11</v>
       </c>
       <c r="E23" t="n">
-        <v>1.75465e-05</v>
+        <v>683.896</v>
       </c>
       <c r="F23" t="n">
-        <v>2999.0425</v>
+        <v>118.308</v>
       </c>
       <c r="G23" t="n">
-        <v>1.876904716758293e-06</v>
+        <v>10.72990354103863</v>
       </c>
       <c r="H23" t="n">
-        <v>273.5141752869401</v>
+        <v>3.362628436208841</v>
       </c>
       <c r="I23" t="n">
-        <v>-2661.1899842</v>
+        <v>550.26</v>
       </c>
       <c r="J23" t="n">
-        <v>-2999.0424824535</v>
+        <v>565.588</v>
       </c>
       <c r="K23" t="n">
-        <v>273.5141734937432</v>
+        <v>11.52127249916285</v>
       </c>
       <c r="L23" t="n">
-        <v>1.235228485375836</v>
+        <v>-1.330408598626039</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -1452,40 +1452,40 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45699</v>
+        <v>45684</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1.569e-05</v>
+        <v>679.74</v>
       </c>
       <c r="D24" t="n">
-        <v>2602.59</v>
+        <v>115.06</v>
       </c>
       <c r="E24" t="n">
-        <v>1.7322e-05</v>
+        <v>680.74</v>
       </c>
       <c r="F24" t="n">
-        <v>2967.042</v>
+        <v>118.244</v>
       </c>
       <c r="G24" t="n">
-        <v>1.812760616471915e-06</v>
+        <v>8.556818918265908</v>
       </c>
       <c r="H24" t="n">
-        <v>280.8599357349726</v>
+        <v>3.434564018911323</v>
       </c>
       <c r="I24" t="n">
-        <v>-2602.58998431</v>
+        <v>564.6800000000001</v>
       </c>
       <c r="J24" t="n">
-        <v>-2967.041982678</v>
+        <v>562.4960000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8599339978729</v>
+        <v>8.249550290771227</v>
       </c>
       <c r="L24" t="n">
-        <v>1.297629010945933</v>
+        <v>0.2647417038530221</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -1495,40 +1495,40 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45700</v>
+        <v>45685</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1.7e-05</v>
+        <v>661.29</v>
       </c>
       <c r="D25" t="n">
-        <v>2738.27</v>
+        <v>109.92</v>
       </c>
       <c r="E25" t="n">
-        <v>1.7165e-05</v>
+        <v>675.05</v>
       </c>
       <c r="F25" t="n">
-        <v>2937.045</v>
+        <v>116.944</v>
       </c>
       <c r="G25" t="n">
-        <v>1.687500487329382e-06</v>
+        <v>10.34768814760058</v>
       </c>
       <c r="H25" t="n">
-        <v>270.9960487282354</v>
+        <v>5.11607564447598</v>
       </c>
       <c r="I25" t="n">
-        <v>-2738.269983</v>
+        <v>551.37</v>
       </c>
       <c r="J25" t="n">
-        <v>-2937.044982835</v>
+        <v>558.106</v>
       </c>
       <c r="K25" t="n">
-        <v>270.9960471350341</v>
+        <v>6.754419294059201</v>
       </c>
       <c r="L25" t="n">
-        <v>0.7334977832202577</v>
+        <v>-0.9972730010890186</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -1538,40 +1538,40 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45701</v>
+        <v>45686</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1.629e-05</v>
+        <v>667.97</v>
       </c>
       <c r="D26" t="n">
-        <v>2675.87</v>
+        <v>115.9</v>
       </c>
       <c r="E26" t="n">
-        <v>1.6981e-05</v>
+        <v>672.554</v>
       </c>
       <c r="F26" t="n">
-        <v>2905.334</v>
+        <v>116.382</v>
       </c>
       <c r="G26" t="n">
-        <v>1.561476696490944e-06</v>
+        <v>10.22392928379265</v>
       </c>
       <c r="H26" t="n">
-        <v>262.0040546371682</v>
+        <v>5.027148296997048</v>
       </c>
       <c r="I26" t="n">
-        <v>-2675.86998371</v>
+        <v>552.0700000000001</v>
       </c>
       <c r="J26" t="n">
-        <v>-2905.333983019</v>
+        <v>556.172</v>
       </c>
       <c r="K26" t="n">
-        <v>262.0040531770234</v>
+        <v>6.837658224857204</v>
       </c>
       <c r="L26" t="n">
-        <v>0.8758032424558041</v>
+        <v>-0.5999129914226797</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -1581,40 +1581,40 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45702</v>
+        <v>45687</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>1.672e-05</v>
+        <v>677.53</v>
       </c>
       <c r="D27" t="n">
-        <v>2725.95</v>
+        <v>130.15</v>
       </c>
       <c r="E27" t="n">
-        <v>1.682e-05</v>
+        <v>670.78</v>
       </c>
       <c r="F27" t="n">
-        <v>2875.693</v>
+        <v>117.628</v>
       </c>
       <c r="G27" t="n">
-        <v>1.397742540858788e-06</v>
+        <v>7.671838110908815</v>
       </c>
       <c r="H27" t="n">
-        <v>245.8020046190375</v>
+        <v>7.517690469818531</v>
       </c>
       <c r="I27" t="n">
-        <v>-2725.94998328</v>
+        <v>547.38</v>
       </c>
       <c r="J27" t="n">
-        <v>-2875.69298318</v>
+        <v>553.152</v>
       </c>
       <c r="K27" t="n">
-        <v>245.8020033350066</v>
+        <v>6.688061752103884</v>
       </c>
       <c r="L27" t="n">
-        <v>0.6092017065292731</v>
+        <v>-0.8630303089208667</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -1624,40 +1624,40 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45703</v>
+        <v>45688</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1.632e-05</v>
+        <v>677.47</v>
       </c>
       <c r="D28" t="n">
-        <v>2693.04</v>
+        <v>128.09</v>
       </c>
       <c r="E28" t="n">
-        <v>1.66815e-05</v>
+        <v>672.8</v>
       </c>
       <c r="F28" t="n">
-        <v>2848.7145</v>
+        <v>119.824</v>
       </c>
       <c r="G28" t="n">
-        <v>1.294389817636119e-06</v>
+        <v>7.876458595078961</v>
       </c>
       <c r="H28" t="n">
-        <v>233.888127586787</v>
+        <v>8.819519828199288</v>
       </c>
       <c r="I28" t="n">
-        <v>-2693.03998368</v>
+        <v>549.38</v>
       </c>
       <c r="J28" t="n">
-        <v>-2848.7144833185</v>
+        <v>552.976</v>
       </c>
       <c r="K28" t="n">
-        <v>233.8881264159341</v>
+        <v>6.793933323190243</v>
       </c>
       <c r="L28" t="n">
-        <v>0.6655938547374434</v>
+        <v>-0.5292957450326318</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -1667,298 +1667,298 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45704</v>
+        <v>45689</v>
       </c>
       <c r="B29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>1.596e-05</v>
+        <v>652.9400000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>2661.41</v>
+        <v>118.04</v>
       </c>
       <c r="E29" t="n">
-        <v>1.6531e-05</v>
+        <v>667.4399999999999</v>
       </c>
       <c r="F29" t="n">
-        <v>2822.663</v>
+        <v>120.42</v>
       </c>
       <c r="G29" t="n">
-        <v>1.184633632016807e-06</v>
+        <v>10.61558288555047</v>
       </c>
       <c r="H29" t="n">
-        <v>223.548666739601</v>
+        <v>8.512440895536391</v>
       </c>
       <c r="I29" t="n">
-        <v>-2661.40998404</v>
+        <v>534.9000000000001</v>
       </c>
       <c r="J29" t="n">
-        <v>-2822.662983469</v>
+        <v>547.02</v>
       </c>
       <c r="K29" t="n">
-        <v>223.5486656810498</v>
+        <v>7.018165714768381</v>
       </c>
       <c r="L29" t="n">
-        <v>0.7213328647600588</v>
+        <v>-1.726946967709195</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>neutro</t>
+          <t>compra_1_vende_2</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45705</v>
+        <v>45690</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>1.575e-05</v>
+        <v>617.8</v>
       </c>
       <c r="D30" t="n">
-        <v>2744.05</v>
+        <v>109.12</v>
       </c>
       <c r="E30" t="n">
-        <v>1.64205e-05</v>
+        <v>658.742</v>
       </c>
       <c r="F30" t="n">
-        <v>2805.9795</v>
+        <v>120.26</v>
       </c>
       <c r="G30" t="n">
-        <v>1.146791749093768e-06</v>
+        <v>24.99396667197891</v>
       </c>
       <c r="H30" t="n">
-        <v>215.8295219910736</v>
+        <v>8.762970386803802</v>
       </c>
       <c r="I30" t="n">
-        <v>-2744.04998425</v>
+        <v>508.6799999999999</v>
       </c>
       <c r="J30" t="n">
-        <v>-2805.9794835795</v>
+        <v>538.482</v>
       </c>
       <c r="K30" t="n">
-        <v>215.8295209775628</v>
+        <v>17.91343406496771</v>
       </c>
       <c r="L30" t="n">
-        <v>0.2869371115174619</v>
+        <v>-1.66366760789223</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>neutro</t>
+          <t>compra_1_vende_2</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45706</v>
+        <v>45691</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>1.523e-05</v>
+        <v>617.21</v>
       </c>
       <c r="D31" t="n">
-        <v>2671.99</v>
+        <v>106.91</v>
       </c>
       <c r="E31" t="n">
-        <v>1.62675e-05</v>
+        <v>648.59</v>
       </c>
       <c r="F31" t="n">
-        <v>2783.884</v>
+        <v>118.462</v>
       </c>
       <c r="G31" t="n">
-        <v>1.086800591790353e-06</v>
+        <v>30.09663187135714</v>
       </c>
       <c r="H31" t="n">
-        <v>204.9954040665831</v>
+        <v>10.60904661126533</v>
       </c>
       <c r="I31" t="n">
-        <v>-2671.98998477</v>
+        <v>510.3000000000001</v>
       </c>
       <c r="J31" t="n">
-        <v>-2783.8839837325</v>
+        <v>530.1279999999999</v>
       </c>
       <c r="K31" t="n">
-        <v>204.9954031237097</v>
+        <v>19.64821416821233</v>
       </c>
       <c r="L31" t="n">
-        <v>0.5458366249070218</v>
+        <v>-1.009150237789977</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>neutro</t>
+          <t>compra_1_vende_2</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45707</v>
+        <v>45692</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>1.541e-05</v>
+        <v>572.6900000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>2715.5</v>
+        <v>101.07</v>
       </c>
       <c r="E32" t="n">
-        <v>1.6104e-05</v>
+        <v>627.6220000000001</v>
       </c>
       <c r="F32" t="n">
-        <v>2757.2895</v>
+        <v>112.646</v>
       </c>
       <c r="G32" t="n">
-        <v>9.409424167179534e-07</v>
+        <v>39.83789113394414</v>
       </c>
       <c r="H32" t="n">
-        <v>173.8318014777523</v>
+        <v>10.57060215881766</v>
       </c>
       <c r="I32" t="n">
-        <v>-2715.49998459</v>
+        <v>471.6200000000001</v>
       </c>
       <c r="J32" t="n">
-        <v>-2757.289483896</v>
+        <v>514.9760000000001</v>
       </c>
       <c r="K32" t="n">
-        <v>173.8318007129853</v>
+        <v>29.6725812830622</v>
       </c>
       <c r="L32" t="n">
-        <v>0.2404019237826246</v>
+        <v>-1.461146894717537</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>neutro</t>
+          <t>compra_1_vende_2</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45708</v>
+        <v>45693</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>1.554e-05</v>
+        <v>569.55</v>
       </c>
       <c r="D33" t="n">
-        <v>2738.04</v>
+        <v>103.38</v>
       </c>
       <c r="E33" t="n">
-        <v>1.5936e-05</v>
+        <v>606.038</v>
       </c>
       <c r="F33" t="n">
-        <v>2729.142</v>
+        <v>107.704</v>
       </c>
       <c r="G33" t="n">
-        <v>6.789341491981724e-07</v>
+        <v>35.02291778250328</v>
       </c>
       <c r="H33" t="n">
-        <v>117.6630074944216</v>
+        <v>6.560779679275968</v>
       </c>
       <c r="I33" t="n">
-        <v>-2738.03998446</v>
+        <v>466.17</v>
       </c>
       <c r="J33" t="n">
-        <v>-2729.141984064</v>
+        <v>498.334</v>
       </c>
       <c r="K33" t="n">
-        <v>117.6630070820176</v>
+        <v>28.87671172415464</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.07562275193083966</v>
+        <v>-1.113838732998663</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>neutro</t>
+          <t>compra_1_vende_2</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45709</v>
+        <v>45694</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>1.508e-05</v>
+        <v>571.72</v>
       </c>
       <c r="D34" t="n">
-        <v>2663</v>
+        <v>101.66</v>
       </c>
       <c r="E34" t="n">
-        <v>1.581e-05</v>
+        <v>589.7940000000001</v>
       </c>
       <c r="F34" t="n">
-        <v>2706.415</v>
+        <v>104.428</v>
       </c>
       <c r="G34" t="n">
-        <v>5.805804717785515e-07</v>
+        <v>25.32295855542916</v>
       </c>
       <c r="H34" t="n">
-        <v>74.7763368495165</v>
+        <v>3.471724355417692</v>
       </c>
       <c r="I34" t="n">
-        <v>-2662.99998492</v>
+        <v>470.0600000000001</v>
       </c>
       <c r="J34" t="n">
-        <v>-2706.41498419</v>
+        <v>485.3660000000001</v>
       </c>
       <c r="K34" t="n">
-        <v>74.77633665594276</v>
+        <v>22.11876759677001</v>
       </c>
       <c r="L34" t="n">
-        <v>0.5805981037792602</v>
+        <v>-0.6919915376404228</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>neutro</t>
+          <t>compra_1_vende_2</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45710</v>
+        <v>45695</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>1.56e-05</v>
+        <v>577.71</v>
       </c>
       <c r="D35" t="n">
-        <v>2763.22</v>
+        <v>103.11</v>
       </c>
       <c r="E35" t="n">
-        <v>1.58145e-05</v>
+        <v>581.7760000000001</v>
       </c>
       <c r="F35" t="n">
-        <v>2701.092</v>
+        <v>103.226</v>
       </c>
       <c r="G35" t="n">
-        <v>5.784778119750553e-07</v>
+        <v>20.03281258335892</v>
       </c>
       <c r="H35" t="n">
-        <v>65.79200548139529</v>
+        <v>2.27539666871523</v>
       </c>
       <c r="I35" t="n">
-        <v>-2763.2199844</v>
+        <v>474.6</v>
       </c>
       <c r="J35" t="n">
-        <v>-2701.0919841855</v>
+        <v>478.55</v>
       </c>
       <c r="K35" t="n">
-        <v>65.79200523136545</v>
+        <v>18.00718190056184</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.9443092666961495</v>
+        <v>-0.2193569222442711</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -1968,298 +1968,298 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45711</v>
+        <v>45696</v>
       </c>
       <c r="B36" t="b">
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>1.546e-05</v>
+        <v>612.39</v>
       </c>
       <c r="D36" t="n">
-        <v>2819.69</v>
+        <v>104.69</v>
       </c>
       <c r="E36" t="n">
-        <v>1.57475e-05</v>
+        <v>580.812</v>
       </c>
       <c r="F36" t="n">
-        <v>2698.0815</v>
+        <v>102.782</v>
       </c>
       <c r="G36" t="n">
-        <v>5.342370358992306e-07</v>
+        <v>17.90430451036798</v>
       </c>
       <c r="H36" t="n">
-        <v>58.1083807050127</v>
+        <v>1.440093746948568</v>
       </c>
       <c r="I36" t="n">
-        <v>-2819.68998454</v>
+        <v>507.7</v>
       </c>
       <c r="J36" t="n">
-        <v>-2698.0814842525</v>
+        <v>478.03</v>
       </c>
       <c r="K36" t="n">
-        <v>58.10838062326261</v>
+        <v>16.86225370464816</v>
       </c>
       <c r="L36" t="n">
-        <v>-2.092787632061734</v>
+        <v>1.759551274680518</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>neutro</t>
+          <t>vende_1_compra_2</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45712</v>
+        <v>45697</v>
       </c>
       <c r="B37" t="b">
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>1.364e-05</v>
+        <v>615.8099999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>2513.52</v>
+        <v>107.2</v>
       </c>
       <c r="E37" t="n">
-        <v>1.5642e-05</v>
+        <v>589.4359999999999</v>
       </c>
       <c r="F37" t="n">
-        <v>2687.198</v>
+        <v>104.008</v>
       </c>
       <c r="G37" t="n">
-        <v>7.123615285573066e-07</v>
+        <v>22.74468465378193</v>
       </c>
       <c r="H37" t="n">
-        <v>70.61864123959856</v>
+        <v>2.083739427087835</v>
       </c>
       <c r="I37" t="n">
-        <v>-2513.51998636</v>
+        <v>508.61</v>
       </c>
       <c r="J37" t="n">
-        <v>-2687.197984358</v>
+        <v>485.428</v>
       </c>
       <c r="K37" t="n">
-        <v>70.61864089961594</v>
+        <v>20.96269710700231</v>
       </c>
       <c r="L37" t="n">
-        <v>2.459378937140444</v>
+        <v>1.105869148500759</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>neutro</t>
+          <t>vende_1_compra_2</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45713</v>
+        <v>45698</v>
       </c>
       <c r="B38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>1.409e-05</v>
+        <v>618.65</v>
       </c>
       <c r="D38" t="n">
-        <v>2495.7</v>
+        <v>120.21</v>
       </c>
       <c r="E38" t="n">
-        <v>1.5558e-05</v>
+        <v>599.2560000000001</v>
       </c>
       <c r="F38" t="n">
-        <v>2672.5705</v>
+        <v>107.374</v>
       </c>
       <c r="G38" t="n">
-        <v>7.911656956003716e-07</v>
+        <v>22.61153201355415</v>
       </c>
       <c r="H38" t="n">
-        <v>78.44997047901764</v>
+        <v>7.46372092189949</v>
       </c>
       <c r="I38" t="n">
-        <v>-2495.69998591</v>
+        <v>498.44</v>
       </c>
       <c r="J38" t="n">
-        <v>-2672.570484442</v>
+        <v>491.8819999999999</v>
       </c>
       <c r="K38" t="n">
-        <v>78.44996999874589</v>
+        <v>18.35694473489326</v>
       </c>
       <c r="L38" t="n">
-        <v>2.254564259678207</v>
+        <v>0.3572489918507228</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>neutro</t>
+          <t>vende_1_compra_2</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45714</v>
+        <v>45699</v>
       </c>
       <c r="B39" t="b">
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>1.443e-05</v>
+        <v>642.11</v>
       </c>
       <c r="D39" t="n">
-        <v>2336.37</v>
+        <v>119.27</v>
       </c>
       <c r="E39" t="n">
-        <v>1.55365e-05</v>
+        <v>613.3340000000001</v>
       </c>
       <c r="F39" t="n">
-        <v>2655.057</v>
+        <v>110.896</v>
       </c>
       <c r="G39" t="n">
-        <v>8.16567108145648e-07</v>
+        <v>23.08900777426318</v>
       </c>
       <c r="H39" t="n">
-        <v>108.4900992863347</v>
+        <v>8.210833088061168</v>
       </c>
       <c r="I39" t="n">
-        <v>-2336.36998557</v>
+        <v>522.84</v>
       </c>
       <c r="J39" t="n">
-        <v>-2655.0569844635</v>
+        <v>502.438</v>
       </c>
       <c r="K39" t="n">
-        <v>108.4900987539592</v>
+        <v>17.83929707135153</v>
       </c>
       <c r="L39" t="n">
-        <v>2.937475424519977</v>
+        <v>1.14365492756797</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>neutro</t>
+          <t>vende_1_compra_2</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45715</v>
+        <v>45700</v>
       </c>
       <c r="B40" t="b">
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>1.443e-05</v>
+        <v>696.9299999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>2307.72</v>
+        <v>122.04</v>
       </c>
       <c r="E40" t="n">
-        <v>1.5503e-05</v>
+        <v>637.178</v>
       </c>
       <c r="F40" t="n">
-        <v>2639.338</v>
+        <v>114.682</v>
       </c>
       <c r="G40" t="n">
-        <v>8.485349603566445e-07</v>
+        <v>35.38696539688011</v>
       </c>
       <c r="H40" t="n">
-        <v>133.425914732132</v>
+        <v>8.086548707576064</v>
       </c>
       <c r="I40" t="n">
-        <v>-2307.71998557</v>
+        <v>574.89</v>
       </c>
       <c r="J40" t="n">
-        <v>-2639.337984497</v>
+        <v>522.496</v>
       </c>
       <c r="K40" t="n">
-        <v>133.4259141574775</v>
+        <v>30.56011829165493</v>
       </c>
       <c r="L40" t="n">
-        <v>2.485409232689269</v>
+        <v>1.714456714465902</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>neutro</t>
+          <t>vende_1_compra_2</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45716</v>
+        <v>45701</v>
       </c>
       <c r="B41" t="b">
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1.394e-05</v>
+        <v>664.72</v>
       </c>
       <c r="D41" t="n">
-        <v>2237.59</v>
+        <v>126.61</v>
       </c>
       <c r="E41" t="n">
-        <v>1.5402e-05</v>
+        <v>647.644</v>
       </c>
       <c r="F41" t="n">
-        <v>2619.5945</v>
+        <v>119.066</v>
       </c>
       <c r="G41" t="n">
-        <v>9.093178472726173e-07</v>
+        <v>33.93147624256854</v>
       </c>
       <c r="H41" t="n">
-        <v>160.8865328332555</v>
+        <v>7.209523562621879</v>
       </c>
       <c r="I41" t="n">
-        <v>-2237.58998606</v>
+        <v>538.11</v>
       </c>
       <c r="J41" t="n">
-        <v>-2619.594484598</v>
+        <v>528.5780000000001</v>
       </c>
       <c r="K41" t="n">
-        <v>160.8865321632849</v>
+        <v>29.89818171728752</v>
       </c>
       <c r="L41" t="n">
-        <v>2.37437213296574</v>
+        <v>0.3188153744643407</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>neutro</t>
+          <t>vende_1_compra_2</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45717</v>
+        <v>45702</v>
       </c>
       <c r="B42" t="b">
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>1.365e-05</v>
+        <v>659.71</v>
       </c>
       <c r="D42" t="n">
-        <v>2217.39</v>
+        <v>124.91</v>
       </c>
       <c r="E42" t="n">
-        <v>1.53015e-05</v>
+        <v>656.424</v>
       </c>
       <c r="F42" t="n">
-        <v>2599.105</v>
+        <v>122.608</v>
       </c>
       <c r="G42" t="n">
-        <v>9.870544964425503e-07</v>
+        <v>28.94876128610677</v>
       </c>
       <c r="H42" t="n">
-        <v>184.2651950886373</v>
+        <v>3.103646242728071</v>
       </c>
       <c r="I42" t="n">
-        <v>-2217.38998635</v>
+        <v>534.8000000000001</v>
       </c>
       <c r="J42" t="n">
-        <v>-2599.1049846985</v>
+        <v>533.816</v>
       </c>
       <c r="K42" t="n">
-        <v>184.2651943147195</v>
+        <v>27.74172903767803</v>
       </c>
       <c r="L42" t="n">
-        <v>2.071552361085304</v>
+        <v>0.03547003139795635</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -2269,40 +2269,40 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45718</v>
+        <v>45703</v>
       </c>
       <c r="B43" t="b">
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>1.515e-05</v>
+        <v>662.21</v>
       </c>
       <c r="D43" t="n">
-        <v>2518.11</v>
+        <v>133.86</v>
       </c>
       <c r="E43" t="n">
-        <v>1.5269e-05</v>
+        <v>665.136</v>
       </c>
       <c r="F43" t="n">
-        <v>2591.951</v>
+        <v>125.338</v>
       </c>
       <c r="G43" t="n">
-        <v>9.804558553094652e-07</v>
+        <v>19.8697705069786</v>
       </c>
       <c r="H43" t="n">
-        <v>184.5052600562434</v>
+        <v>5.52546559124207</v>
       </c>
       <c r="I43" t="n">
-        <v>-2518.10998485</v>
+        <v>528.35</v>
       </c>
       <c r="J43" t="n">
-        <v>-2591.950984731</v>
+        <v>539.798</v>
       </c>
       <c r="K43" t="n">
-        <v>184.5052592899873</v>
+        <v>20.48113937260208</v>
       </c>
       <c r="L43" t="n">
-        <v>0.4002108133131494</v>
+        <v>-0.5589532785131152</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -2312,40 +2312,40 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45719</v>
+        <v>45704</v>
       </c>
       <c r="B44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>1.291e-05</v>
+        <v>673.1</v>
       </c>
       <c r="D44" t="n">
-        <v>2149.01</v>
+        <v>125.71</v>
       </c>
       <c r="E44" t="n">
-        <v>1.513e-05</v>
+        <v>671.3340000000001</v>
       </c>
       <c r="F44" t="n">
-        <v>2569.272</v>
+        <v>126.626</v>
       </c>
       <c r="G44" t="n">
-        <v>1.106578415420152e-06</v>
+        <v>15.16891327683032</v>
       </c>
       <c r="H44" t="n">
-        <v>209.3345885268012</v>
+        <v>4.391643200443319</v>
       </c>
       <c r="I44" t="n">
-        <v>-2149.00998709</v>
+        <v>547.39</v>
       </c>
       <c r="J44" t="n">
-        <v>-2569.27198487</v>
+        <v>544.708</v>
       </c>
       <c r="K44" t="n">
-        <v>209.3345876056977</v>
+        <v>18.21697340394266</v>
       </c>
       <c r="L44" t="n">
-        <v>2.007608979418176</v>
+        <v>0.147225334336798</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -2355,40 +2355,40 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45720</v>
+        <v>45705</v>
       </c>
       <c r="B45" t="b">
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>1.309e-05</v>
+        <v>667.51</v>
       </c>
       <c r="D45" t="n">
-        <v>2171.51</v>
+        <v>122.31</v>
       </c>
       <c r="E45" t="n">
-        <v>1.49345e-05</v>
+        <v>665.45</v>
       </c>
       <c r="F45" t="n">
-        <v>2540.934</v>
+        <v>126.68</v>
       </c>
       <c r="G45" t="n">
-        <v>1.104204762666251e-06</v>
+        <v>5.165854237200048</v>
       </c>
       <c r="H45" t="n">
-        <v>223.1581771889992</v>
+        <v>4.322267923208838</v>
       </c>
       <c r="I45" t="n">
-        <v>-2171.50998691</v>
+        <v>545.2</v>
       </c>
       <c r="J45" t="n">
-        <v>-2540.9339850655</v>
+        <v>538.77</v>
       </c>
       <c r="K45" t="n">
-        <v>223.1581762342449</v>
+        <v>7.752776921848771</v>
       </c>
       <c r="L45" t="n">
-        <v>1.655435639372328</v>
+        <v>0.8293802420496745</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -2398,40 +2398,40 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45721</v>
+        <v>45706</v>
       </c>
       <c r="B46" t="b">
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>1.337e-05</v>
+        <v>648.1799999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>2241.59</v>
+        <v>129.75</v>
       </c>
       <c r="E46" t="n">
-        <v>1.47885e-05</v>
+        <v>662.1420000000001</v>
       </c>
       <c r="F46" t="n">
-        <v>2519.22</v>
+        <v>127.308</v>
       </c>
       <c r="G46" t="n">
-        <v>1.108580291705563e-06</v>
+        <v>9.350800500491705</v>
       </c>
       <c r="H46" t="n">
-        <v>230.3499647789972</v>
+        <v>4.532551158012452</v>
       </c>
       <c r="I46" t="n">
-        <v>-2241.58998663</v>
+        <v>518.4299999999999</v>
       </c>
       <c r="J46" t="n">
-        <v>-2519.2199852115</v>
+        <v>534.8340000000001</v>
       </c>
       <c r="K46" t="n">
-        <v>230.3499638033248</v>
+        <v>12.00251765255727</v>
       </c>
       <c r="L46" t="n">
-        <v>1.205253059290877</v>
+        <v>-1.366713257572677</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -2441,40 +2441,40 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45722</v>
+        <v>45707</v>
       </c>
       <c r="B47" t="b">
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>1.339e-05</v>
+        <v>653.38</v>
       </c>
       <c r="D47" t="n">
-        <v>2202.2</v>
+        <v>134.88</v>
       </c>
       <c r="E47" t="n">
-        <v>1.4622e-05</v>
+        <v>660.876</v>
       </c>
       <c r="F47" t="n">
-        <v>2493.0325</v>
+        <v>129.302</v>
       </c>
       <c r="G47" t="n">
-        <v>1.051833486922064e-06</v>
+        <v>10.15620647682958</v>
       </c>
       <c r="H47" t="n">
-        <v>235.3284047515213</v>
+        <v>5.335744559103246</v>
       </c>
       <c r="I47" t="n">
-        <v>-2202.19998661</v>
+        <v>518.5</v>
       </c>
       <c r="J47" t="n">
-        <v>-2493.032485378</v>
+        <v>531.574</v>
       </c>
       <c r="K47" t="n">
-        <v>235.3284038061405</v>
+        <v>14.05259869205502</v>
       </c>
       <c r="L47" t="n">
-        <v>1.235858035256905</v>
+        <v>-0.930361727855479</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -2484,40 +2484,40 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45723</v>
+        <v>45708</v>
       </c>
       <c r="B48" t="b">
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>1.315e-05</v>
+        <v>656.36</v>
       </c>
       <c r="D48" t="n">
-        <v>2141.6</v>
+        <v>130.82</v>
       </c>
       <c r="E48" t="n">
-        <v>1.44635e-05</v>
+        <v>659.706</v>
       </c>
       <c r="F48" t="n">
-        <v>2465.4605</v>
+        <v>128.694</v>
       </c>
       <c r="G48" t="n">
-        <v>1.020883389392219e-06</v>
+        <v>10.30005242705077</v>
       </c>
       <c r="H48" t="n">
-        <v>242.8457602216533</v>
+        <v>4.836355032459867</v>
       </c>
       <c r="I48" t="n">
-        <v>-2141.59998685</v>
+        <v>525.54</v>
       </c>
       <c r="J48" t="n">
-        <v>-2465.460485536501</v>
+        <v>531.0119999999999</v>
       </c>
       <c r="K48" t="n">
-        <v>242.8457592859682</v>
+        <v>14.26830298248346</v>
       </c>
       <c r="L48" t="n">
-        <v>1.333605740692107</v>
+        <v>-0.3835074154731438</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -2527,40 +2527,40 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45724</v>
+        <v>45709</v>
       </c>
       <c r="B49" t="b">
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>1.267e-05</v>
+        <v>647.47</v>
       </c>
       <c r="D49" t="n">
-        <v>2203.58</v>
+        <v>128.1</v>
       </c>
       <c r="E49" t="n">
-        <v>1.4299e-05</v>
+        <v>654.58</v>
       </c>
       <c r="F49" t="n">
-        <v>2442.569</v>
+        <v>129.172</v>
       </c>
       <c r="G49" t="n">
-        <v>1.032059259824541e-06</v>
+        <v>8.113343946856407</v>
       </c>
       <c r="H49" t="n">
-        <v>244.9717466179596</v>
+        <v>4.578959488792171</v>
       </c>
       <c r="I49" t="n">
-        <v>-2203.57998733</v>
+        <v>519.37</v>
       </c>
       <c r="J49" t="n">
-        <v>-2442.568985701</v>
+        <v>525.408</v>
       </c>
       <c r="K49" t="n">
-        <v>244.9717456686673</v>
+        <v>11.45219498611261</v>
       </c>
       <c r="L49" t="n">
-        <v>0.9755778068146737</v>
+        <v>-0.527235172586734</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -2570,83 +2570,83 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45725</v>
+        <v>45710</v>
       </c>
       <c r="B50" t="b">
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>1.165e-05</v>
+        <v>668.5700000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>2020.41</v>
+        <v>125.9</v>
       </c>
       <c r="E50" t="n">
-        <v>1.4094e-05</v>
+        <v>654.792</v>
       </c>
       <c r="F50" t="n">
-        <v>2406.387</v>
+        <v>129.89</v>
       </c>
       <c r="G50" t="n">
-        <v>1.131116821180732e-06</v>
+        <v>8.538382165257779</v>
       </c>
       <c r="H50" t="n">
-        <v>251.4543656013974</v>
+        <v>3.350701419106128</v>
       </c>
       <c r="I50" t="n">
-        <v>-2020.40998835</v>
+        <v>542.6700000000001</v>
       </c>
       <c r="J50" t="n">
-        <v>-2406.386985906</v>
+        <v>524.902</v>
       </c>
       <c r="K50" t="n">
-        <v>251.4543645651207</v>
+        <v>10.36320751504777</v>
       </c>
       <c r="L50" t="n">
-        <v>1.534978317928704</v>
+        <v>1.714527087699462</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>neutro</t>
+          <t>vende_1_compra_2</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45726</v>
+        <v>45711</v>
       </c>
       <c r="B51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>1.15e-05</v>
+        <v>658.42</v>
       </c>
       <c r="D51" t="n">
-        <v>1865.1</v>
+        <v>129.85</v>
       </c>
       <c r="E51" t="n">
-        <v>1.39075e-05</v>
+        <v>656.84</v>
       </c>
       <c r="F51" t="n">
-        <v>2366.0425</v>
+        <v>129.91</v>
       </c>
       <c r="G51" t="n">
-        <v>1.236543889020441e-06</v>
+        <v>7.747389883050484</v>
       </c>
       <c r="H51" t="n">
-        <v>270.598727072805</v>
+        <v>3.349955223581327</v>
       </c>
       <c r="I51" t="n">
-        <v>-1865.0999885</v>
+        <v>528.5699999999999</v>
       </c>
       <c r="J51" t="n">
-        <v>-2366.0424860925</v>
+        <v>526.9299999999999</v>
       </c>
       <c r="K51" t="n">
-        <v>270.5987259247003</v>
+        <v>9.754329807831148</v>
       </c>
       <c r="L51" t="n">
-        <v>1.851237458272062</v>
+        <v>0.1681304643485944</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -2656,255 +2656,255 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45727</v>
+        <v>45712</v>
       </c>
       <c r="B52" t="b">
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>1.205e-05</v>
+        <v>614.2</v>
       </c>
       <c r="D52" t="n">
-        <v>1923.43</v>
+        <v>114.77</v>
       </c>
       <c r="E52" t="n">
-        <v>1.37395e-05</v>
+        <v>649.004</v>
       </c>
       <c r="F52" t="n">
-        <v>2326.439</v>
+        <v>125.888</v>
       </c>
       <c r="G52" t="n">
-        <v>1.249844095540725e-06</v>
+        <v>20.8522883636302</v>
       </c>
       <c r="H52" t="n">
-        <v>274.6927745471703</v>
+        <v>6.49086049765364</v>
       </c>
       <c r="I52" t="n">
-        <v>-1923.42998795</v>
+        <v>499.4300000000001</v>
       </c>
       <c r="J52" t="n">
-        <v>-2326.4389862605</v>
+        <v>523.116</v>
       </c>
       <c r="K52" t="n">
-        <v>274.6927733847496</v>
+        <v>15.75626795913109</v>
       </c>
       <c r="L52" t="n">
-        <v>1.467126322052977</v>
+        <v>-1.503274764140666</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>neutro</t>
+          <t>compra_1_vende_2</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45728</v>
+        <v>45713</v>
       </c>
       <c r="B53" t="b">
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>1.233e-05</v>
+        <v>623.49</v>
       </c>
       <c r="D53" t="n">
-        <v>1908.2</v>
+        <v>114.55</v>
       </c>
       <c r="E53" t="n">
-        <v>1.3579e-05</v>
+        <v>642.4300000000001</v>
       </c>
       <c r="F53" t="n">
-        <v>2284.947</v>
+        <v>122.634</v>
       </c>
       <c r="G53" t="n">
-        <v>1.211996612814493e-06</v>
+        <v>23.02193410641218</v>
       </c>
       <c r="H53" t="n">
-        <v>271.9077866154386</v>
+        <v>7.412963644858987</v>
       </c>
       <c r="I53" t="n">
-        <v>-1908.19998767</v>
+        <v>508.94</v>
       </c>
       <c r="J53" t="n">
-        <v>-2284.946986421</v>
+        <v>519.796</v>
       </c>
       <c r="K53" t="n">
-        <v>271.9077854962329</v>
+        <v>16.83011526995405</v>
       </c>
       <c r="L53" t="n">
-        <v>1.385569001135567</v>
+        <v>-0.6450342036207393</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>neutro</t>
+          <t>compra_1_vende_2</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45729</v>
+        <v>45714</v>
       </c>
       <c r="B54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>1.202e-05</v>
+        <v>611.5700000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>1864.59</v>
+        <v>124.68</v>
       </c>
       <c r="E54" t="n">
-        <v>1.3426e-05</v>
+        <v>635.25</v>
       </c>
       <c r="F54" t="n">
-        <v>2245.0265</v>
+        <v>121.95</v>
       </c>
       <c r="G54" t="n">
-        <v>1.205668192113323e-06</v>
+        <v>26.40650393368992</v>
       </c>
       <c r="H54" t="n">
-        <v>272.0919014883171</v>
+        <v>6.92419309378365</v>
       </c>
       <c r="I54" t="n">
-        <v>-1864.58998798</v>
+        <v>486.89</v>
       </c>
       <c r="J54" t="n">
-        <v>-2245.026486574</v>
+        <v>513.3</v>
       </c>
       <c r="K54" t="n">
-        <v>272.0919003764992</v>
+        <v>22.38662770494786</v>
       </c>
       <c r="L54" t="n">
-        <v>1.398191192268429</v>
+        <v>-1.179722124657606</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>neutro</t>
+          <t>compra_1_vende_2</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45730</v>
+        <v>45715</v>
       </c>
       <c r="B55" t="b">
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>1.278e-05</v>
+        <v>605.41</v>
       </c>
       <c r="D55" t="n">
-        <v>1911.65</v>
+        <v>126.86</v>
       </c>
       <c r="E55" t="n">
-        <v>1.3285e-05</v>
+        <v>622.6180000000001</v>
       </c>
       <c r="F55" t="n">
-        <v>2202.448</v>
+        <v>122.142</v>
       </c>
       <c r="G55" t="n">
-        <v>1.098144367845916e-06</v>
+        <v>21.04506996899693</v>
       </c>
       <c r="H55" t="n">
-        <v>252.6702519636419</v>
+        <v>7.072819098492563</v>
       </c>
       <c r="I55" t="n">
-        <v>-1911.64998722</v>
+        <v>478.55</v>
       </c>
       <c r="J55" t="n">
-        <v>-2202.447986715</v>
+        <v>500.476</v>
       </c>
       <c r="K55" t="n">
-        <v>252.6702509811771</v>
+        <v>19.54056754549203</v>
       </c>
       <c r="L55" t="n">
-        <v>1.15089923869456</v>
+        <v>-1.122075904343849</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>neutro</t>
+          <t>compra_1_vende_2</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45731</v>
+        <v>45716</v>
       </c>
       <c r="B56" t="b">
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>1.284e-05</v>
+        <v>588.0700000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>1937.17</v>
+        <v>128.04</v>
       </c>
       <c r="E56" t="n">
-        <v>1.3154e-05</v>
+        <v>608.548</v>
       </c>
       <c r="F56" t="n">
-        <v>2158.322</v>
+        <v>121.78</v>
       </c>
       <c r="G56" t="n">
-        <v>9.743197356969373e-07</v>
+        <v>13.16754039295006</v>
       </c>
       <c r="H56" t="n">
-        <v>213.1771590312469</v>
+        <v>6.610918998142482</v>
       </c>
       <c r="I56" t="n">
-        <v>-1937.16998716</v>
+        <v>460.0300000000001</v>
       </c>
       <c r="J56" t="n">
-        <v>-2158.321986846</v>
+        <v>486.768</v>
       </c>
       <c r="K56" t="n">
-        <v>213.1771581976211</v>
+        <v>18.93670298652684</v>
       </c>
       <c r="L56" t="n">
-        <v>1.03740945585261</v>
+        <v>-1.411967015537161</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>neutro</t>
+          <t>compra_1_vende_2</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45732</v>
+        <v>45717</v>
       </c>
       <c r="B57" t="b">
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>1.311e-05</v>
+        <v>607.9299999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>1887</v>
+        <v>124.31</v>
       </c>
       <c r="E57" t="n">
-        <v>1.31275e-05</v>
+        <v>607.2940000000001</v>
       </c>
       <c r="F57" t="n">
-        <v>2126.996</v>
+        <v>123.688</v>
       </c>
       <c r="G57" t="n">
-        <v>9.675899251015506e-07</v>
+        <v>12.78779418038822</v>
       </c>
       <c r="H57" t="n">
-        <v>204.0728926118053</v>
+        <v>5.335622737788051</v>
       </c>
       <c r="I57" t="n">
-        <v>-1886.99998689</v>
+        <v>483.6199999999999</v>
       </c>
       <c r="J57" t="n">
-        <v>-2126.9959868725</v>
+        <v>483.6059999999999</v>
       </c>
       <c r="K57" t="n">
-        <v>204.0728917867135</v>
+        <v>17.56407782947723</v>
       </c>
       <c r="L57" t="n">
-        <v>1.176030769600362</v>
+        <v>0.0007970814144602712</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
@@ -2914,40 +2914,40 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45733</v>
+        <v>45718</v>
       </c>
       <c r="B58" t="b">
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>1.295e-05</v>
+        <v>623.9400000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>1926.31</v>
+        <v>127.89</v>
       </c>
       <c r="E58" t="n">
-        <v>1.30705e-05</v>
+        <v>607.384</v>
       </c>
       <c r="F58" t="n">
-        <v>2098.5265</v>
+        <v>126.356</v>
       </c>
       <c r="G58" t="n">
-        <v>9.411218110096193e-07</v>
+        <v>12.93105873468878</v>
       </c>
       <c r="H58" t="n">
-        <v>189.0963478807674</v>
+        <v>1.763385947545329</v>
       </c>
       <c r="I58" t="n">
-        <v>-1926.30998705</v>
+        <v>496.0500000000001</v>
       </c>
       <c r="J58" t="n">
-        <v>-2098.5264869295</v>
+        <v>481.0280000000001</v>
       </c>
       <c r="K58" t="n">
-        <v>189.0963470882206</v>
+        <v>13.35850365871619</v>
       </c>
       <c r="L58" t="n">
-        <v>0.9107341444261462</v>
+        <v>1.124527146436674</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
@@ -2957,40 +2957,40 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45734</v>
+        <v>45719</v>
       </c>
       <c r="B59" t="b">
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>1.255e-05</v>
+        <v>576.1</v>
       </c>
       <c r="D59" t="n">
-        <v>1931.54</v>
+        <v>109.89</v>
       </c>
       <c r="E59" t="n">
-        <v>1.29765e-05</v>
+        <v>600.2900000000001</v>
       </c>
       <c r="F59" t="n">
-        <v>2078.285</v>
+        <v>123.398</v>
       </c>
       <c r="G59" t="n">
-        <v>8.907257537655379e-07</v>
+        <v>18.56334425689424</v>
       </c>
       <c r="H59" t="n">
-        <v>183.8923800115653</v>
+        <v>7.697556105674114</v>
       </c>
       <c r="I59" t="n">
-        <v>-1931.53998745</v>
+        <v>466.21</v>
       </c>
       <c r="J59" t="n">
-        <v>-2078.2849870235</v>
+        <v>476.892</v>
       </c>
       <c r="K59" t="n">
-        <v>183.8923792751505</v>
+        <v>14.26075103211374</v>
       </c>
       <c r="L59" t="n">
-        <v>0.7979939144402045</v>
+        <v>-0.7490489088509574</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
@@ -3000,40 +3000,40 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45735</v>
+        <v>45720</v>
       </c>
       <c r="B60" t="b">
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>1.293e-05</v>
+        <v>584.01</v>
       </c>
       <c r="D60" t="n">
-        <v>2056.06</v>
+        <v>103.66</v>
       </c>
       <c r="E60" t="n">
-        <v>1.29015e-05</v>
+        <v>596.01</v>
       </c>
       <c r="F60" t="n">
-        <v>2065.702</v>
+        <v>118.758</v>
       </c>
       <c r="G60" t="n">
-        <v>8.224307681630032e-07</v>
+        <v>19.52961213132423</v>
       </c>
       <c r="H60" t="n">
-        <v>175.7987238322702</v>
+        <v>11.25793808830026</v>
       </c>
       <c r="I60" t="n">
-        <v>-2056.05998707</v>
+        <v>480.35</v>
       </c>
       <c r="J60" t="n">
-        <v>-2065.7019870985</v>
+        <v>477.2520000000001</v>
       </c>
       <c r="K60" t="n">
-        <v>175.798723167133</v>
+        <v>14.33559276765119</v>
       </c>
       <c r="L60" t="n">
-        <v>0.05484681489599611</v>
+        <v>0.2161054691083797</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
@@ -3043,40 +3043,40 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45736</v>
+        <v>45721</v>
       </c>
       <c r="B61" t="b">
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>1.294e-05</v>
+        <v>598.24</v>
       </c>
       <c r="D61" t="n">
-        <v>1983.79</v>
+        <v>104.73</v>
       </c>
       <c r="E61" t="n">
-        <v>1.28515e-05</v>
+        <v>598.0440000000001</v>
       </c>
       <c r="F61" t="n">
-        <v>2053.012</v>
+        <v>114.096</v>
       </c>
       <c r="G61" t="n">
-        <v>7.855422197103758e-07</v>
+        <v>19.01884933427803</v>
       </c>
       <c r="H61" t="n">
-        <v>171.8539777834723</v>
+        <v>11.2796577962278</v>
       </c>
       <c r="I61" t="n">
-        <v>-1983.78998706</v>
+        <v>493.51</v>
       </c>
       <c r="J61" t="n">
-        <v>-2053.0119871485</v>
+        <v>483.948</v>
       </c>
       <c r="K61" t="n">
-        <v>171.8539771625885</v>
+        <v>11.89096379609051</v>
       </c>
       <c r="L61" t="n">
-        <v>0.4027954501338659</v>
+        <v>0.8041400313693489</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
@@ -3086,40 +3086,40 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45737</v>
+        <v>45722</v>
       </c>
       <c r="B62" t="b">
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>1.251e-05</v>
+        <v>596.5</v>
       </c>
       <c r="D62" t="n">
-        <v>1965.75</v>
+        <v>103.39</v>
       </c>
       <c r="E62" t="n">
-        <v>1.27945e-05</v>
+        <v>595.758</v>
       </c>
       <c r="F62" t="n">
-        <v>2040.43</v>
+        <v>109.912</v>
       </c>
       <c r="G62" t="n">
-        <v>7.656608772475617e-07</v>
+        <v>18.20294261925711</v>
       </c>
       <c r="H62" t="n">
-        <v>168.3621408874713</v>
+        <v>10.38852828845372</v>
       </c>
       <c r="I62" t="n">
-        <v>-1965.74998749</v>
+        <v>493.11</v>
       </c>
       <c r="J62" t="n">
-        <v>-2040.4299872055</v>
+        <v>485.846</v>
       </c>
       <c r="K62" t="n">
-        <v>168.3621402899104</v>
+        <v>12.56386405529507</v>
       </c>
       <c r="L62" t="n">
-        <v>0.4435676547405789</v>
+        <v>0.5781660775721766</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
@@ -3129,40 +3129,40 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45738</v>
+        <v>45723</v>
       </c>
       <c r="B63" t="b">
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>1.281e-05</v>
+        <v>594.77</v>
       </c>
       <c r="D63" t="n">
-        <v>1980.69</v>
+        <v>103.71</v>
       </c>
       <c r="E63" t="n">
-        <v>1.26775e-05</v>
+        <v>589.924</v>
       </c>
       <c r="F63" t="n">
-        <v>2013.559</v>
+        <v>105.076</v>
       </c>
       <c r="G63" t="n">
-        <v>5.289799021156145e-07</v>
+        <v>9.512645793887383</v>
       </c>
       <c r="H63" t="n">
-        <v>125.5556223101398</v>
+        <v>2.738974260558907</v>
       </c>
       <c r="I63" t="n">
-        <v>-1980.68998719</v>
+        <v>491.06</v>
       </c>
       <c r="J63" t="n">
-        <v>-2013.5589873225</v>
+        <v>484.8480000000001</v>
       </c>
       <c r="K63" t="n">
-        <v>125.5556220072562</v>
+        <v>11.72056824560716</v>
       </c>
       <c r="L63" t="n">
-        <v>0.2617883580760785</v>
+        <v>0.5300084321703576</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
@@ -3172,40 +3172,40 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45739</v>
+        <v>45724</v>
       </c>
       <c r="B64" t="b">
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>1.295e-05</v>
+        <v>593.1</v>
       </c>
       <c r="D64" t="n">
-        <v>2005.99</v>
+        <v>102.34</v>
       </c>
       <c r="E64" t="n">
-        <v>1.26795e-05</v>
+        <v>593.324</v>
       </c>
       <c r="F64" t="n">
-        <v>2006.408</v>
+        <v>103.566</v>
       </c>
       <c r="G64" t="n">
-        <v>5.29979890383273e-07</v>
+        <v>5.548552063373448</v>
       </c>
       <c r="H64" t="n">
-        <v>121.4404016531833</v>
+        <v>0.8541838209685969</v>
       </c>
       <c r="I64" t="n">
-        <v>-2005.98998705</v>
+        <v>490.76</v>
       </c>
       <c r="J64" t="n">
-        <v>-2006.4079873205</v>
+        <v>489.758</v>
       </c>
       <c r="K64" t="n">
-        <v>121.4404013544545</v>
+        <v>5.397292839927863</v>
       </c>
       <c r="L64" t="n">
-        <v>0.003442019837205377</v>
+        <v>0.1856486260273774</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
@@ -3215,599 +3215,599 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45740</v>
+        <v>45725</v>
       </c>
       <c r="B65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>1.353e-05</v>
+        <v>554.65</v>
       </c>
       <c r="D65" t="n">
-        <v>2081.2</v>
+        <v>94.62</v>
       </c>
       <c r="E65" t="n">
-        <v>1.27015e-05</v>
+        <v>587.452</v>
       </c>
       <c r="F65" t="n">
-        <v>2001.8925</v>
+        <v>101.758</v>
       </c>
       <c r="G65" t="n">
-        <v>5.563913333164103e-07</v>
+        <v>18.4368617177643</v>
       </c>
       <c r="H65" t="n">
-        <v>116.5592304762381</v>
+        <v>4.080327192763451</v>
       </c>
       <c r="I65" t="n">
-        <v>-2081.19998647</v>
+        <v>460.03</v>
       </c>
       <c r="J65" t="n">
-        <v>-2001.8924872985</v>
+        <v>485.694</v>
       </c>
       <c r="K65" t="n">
-        <v>116.5592301659825</v>
+        <v>14.39779601188794</v>
       </c>
       <c r="L65" t="n">
-        <v>-0.6804051387313061</v>
+        <v>-1.782495041519536</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>neutro</t>
+          <t>compra_1_vende_2</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45741</v>
+        <v>45726</v>
       </c>
       <c r="B66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>1.384e-05</v>
+        <v>531.49</v>
       </c>
       <c r="D66" t="n">
-        <v>2066.15</v>
+        <v>87.48</v>
       </c>
       <c r="E66" t="n">
-        <v>1.2725e-05</v>
+        <v>574.1020000000001</v>
       </c>
       <c r="F66" t="n">
-        <v>1993.1205</v>
+        <v>98.30799999999999</v>
       </c>
       <c r="G66" t="n">
-        <v>5.94717978275711e-07</v>
+        <v>29.51238502730597</v>
       </c>
       <c r="H66" t="n">
-        <v>103.4332240970354</v>
+        <v>7.108309925714094</v>
       </c>
       <c r="I66" t="n">
-        <v>-2066.14998616</v>
+        <v>444.01</v>
       </c>
       <c r="J66" t="n">
-        <v>-1993.120487275</v>
+        <v>475.794</v>
       </c>
       <c r="K66" t="n">
-        <v>103.4332237896202</v>
+        <v>22.44772883834653</v>
       </c>
       <c r="L66" t="n">
-        <v>-0.7060545558701687</v>
+        <v>-1.415911615330309</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>neutro</t>
+          <t>compra_1_vende_2</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45742</v>
+        <v>45727</v>
       </c>
       <c r="B67" t="b">
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>1.421e-05</v>
+        <v>551.61</v>
       </c>
       <c r="D67" t="n">
-        <v>2009.52</v>
+        <v>90.45999999999999</v>
       </c>
       <c r="E67" t="n">
-        <v>1.2766e-05</v>
+        <v>565.124</v>
       </c>
       <c r="F67" t="n">
-        <v>1983.4865</v>
+        <v>95.72200000000001</v>
       </c>
       <c r="G67" t="n">
-        <v>6.668654089727163e-07</v>
+        <v>27.77193151366949</v>
       </c>
       <c r="H67" t="n">
-        <v>91.18189809243468</v>
+        <v>7.149120225594617</v>
       </c>
       <c r="I67" t="n">
-        <v>-2009.51998579</v>
+        <v>461.15</v>
       </c>
       <c r="J67" t="n">
-        <v>-1983.486487234</v>
+        <v>469.402</v>
       </c>
       <c r="K67" t="n">
-        <v>91.18189780535263</v>
+        <v>20.77207668963151</v>
       </c>
       <c r="L67" t="n">
-        <v>-0.2855116989511928</v>
+        <v>-0.397264083090885</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>neutro</t>
+          <t>compra_1_vende_2</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45743</v>
+        <v>45728</v>
       </c>
       <c r="B68" t="b">
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>1.402e-05</v>
+        <v>569.87</v>
       </c>
       <c r="D68" t="n">
-        <v>2003.66</v>
+        <v>91.51000000000001</v>
       </c>
       <c r="E68" t="n">
-        <v>1.28095e-05</v>
+        <v>560.144</v>
       </c>
       <c r="F68" t="n">
-        <v>1976.5895</v>
+        <v>93.28200000000001</v>
       </c>
       <c r="G68" t="n">
-        <v>7.195281714247337e-07</v>
+        <v>22.93882037071537</v>
       </c>
       <c r="H68" t="n">
-        <v>83.48474531157868</v>
+        <v>5.67019576381685</v>
       </c>
       <c r="I68" t="n">
-        <v>-2003.65998598</v>
+        <v>478.36</v>
       </c>
       <c r="J68" t="n">
-        <v>-1976.5894871905</v>
+        <v>466.862</v>
       </c>
       <c r="K68" t="n">
-        <v>83.48474501657411</v>
+        <v>18.06125327877146</v>
       </c>
       <c r="L68" t="n">
-        <v>-0.3242568302044357</v>
+        <v>0.6366114146416617</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>neutro</t>
+          <t>compra_1_vende_2</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45744</v>
+        <v>45729</v>
       </c>
       <c r="B69" t="b">
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>1.324e-05</v>
+        <v>579.8</v>
       </c>
       <c r="D69" t="n">
-        <v>1896.9</v>
+        <v>88.08</v>
       </c>
       <c r="E69" t="n">
-        <v>1.2838e-05</v>
+        <v>557.484</v>
       </c>
       <c r="F69" t="n">
-        <v>1961.2555</v>
+        <v>90.42999999999999</v>
       </c>
       <c r="G69" t="n">
-        <v>7.249798545296418e-07</v>
+        <v>18.50432598069824</v>
       </c>
       <c r="H69" t="n">
-        <v>65.91359954517991</v>
+        <v>2.870034842995309</v>
       </c>
       <c r="I69" t="n">
-        <v>-1896.89998676</v>
+        <v>491.72</v>
       </c>
       <c r="J69" t="n">
-        <v>-1961.255487162</v>
+        <v>467.054</v>
       </c>
       <c r="K69" t="n">
-        <v>65.91359916666364</v>
+        <v>18.38108348275292</v>
       </c>
       <c r="L69" t="n">
-        <v>0.9763614977127254</v>
+        <v>1.341923071245732</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>neutro</t>
+          <t>compra_1_vende_2</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45745</v>
+        <v>45730</v>
       </c>
       <c r="B70" t="b">
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>1.268e-05</v>
+        <v>587.76</v>
       </c>
       <c r="D70" t="n">
-        <v>1828.08</v>
+        <v>91.31</v>
       </c>
       <c r="E70" t="n">
-        <v>1.28895e-05</v>
+        <v>564.106</v>
       </c>
       <c r="F70" t="n">
-        <v>1951.639</v>
+        <v>89.768</v>
       </c>
       <c r="G70" t="n">
-        <v>6.706985753283691e-07</v>
+        <v>22.6880503789979</v>
       </c>
       <c r="H70" t="n">
-        <v>70.68624781758237</v>
+        <v>1.869189664000748</v>
       </c>
       <c r="I70" t="n">
-        <v>-1828.07998732</v>
+        <v>496.45</v>
       </c>
       <c r="J70" t="n">
-        <v>-1951.6389871105</v>
+        <v>474.338</v>
       </c>
       <c r="K70" t="n">
-        <v>70.68624738925519</v>
+        <v>21.80001077981233</v>
       </c>
       <c r="L70" t="n">
-        <v>1.74799206852905</v>
+        <v>1.014311425041888</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>neutro</t>
+          <t>compra_1_vende_2</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45746</v>
+        <v>45731</v>
       </c>
       <c r="B71" t="b">
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>1.245e-05</v>
+        <v>619.83</v>
       </c>
       <c r="D71" t="n">
-        <v>1807.74</v>
+        <v>92.47</v>
       </c>
       <c r="E71" t="n">
-        <v>1.2937e-05</v>
+        <v>581.7740000000001</v>
       </c>
       <c r="F71" t="n">
-        <v>1948.771</v>
+        <v>90.76600000000001</v>
       </c>
       <c r="G71" t="n">
-        <v>5.966670587082073e-07</v>
+        <v>25.19702422906239</v>
       </c>
       <c r="H71" t="n">
-        <v>75.38943880385536</v>
+        <v>1.662928140361769</v>
       </c>
       <c r="I71" t="n">
-        <v>-1807.73998755</v>
+        <v>527.36</v>
       </c>
       <c r="J71" t="n">
-        <v>-1948.770987063</v>
+        <v>491.008</v>
       </c>
       <c r="K71" t="n">
-        <v>75.3894384401424</v>
+        <v>24.51051957833488</v>
       </c>
       <c r="L71" t="n">
-        <v>1.870699695222899</v>
+        <v>1.483118294731376</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>neutro</t>
+          <t>compra_1_vende_2</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45747</v>
+        <v>45732</v>
       </c>
       <c r="B72" t="b">
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>1.238e-05</v>
+        <v>602.2</v>
       </c>
       <c r="D72" t="n">
-        <v>1822.43</v>
+        <v>90.22</v>
       </c>
       <c r="E72" t="n">
-        <v>1.29535e-05</v>
+        <v>591.8920000000001</v>
       </c>
       <c r="F72" t="n">
-        <v>1943.721</v>
+        <v>90.71799999999999</v>
       </c>
       <c r="G72" t="n">
-        <v>5.750173910414663e-07</v>
+        <v>19.58982567558893</v>
       </c>
       <c r="H72" t="n">
-        <v>80.39298679154494</v>
+        <v>1.677369965155887</v>
       </c>
       <c r="I72" t="n">
-        <v>-1822.42998762</v>
+        <v>511.98</v>
       </c>
       <c r="J72" t="n">
-        <v>-1943.7209870465</v>
+        <v>501.174</v>
       </c>
       <c r="K72" t="n">
-        <v>80.39298641802256</v>
+        <v>18.93838113461496</v>
       </c>
       <c r="L72" t="n">
-        <v>1.508726131852081</v>
+        <v>0.5705873127798228</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>neutro</t>
+          <t>compra_1_vende_2</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45748</v>
+        <v>45733</v>
       </c>
       <c r="B73" t="b">
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>1.269e-05</v>
+        <v>631.6900000000001</v>
       </c>
       <c r="D73" t="n">
-        <v>1904.98</v>
+        <v>92.3</v>
       </c>
       <c r="E73" t="n">
-        <v>1.29715e-05</v>
+        <v>604.2560000000001</v>
       </c>
       <c r="F73" t="n">
-        <v>1943.56</v>
+        <v>90.876</v>
       </c>
       <c r="G73" t="n">
-        <v>5.599085921640081e-07</v>
+        <v>21.61952196511221</v>
       </c>
       <c r="H73" t="n">
-        <v>80.47105376928529</v>
+        <v>1.803116746083577</v>
       </c>
       <c r="I73" t="n">
-        <v>-1904.97998731</v>
+        <v>539.3900000000001</v>
       </c>
       <c r="J73" t="n">
-        <v>-1943.5599870285</v>
+        <v>513.38</v>
       </c>
       <c r="K73" t="n">
-        <v>80.47105340389605</v>
+        <v>20.18477768022091</v>
       </c>
       <c r="L73" t="n">
-        <v>0.479427049685323</v>
+        <v>1.288594821903208</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>neutro</t>
+          <t>compra_1_vende_2</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45749</v>
+        <v>45734</v>
       </c>
       <c r="B74" t="b">
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>1.205e-05</v>
+        <v>627.8099999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>1795.22</v>
+        <v>90.03</v>
       </c>
       <c r="E74" t="n">
-        <v>1.2973e-05</v>
+        <v>613.8579999999999</v>
       </c>
       <c r="F74" t="n">
-        <v>1940.0915</v>
+        <v>91.26600000000001</v>
       </c>
       <c r="G74" t="n">
-        <v>5.572592706604138e-07</v>
+        <v>18.47510405924606</v>
       </c>
       <c r="H74" t="n">
-        <v>85.39817089593187</v>
+        <v>1.133856251915094</v>
       </c>
       <c r="I74" t="n">
-        <v>-1795.21998795</v>
+        <v>537.78</v>
       </c>
       <c r="J74" t="n">
-        <v>-1940.091487027</v>
+        <v>522.592</v>
       </c>
       <c r="K74" t="n">
-        <v>85.39817051362292</v>
+        <v>18.24555206070637</v>
       </c>
       <c r="L74" t="n">
-        <v>1.696423918752326</v>
+        <v>0.8324220582346133</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>neutro</t>
+          <t>compra_1_vende_2</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45750</v>
+        <v>45735</v>
       </c>
       <c r="B75" t="b">
         <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>1.223e-05</v>
+        <v>618.7</v>
       </c>
       <c r="D75" t="n">
-        <v>1817.23</v>
+        <v>94.09</v>
       </c>
       <c r="E75" t="n">
-        <v>1.29455e-05</v>
+        <v>620.046</v>
       </c>
       <c r="F75" t="n">
-        <v>1935.3705</v>
+        <v>91.822</v>
       </c>
       <c r="G75" t="n">
-        <v>5.803762391307066e-07</v>
+        <v>11.36002332743956</v>
       </c>
       <c r="H75" t="n">
-        <v>89.56161557246351</v>
+        <v>1.700726315433158</v>
       </c>
       <c r="I75" t="n">
-        <v>-1817.22998777</v>
+        <v>524.61</v>
       </c>
       <c r="J75" t="n">
-        <v>-1935.3704870545</v>
+        <v>528.2239999999999</v>
       </c>
       <c r="K75" t="n">
-        <v>89.56161515903368</v>
+        <v>11.10936226792286</v>
       </c>
       <c r="L75" t="n">
-        <v>1.319097462397469</v>
+        <v>-0.3253112026452654</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>neutro</t>
+          <t>compra_1_vende_2</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45751</v>
+        <v>45736</v>
       </c>
       <c r="B76" t="b">
         <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>1.23e-05</v>
+        <v>630.47</v>
       </c>
       <c r="D76" t="n">
-        <v>1816.87</v>
+        <v>93.29000000000001</v>
       </c>
       <c r="E76" t="n">
-        <v>1.29185e-05</v>
+        <v>622.174</v>
       </c>
       <c r="F76" t="n">
-        <v>1929.3555</v>
+        <v>91.986</v>
       </c>
       <c r="G76" t="n">
-        <v>5.978406318181849e-07</v>
+        <v>12.26959371780383</v>
       </c>
       <c r="H76" t="n">
-        <v>93.39218453017449</v>
+        <v>1.814560552863094</v>
       </c>
       <c r="I76" t="n">
-        <v>-1816.8699877</v>
+        <v>537.1800000000001</v>
       </c>
       <c r="J76" t="n">
-        <v>-1929.3554870815</v>
+        <v>530.1880000000001</v>
       </c>
       <c r="K76" t="n">
-        <v>93.39218409231805</v>
+        <v>11.76699494348277</v>
       </c>
       <c r="L76" t="n">
-        <v>1.204442325391043</v>
+        <v>0.5942043855362179</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>neutro</t>
+          <t>compra_1_vende_2</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45752</v>
+        <v>45737</v>
       </c>
       <c r="B77" t="b">
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>1.234e-05</v>
+        <v>635.17</v>
       </c>
       <c r="D77" t="n">
-        <v>1806.01</v>
+        <v>90.84</v>
       </c>
       <c r="E77" t="n">
-        <v>1.288e-05</v>
+        <v>628.768</v>
       </c>
       <c r="F77" t="n">
-        <v>1925.306</v>
+        <v>92.11</v>
       </c>
       <c r="G77" t="n">
-        <v>6.095382203811329e-07</v>
+        <v>6.218980623862053</v>
       </c>
       <c r="H77" t="n">
-        <v>97.0111381234257</v>
+        <v>1.679895830105781</v>
       </c>
       <c r="I77" t="n">
-        <v>-1806.00998766</v>
+        <v>544.3299999999999</v>
       </c>
       <c r="J77" t="n">
-        <v>-1925.30598712</v>
+        <v>536.658</v>
       </c>
       <c r="K77" t="n">
-        <v>97.01113766048196</v>
+        <v>7.29741529583945</v>
       </c>
       <c r="L77" t="n">
-        <v>1.229714467193551</v>
+        <v>1.051331147944126</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>neutro</t>
+          <t>compra_1_vende_2</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45753</v>
+        <v>45738</v>
       </c>
       <c r="B78" t="b">
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>1.133e-05</v>
+        <v>627.01</v>
       </c>
       <c r="D78" t="n">
-        <v>1580.76</v>
+        <v>91.37</v>
       </c>
       <c r="E78" t="n">
-        <v>1.2799e-05</v>
+        <v>627.832</v>
       </c>
       <c r="F78" t="n">
-        <v>1908.0285</v>
+        <v>91.92400000000001</v>
       </c>
       <c r="G78" t="n">
-        <v>7.005854694469023e-07</v>
+        <v>6.018199066163533</v>
       </c>
       <c r="H78" t="n">
-        <v>123.8744601039901</v>
+        <v>1.70489882397954</v>
       </c>
       <c r="I78" t="n">
-        <v>-1580.75998867</v>
+        <v>535.64</v>
       </c>
       <c r="J78" t="n">
-        <v>-1908.028487201</v>
+        <v>535.908</v>
       </c>
       <c r="K78" t="n">
-        <v>123.8744595264575</v>
+        <v>7.137385375608562</v>
       </c>
       <c r="L78" t="n">
-        <v>2.641936843010816</v>
+        <v>-0.03754876413369768</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
@@ -3817,40 +3817,40 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45754</v>
+        <v>45739</v>
       </c>
       <c r="B79" t="b">
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>1.142e-05</v>
+        <v>623.79</v>
       </c>
       <c r="D79" t="n">
-        <v>1553.04</v>
+        <v>91.48</v>
       </c>
       <c r="E79" t="n">
-        <v>1.27425e-05</v>
+        <v>627.028</v>
       </c>
       <c r="F79" t="n">
-        <v>1889.1035</v>
+        <v>92.21400000000001</v>
       </c>
       <c r="G79" t="n">
-        <v>7.643839969131871e-07</v>
+        <v>6.284506344970278</v>
       </c>
       <c r="H79" t="n">
-        <v>146.8715313059693</v>
+        <v>1.39786623108464</v>
       </c>
       <c r="I79" t="n">
-        <v>-1553.03998858</v>
+        <v>532.3099999999999</v>
       </c>
       <c r="J79" t="n">
-        <v>-1889.1034872575</v>
+        <v>534.8140000000001</v>
       </c>
       <c r="K79" t="n">
-        <v>146.8715306490089</v>
+        <v>7.19767531915343</v>
       </c>
       <c r="L79" t="n">
-        <v>2.288145954443813</v>
+        <v>-0.3478901018689804</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
@@ -3860,40 +3860,40 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45755</v>
+        <v>45740</v>
       </c>
       <c r="B80" t="b">
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>1.066e-05</v>
+        <v>637.08</v>
       </c>
       <c r="D80" t="n">
-        <v>1473.41</v>
+        <v>93.77</v>
       </c>
       <c r="E80" t="n">
-        <v>1.2629e-05</v>
+        <v>630.704</v>
       </c>
       <c r="F80" t="n">
-        <v>1859.971</v>
+        <v>92.15000000000001</v>
       </c>
       <c r="G80" t="n">
-        <v>8.928187179702458e-07</v>
+        <v>5.524995927597757</v>
       </c>
       <c r="H80" t="n">
-        <v>168.2426583023284</v>
+        <v>1.293966769282263</v>
       </c>
       <c r="I80" t="n">
-        <v>-1473.40998934</v>
+        <v>543.3100000000001</v>
       </c>
       <c r="J80" t="n">
-        <v>-1859.970987371</v>
+        <v>538.554</v>
       </c>
       <c r="K80" t="n">
-        <v>168.2426574884875</v>
+        <v>5.131971356111911</v>
       </c>
       <c r="L80" t="n">
-        <v>2.297639634332642</v>
+        <v>0.9267393892087759</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
@@ -3903,40 +3903,40 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45756</v>
+        <v>45741</v>
       </c>
       <c r="B81" t="b">
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>1.193e-05</v>
+        <v>629.8200000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>1669.51</v>
+        <v>94.36</v>
       </c>
       <c r="E81" t="n">
-        <v>1.25785e-05</v>
+        <v>630.574</v>
       </c>
       <c r="F81" t="n">
-        <v>1844.257</v>
+        <v>92.364</v>
       </c>
       <c r="G81" t="n">
-        <v>9.028100866913917e-07</v>
+        <v>5.539506295688435</v>
       </c>
       <c r="H81" t="n">
-        <v>170.7278383892185</v>
+        <v>1.585317003001838</v>
       </c>
       <c r="I81" t="n">
-        <v>-1669.50998807</v>
+        <v>535.46</v>
       </c>
       <c r="J81" t="n">
-        <v>-1844.2569874215</v>
+        <v>538.2099999999999</v>
       </c>
       <c r="K81" t="n">
-        <v>170.7278375629463</v>
+        <v>5.301928894275456</v>
       </c>
       <c r="L81" t="n">
-        <v>1.023541338342506</v>
+        <v>-0.518679155235199</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
@@ -3946,40 +3946,40 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45757</v>
+        <v>45742</v>
       </c>
       <c r="B82" t="b">
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>1.162e-05</v>
+        <v>617.99</v>
       </c>
       <c r="D82" t="n">
-        <v>1522.25</v>
+        <v>92.42</v>
       </c>
       <c r="E82" t="n">
-        <v>1.2534e-05</v>
+        <v>627.138</v>
       </c>
       <c r="F82" t="n">
-        <v>1822.082</v>
+        <v>92.68000000000001</v>
       </c>
       <c r="G82" t="n">
-        <v>9.279485012934562e-07</v>
+        <v>7.087804314452558</v>
       </c>
       <c r="H82" t="n">
-        <v>182.512472208289</v>
+        <v>1.344823408484056</v>
       </c>
       <c r="I82" t="n">
-        <v>-1522.24998838</v>
+        <v>525.5700000000001</v>
       </c>
       <c r="J82" t="n">
-        <v>-1822.081987466</v>
+        <v>534.458</v>
       </c>
       <c r="K82" t="n">
-        <v>182.5124713496555</v>
+        <v>6.410333064666109</v>
       </c>
       <c r="L82" t="n">
-        <v>1.642802800645797</v>
+        <v>-1.386511419974535</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
@@ -3989,40 +3989,40 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45758</v>
+        <v>45743</v>
       </c>
       <c r="B83" t="b">
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>1.22e-05</v>
+        <v>637.36</v>
       </c>
       <c r="D83" t="n">
-        <v>1566.85</v>
+        <v>92.79000000000001</v>
       </c>
       <c r="E83" t="n">
-        <v>1.25035e-05</v>
+        <v>629.2080000000001</v>
       </c>
       <c r="F83" t="n">
-        <v>1801.39</v>
+        <v>92.96400000000001</v>
       </c>
       <c r="G83" t="n">
-        <v>9.284241034083582e-07</v>
+        <v>8.426094587646876</v>
       </c>
       <c r="H83" t="n">
-        <v>186.9884525846518</v>
+        <v>1.132135150945603</v>
       </c>
       <c r="I83" t="n">
-        <v>-1566.8499878</v>
+        <v>544.5700000000001</v>
       </c>
       <c r="J83" t="n">
-        <v>-1801.3899874965</v>
+        <v>536.244</v>
       </c>
       <c r="K83" t="n">
-        <v>186.9884517384514</v>
+        <v>7.894237138568403</v>
       </c>
       <c r="L83" t="n">
-        <v>1.25430205724448</v>
+        <v>1.054693424311031</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
@@ -4032,40 +4032,40 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45759</v>
+        <v>45744</v>
       </c>
       <c r="B84" t="b">
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>1.254e-05</v>
+        <v>619.8099999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>1644.18</v>
+        <v>87.34999999999999</v>
       </c>
       <c r="E84" t="n">
-        <v>1.2483e-05</v>
+        <v>628.412</v>
       </c>
       <c r="F84" t="n">
-        <v>1783.2995</v>
+        <v>92.13800000000001</v>
       </c>
       <c r="G84" t="n">
-        <v>9.225542346060823e-07</v>
+        <v>9.216776551483289</v>
       </c>
       <c r="H84" t="n">
-        <v>183.6239645658957</v>
+        <v>2.785241461706113</v>
       </c>
       <c r="I84" t="n">
-        <v>-1644.17998746</v>
+        <v>532.4599999999999</v>
       </c>
       <c r="J84" t="n">
-        <v>-1783.299487517</v>
+        <v>536.274</v>
       </c>
       <c r="K84" t="n">
-        <v>183.6239637341459</v>
+        <v>7.87581297390642</v>
       </c>
       <c r="L84" t="n">
-        <v>0.7576325945039484</v>
+        <v>-0.48426746707119</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
@@ -4075,40 +4075,40 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45760</v>
+        <v>45745</v>
       </c>
       <c r="B85" t="b">
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>1.205e-05</v>
+        <v>602.99</v>
       </c>
       <c r="D85" t="n">
-        <v>1597.76</v>
+        <v>85.45999999999999</v>
       </c>
       <c r="E85" t="n">
-        <v>1.2409e-05</v>
+        <v>621.5939999999999</v>
       </c>
       <c r="F85" t="n">
-        <v>1759.1275</v>
+        <v>90.476</v>
       </c>
       <c r="G85" t="n">
-        <v>8.9303680598408e-07</v>
+        <v>13.02415179579739</v>
       </c>
       <c r="H85" t="n">
-        <v>173.9074063032046</v>
+        <v>3.845494766607694</v>
       </c>
       <c r="I85" t="n">
-        <v>-1597.75998795</v>
+        <v>517.53</v>
       </c>
       <c r="J85" t="n">
-        <v>-1759.127487591</v>
+        <v>531.1180000000001</v>
       </c>
       <c r="K85" t="n">
-        <v>173.907405505891</v>
+        <v>10.21058617318071</v>
       </c>
       <c r="L85" t="n">
-        <v>0.9278932036941553</v>
+        <v>-1.330775703719199</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
@@ -4118,40 +4118,40 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45761</v>
+        <v>45746</v>
       </c>
       <c r="B86" t="b">
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>1.2e-05</v>
+        <v>602.2</v>
       </c>
       <c r="D86" t="n">
-        <v>1623.77</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="E86" t="n">
-        <v>1.2317e-05</v>
+        <v>616.0699999999999</v>
       </c>
       <c r="F86" t="n">
-        <v>1737.0085</v>
+        <v>88.824</v>
       </c>
       <c r="G86" t="n">
-        <v>8.304412270468578e-07</v>
+        <v>14.44300349650211</v>
       </c>
       <c r="H86" t="n">
-        <v>160.4116033759224</v>
+        <v>3.520288340464106</v>
       </c>
       <c r="I86" t="n">
-        <v>-1623.769988</v>
+        <v>516.1</v>
       </c>
       <c r="J86" t="n">
-        <v>-1737.008487683</v>
+        <v>527.246</v>
       </c>
       <c r="K86" t="n">
-        <v>160.4116026508703</v>
+        <v>11.71270378691212</v>
       </c>
       <c r="L86" t="n">
-        <v>0.705924620237472</v>
+        <v>-0.9516163136008439</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
@@ -4161,40 +4161,40 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45762</v>
+        <v>45747</v>
       </c>
       <c r="B87" t="b">
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>1.167e-05</v>
+        <v>604.8099999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>1588.78</v>
+        <v>82.97</v>
       </c>
       <c r="E87" t="n">
-        <v>1.219e-05</v>
+        <v>613.434</v>
       </c>
       <c r="F87" t="n">
-        <v>1715.9715</v>
+        <v>86.934</v>
       </c>
       <c r="G87" t="n">
-        <v>7.1139595903158e-07</v>
+        <v>15.18848346609932</v>
       </c>
       <c r="H87" t="n">
-        <v>150.046278940699</v>
+        <v>3.641679557567896</v>
       </c>
       <c r="I87" t="n">
-        <v>-1588.77998833</v>
+        <v>521.8399999999999</v>
       </c>
       <c r="J87" t="n">
-        <v>-1715.97148781</v>
+        <v>526.5</v>
       </c>
       <c r="K87" t="n">
-        <v>150.046278331612</v>
+        <v>11.96226358177853</v>
       </c>
       <c r="L87" t="n">
-        <v>0.8476818012033493</v>
+        <v>-0.3895583781566565</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
@@ -4204,40 +4204,40 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45763</v>
+        <v>45748</v>
       </c>
       <c r="B88" t="b">
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>1.183e-05</v>
+        <v>611.13</v>
       </c>
       <c r="D88" t="n">
-        <v>1577.14</v>
+        <v>84.48</v>
       </c>
       <c r="E88" t="n">
-        <v>1.20805e-05</v>
+        <v>608.1879999999999</v>
       </c>
       <c r="F88" t="n">
-        <v>1694.6455</v>
+        <v>85.27200000000001</v>
       </c>
       <c r="G88" t="n">
-        <v>5.692328632745356e-07</v>
+        <v>7.382622840154576</v>
       </c>
       <c r="H88" t="n">
-        <v>136.7243437868694</v>
+        <v>1.655708307646072</v>
       </c>
       <c r="I88" t="n">
-        <v>-1577.13998817</v>
+        <v>526.65</v>
       </c>
       <c r="J88" t="n">
-        <v>-1694.6454879195</v>
+        <v>522.9159999999999</v>
       </c>
       <c r="K88" t="n">
-        <v>136.7243433198375</v>
+        <v>6.738978409220516</v>
       </c>
       <c r="L88" t="n">
-        <v>0.8594336377584263</v>
+        <v>0.5540899188653049</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
@@ -4247,40 +4247,40 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45764</v>
+        <v>45749</v>
       </c>
       <c r="B89" t="b">
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>1.18e-05</v>
+        <v>590.6799999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>1583.62</v>
+        <v>81.54000000000001</v>
       </c>
       <c r="E89" t="n">
-        <v>1.20085e-05</v>
+        <v>602.362</v>
       </c>
       <c r="F89" t="n">
-        <v>1678.9815</v>
+        <v>84.11</v>
       </c>
       <c r="G89" t="n">
-        <v>5.019464743954706e-07</v>
+        <v>7.412156906054586</v>
       </c>
       <c r="H89" t="n">
-        <v>130.1193659390144</v>
+        <v>1.859032006181832</v>
       </c>
       <c r="I89" t="n">
-        <v>-1583.6199882</v>
+        <v>509.1399999999999</v>
       </c>
       <c r="J89" t="n">
-        <v>-1678.9814879915</v>
+        <v>518.252</v>
       </c>
       <c r="K89" t="n">
-        <v>130.1193655396604</v>
+        <v>6.549448068344027</v>
       </c>
       <c r="L89" t="n">
-        <v>0.7328770732626569</v>
+        <v>-1.391262272013696</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
@@ -4290,40 +4290,40 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45765</v>
+        <v>45750</v>
       </c>
       <c r="B90" t="b">
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>1.229e-05</v>
+        <v>592.67</v>
       </c>
       <c r="D90" t="n">
-        <v>1588.6</v>
+        <v>83.45</v>
       </c>
       <c r="E90" t="n">
-        <v>1.1989e-05</v>
+        <v>600.298</v>
       </c>
       <c r="F90" t="n">
-        <v>1667.0075</v>
+        <v>83.708</v>
       </c>
       <c r="G90" t="n">
-        <v>4.816517632613628e-07</v>
+        <v>8.544007841755088</v>
       </c>
       <c r="H90" t="n">
-        <v>126.649299824576</v>
+        <v>1.705071845996097</v>
       </c>
       <c r="I90" t="n">
-        <v>-1588.59998771</v>
+        <v>509.22</v>
       </c>
       <c r="J90" t="n">
-        <v>-1667.007488011</v>
+        <v>516.5899999999999</v>
       </c>
       <c r="K90" t="n">
-        <v>126.6492994684007</v>
+        <v>7.72699165263776</v>
       </c>
       <c r="L90" t="n">
-        <v>0.6190914646200855</v>
+        <v>-0.9537993997293959</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
@@ -4333,44 +4333,4645 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B91" t="b">
+        <v>0</v>
+      </c>
+      <c r="C91" t="n">
+        <v>597.71</v>
+      </c>
+      <c r="D91" t="n">
+        <v>84.41</v>
+      </c>
+      <c r="E91" t="n">
+        <v>599.4</v>
+      </c>
+      <c r="F91" t="n">
+        <v>83.37</v>
+      </c>
+      <c r="G91" t="n">
+        <v>8.530070339684903</v>
+      </c>
+      <c r="H91" t="n">
+        <v>1.20716610290739</v>
+      </c>
+      <c r="I91" t="n">
+        <v>513.3000000000001</v>
+      </c>
+      <c r="J91" t="n">
+        <v>516.03</v>
+      </c>
+      <c r="K91" t="n">
+        <v>7.871492869839421</v>
+      </c>
+      <c r="L91" t="n">
+        <v>-0.3468211234059845</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>45752</v>
+      </c>
+      <c r="B92" t="b">
+        <v>0</v>
+      </c>
+      <c r="C92" t="n">
+        <v>593.13</v>
+      </c>
+      <c r="D92" t="n">
+        <v>82.67</v>
+      </c>
+      <c r="E92" t="n">
+        <v>597.064</v>
+      </c>
+      <c r="F92" t="n">
+        <v>83.31</v>
+      </c>
+      <c r="G92" t="n">
+        <v>8.273583262406428</v>
+      </c>
+      <c r="H92" t="n">
+        <v>1.239052057021264</v>
+      </c>
+      <c r="I92" t="n">
+        <v>510.46</v>
+      </c>
+      <c r="J92" t="n">
+        <v>513.754</v>
+      </c>
+      <c r="K92" t="n">
+        <v>7.402862959688671</v>
+      </c>
+      <c r="L92" t="n">
+        <v>-0.4449629849879822</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>45753</v>
+      </c>
+      <c r="B93" t="b">
+        <v>0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>555.54</v>
+      </c>
+      <c r="D93" t="n">
+        <v>70.62</v>
+      </c>
+      <c r="E93" t="n">
+        <v>585.9459999999999</v>
+      </c>
+      <c r="F93" t="n">
+        <v>80.538</v>
+      </c>
+      <c r="G93" t="n">
+        <v>17.19119920191638</v>
+      </c>
+      <c r="H93" t="n">
+        <v>5.643320830859181</v>
+      </c>
+      <c r="I93" t="n">
+        <v>484.92</v>
+      </c>
+      <c r="J93" t="n">
+        <v>505.408</v>
+      </c>
+      <c r="K93" t="n">
+        <v>11.57609260501669</v>
+      </c>
+      <c r="L93" t="n">
+        <v>-1.769854535469183</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>compra_1_vende_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B94" t="b">
+        <v>1</v>
+      </c>
+      <c r="C94" t="n">
+        <v>554.6</v>
+      </c>
+      <c r="D94" t="n">
+        <v>70.98999999999999</v>
+      </c>
+      <c r="E94" t="n">
+        <v>578.7299999999999</v>
+      </c>
+      <c r="F94" t="n">
+        <v>78.428</v>
+      </c>
+      <c r="G94" t="n">
+        <v>21.69076416357821</v>
+      </c>
+      <c r="H94" t="n">
+        <v>6.987275577792078</v>
+      </c>
+      <c r="I94" t="n">
+        <v>483.61</v>
+      </c>
+      <c r="J94" t="n">
+        <v>500.302</v>
+      </c>
+      <c r="K94" t="n">
+        <v>14.7215189433671</v>
+      </c>
+      <c r="L94" t="n">
+        <v>-1.133850390317279</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>compra_1_vende_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="B95" t="b">
+        <v>0</v>
+      </c>
+      <c r="C95" t="n">
+        <v>553.72</v>
+      </c>
+      <c r="D95" t="n">
+        <v>69.15000000000001</v>
+      </c>
+      <c r="E95" t="n">
+        <v>570.9399999999999</v>
+      </c>
+      <c r="F95" t="n">
+        <v>75.56800000000001</v>
+      </c>
+      <c r="G95" t="n">
+        <v>22.41491133152142</v>
+      </c>
+      <c r="H95" t="n">
+        <v>7.335715370705857</v>
+      </c>
+      <c r="I95" t="n">
+        <v>484.5700000000001</v>
+      </c>
+      <c r="J95" t="n">
+        <v>495.372</v>
+      </c>
+      <c r="K95" t="n">
+        <v>15.11070051320955</v>
+      </c>
+      <c r="L95" t="n">
+        <v>-0.7148576593492153</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>compra_1_vende_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>45756</v>
+      </c>
+      <c r="B96" t="b">
+        <v>0</v>
+      </c>
+      <c r="C96" t="n">
+        <v>582.3200000000001</v>
+      </c>
+      <c r="D96" t="n">
+        <v>76.03</v>
+      </c>
+      <c r="E96" t="n">
+        <v>567.862</v>
+      </c>
+      <c r="F96" t="n">
+        <v>73.89200000000001</v>
+      </c>
+      <c r="G96" t="n">
+        <v>18.54193948862865</v>
+      </c>
+      <c r="H96" t="n">
+        <v>5.550641404379365</v>
+      </c>
+      <c r="I96" t="n">
+        <v>506.2900000000001</v>
+      </c>
+      <c r="J96" t="n">
+        <v>493.97</v>
+      </c>
+      <c r="K96" t="n">
+        <v>13.24098372478079</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0.9304444636498538</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>compra_1_vende_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>45757</v>
+      </c>
+      <c r="B97" t="b">
+        <v>0</v>
+      </c>
+      <c r="C97" t="n">
+        <v>578.03</v>
+      </c>
+      <c r="D97" t="n">
+        <v>73.81</v>
+      </c>
+      <c r="E97" t="n">
+        <v>564.842</v>
+      </c>
+      <c r="F97" t="n">
+        <v>72.12</v>
+      </c>
+      <c r="G97" t="n">
+        <v>14.0936907870141</v>
+      </c>
+      <c r="H97" t="n">
+        <v>2.76097808756442</v>
+      </c>
+      <c r="I97" t="n">
+        <v>504.22</v>
+      </c>
+      <c r="J97" t="n">
+        <v>492.722</v>
+      </c>
+      <c r="K97" t="n">
+        <v>11.47442242554756</v>
+      </c>
+      <c r="L97" t="n">
+        <v>1.002054794008619</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>compra_1_vende_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>45758</v>
+      </c>
+      <c r="B98" t="b">
+        <v>0</v>
+      </c>
+      <c r="C98" t="n">
+        <v>585.9299999999999</v>
+      </c>
+      <c r="D98" t="n">
+        <v>76.19</v>
+      </c>
+      <c r="E98" t="n">
+        <v>570.9200000000001</v>
+      </c>
+      <c r="F98" t="n">
+        <v>73.23400000000001</v>
+      </c>
+      <c r="G98" t="n">
+        <v>15.55630579539904</v>
+      </c>
+      <c r="H98" t="n">
+        <v>3.106522171176414</v>
+      </c>
+      <c r="I98" t="n">
+        <v>509.74</v>
+      </c>
+      <c r="J98" t="n">
+        <v>497.686</v>
+      </c>
+      <c r="K98" t="n">
+        <v>12.57163593172795</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0.9588250936839824</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>compra_1_vende_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>45759</v>
+      </c>
+      <c r="B99" t="b">
+        <v>1</v>
+      </c>
+      <c r="C99" t="n">
+        <v>597.29</v>
+      </c>
+      <c r="D99" t="n">
+        <v>78.62</v>
+      </c>
+      <c r="E99" t="n">
+        <v>579.458</v>
+      </c>
+      <c r="F99" t="n">
+        <v>74.76000000000001</v>
+      </c>
+      <c r="G99" t="n">
+        <v>16.06659484769457</v>
+      </c>
+      <c r="H99" t="n">
+        <v>3.568332944108534</v>
+      </c>
+      <c r="I99" t="n">
+        <v>518.67</v>
+      </c>
+      <c r="J99" t="n">
+        <v>504.698</v>
+      </c>
+      <c r="K99" t="n">
+        <v>12.53532887482097</v>
+      </c>
+      <c r="L99" t="n">
+        <v>1.114609767284588</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>compra_1_vende_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>45760</v>
+      </c>
+      <c r="B100" t="b">
+        <v>0</v>
+      </c>
+      <c r="C100" t="n">
+        <v>584.28</v>
+      </c>
+      <c r="D100" t="n">
+        <v>77.84999999999999</v>
+      </c>
+      <c r="E100" t="n">
+        <v>585.5699999999999</v>
+      </c>
+      <c r="F100" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="G100" t="n">
+        <v>7.18620553560549</v>
+      </c>
+      <c r="H100" t="n">
+        <v>1.862122444956268</v>
+      </c>
+      <c r="I100" t="n">
+        <v>506.4299999999999</v>
+      </c>
+      <c r="J100" t="n">
+        <v>509.07</v>
+      </c>
+      <c r="K100" t="n">
+        <v>5.7190340093346</v>
+      </c>
+      <c r="L100" t="n">
+        <v>-0.4616164190824951</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>compra_1_vende_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45761</v>
+      </c>
+      <c r="B101" t="b">
+        <v>0</v>
+      </c>
+      <c r="C101" t="n">
+        <v>584.54</v>
+      </c>
+      <c r="D101" t="n">
+        <v>77.18000000000001</v>
+      </c>
+      <c r="E101" t="n">
+        <v>586.0139999999999</v>
+      </c>
+      <c r="F101" t="n">
+        <v>76.72999999999999</v>
+      </c>
+      <c r="G101" t="n">
+        <v>7.001409143877192</v>
+      </c>
+      <c r="H101" t="n">
+        <v>1.860577867225627</v>
+      </c>
+      <c r="I101" t="n">
+        <v>507.36</v>
+      </c>
+      <c r="J101" t="n">
+        <v>509.2839999999999</v>
+      </c>
+      <c r="K101" t="n">
+        <v>5.607943473317667</v>
+      </c>
+      <c r="L101" t="n">
+        <v>-0.3430847705855596</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>compra_1_vende_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45762</v>
+      </c>
+      <c r="B102" t="b">
+        <v>0</v>
+      </c>
+      <c r="C102" t="n">
+        <v>579.52</v>
+      </c>
+      <c r="D102" t="n">
+        <v>75.27</v>
+      </c>
+      <c r="E102" t="n">
+        <v>586.312</v>
+      </c>
+      <c r="F102" t="n">
+        <v>77.02200000000001</v>
+      </c>
+      <c r="G102" t="n">
+        <v>6.596640811804685</v>
+      </c>
+      <c r="H102" t="n">
+        <v>1.325318829568872</v>
+      </c>
+      <c r="I102" t="n">
+        <v>504.25</v>
+      </c>
+      <c r="J102" t="n">
+        <v>509.29</v>
+      </c>
+      <c r="K102" t="n">
+        <v>5.601182910772168</v>
+      </c>
+      <c r="L102" t="n">
+        <v>-0.8998099294895475</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>compra_1_vende_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45763</v>
+      </c>
+      <c r="B103" t="b">
+        <v>0</v>
+      </c>
+      <c r="C103" t="n">
+        <v>582.8</v>
+      </c>
+      <c r="D103" t="n">
+        <v>74.33</v>
+      </c>
+      <c r="E103" t="n">
+        <v>585.686</v>
+      </c>
+      <c r="F103" t="n">
+        <v>76.65000000000001</v>
+      </c>
+      <c r="G103" t="n">
+        <v>6.787700641599269</v>
+      </c>
+      <c r="H103" t="n">
+        <v>1.795034818606562</v>
+      </c>
+      <c r="I103" t="n">
+        <v>508.47</v>
+      </c>
+      <c r="J103" t="n">
+        <v>509.0359999999999</v>
+      </c>
+      <c r="K103" t="n">
+        <v>5.604469644839368</v>
+      </c>
+      <c r="L103" t="n">
+        <v>-0.1009908226590451</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45764</v>
+      </c>
+      <c r="B104" t="b">
+        <v>0</v>
+      </c>
+      <c r="C104" t="n">
+        <v>590.49</v>
+      </c>
+      <c r="D104" t="n">
+        <v>74.95</v>
+      </c>
+      <c r="E104" t="n">
+        <v>584.326</v>
+      </c>
+      <c r="F104" t="n">
+        <v>75.916</v>
+      </c>
+      <c r="G104" t="n">
+        <v>3.983375453050727</v>
+      </c>
+      <c r="H104" t="n">
+        <v>1.516898150836125</v>
+      </c>
+      <c r="I104" t="n">
+        <v>515.54</v>
+      </c>
+      <c r="J104" t="n">
+        <v>508.41</v>
+      </c>
+      <c r="K104" t="n">
+        <v>4.276944002430398</v>
+      </c>
+      <c r="L104" t="n">
+        <v>1.66707817449757</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>vende_1_compra_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45765</v>
+      </c>
+      <c r="B105" t="b">
+        <v>0</v>
+      </c>
+      <c r="C105" t="n">
+        <v>591.71</v>
+      </c>
+      <c r="D105" t="n">
+        <v>76</v>
+      </c>
+      <c r="E105" t="n">
+        <v>585.812</v>
+      </c>
+      <c r="F105" t="n">
+        <v>75.54600000000001</v>
+      </c>
+      <c r="G105" t="n">
+        <v>5.170819084049218</v>
+      </c>
+      <c r="H105" t="n">
+        <v>1.093860137316535</v>
+      </c>
+      <c r="I105" t="n">
+        <v>515.71</v>
+      </c>
+      <c r="J105" t="n">
+        <v>510.266</v>
+      </c>
+      <c r="K105" t="n">
+        <v>5.131152891887714</v>
+      </c>
+      <c r="L105" t="n">
+        <v>1.060970139597081</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>vende_1_compra_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
         <v>45766</v>
       </c>
-      <c r="B91" t="b">
-        <v>0</v>
-      </c>
-      <c r="C91" t="n">
-        <v>1.234e-05</v>
-      </c>
-      <c r="D91" t="n">
-        <v>1613.27</v>
-      </c>
-      <c r="E91" t="n">
-        <v>1.19835e-05</v>
-      </c>
-      <c r="F91" t="n">
-        <v>1657.284</v>
-      </c>
-      <c r="G91" t="n">
-        <v>4.767132537657601e-07</v>
-      </c>
-      <c r="H91" t="n">
-        <v>122.6788728604829</v>
-      </c>
-      <c r="I91" t="n">
-        <v>-1613.26998766</v>
-      </c>
-      <c r="J91" t="n">
-        <v>-1657.2839880165</v>
-      </c>
-      <c r="K91" t="n">
-        <v>122.6788725291651</v>
-      </c>
-      <c r="L91" t="n">
-        <v>0.3587740859456979</v>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>neutro</t>
+      <c r="B106" t="b">
+        <v>0</v>
+      </c>
+      <c r="C106" t="n">
+        <v>591.73</v>
+      </c>
+      <c r="D106" t="n">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="E106" t="n">
+        <v>587.25</v>
+      </c>
+      <c r="F106" t="n">
+        <v>75.33</v>
+      </c>
+      <c r="G106" t="n">
+        <v>5.701206012763263</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.7398986417139777</v>
+      </c>
+      <c r="I106" t="n">
+        <v>515.63</v>
+      </c>
+      <c r="J106" t="n">
+        <v>511.92</v>
+      </c>
+      <c r="K106" t="n">
+        <v>5.290652133709947</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0.7012368052628865</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>vende_1_compra_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45767</v>
+      </c>
+      <c r="B107" t="b">
+        <v>0</v>
+      </c>
+      <c r="C107" t="n">
+        <v>592.77</v>
+      </c>
+      <c r="D107" t="n">
+        <v>77.79000000000001</v>
+      </c>
+      <c r="E107" t="n">
+        <v>589.9</v>
+      </c>
+      <c r="F107" t="n">
+        <v>75.83399999999999</v>
+      </c>
+      <c r="G107" t="n">
+        <v>4.050308630211847</v>
+      </c>
+      <c r="H107" t="n">
+        <v>1.319821957693562</v>
+      </c>
+      <c r="I107" t="n">
+        <v>514.98</v>
+      </c>
+      <c r="J107" t="n">
+        <v>514.066</v>
+      </c>
+      <c r="K107" t="n">
+        <v>3.141342069869533</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0.290958443770483</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B108" t="b">
+        <v>0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>597.34</v>
+      </c>
+      <c r="D108" t="n">
+        <v>78.15000000000001</v>
+      </c>
+      <c r="E108" t="n">
+        <v>592.808</v>
+      </c>
+      <c r="F108" t="n">
+        <v>76.598</v>
+      </c>
+      <c r="G108" t="n">
+        <v>2.659007333568187</v>
+      </c>
+      <c r="H108" t="n">
+        <v>1.337075166177983</v>
+      </c>
+      <c r="I108" t="n">
+        <v>519.1900000000001</v>
+      </c>
+      <c r="J108" t="n">
+        <v>516.21</v>
+      </c>
+      <c r="K108" t="n">
+        <v>1.690310622321969</v>
+      </c>
+      <c r="L108" t="n">
+        <v>1.762989571648323</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>vende_1_compra_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B109" t="b">
+        <v>0</v>
+      </c>
+      <c r="C109" t="n">
+        <v>618.51</v>
+      </c>
+      <c r="D109" t="n">
+        <v>83.48999999999999</v>
+      </c>
+      <c r="E109" t="n">
+        <v>598.412</v>
+      </c>
+      <c r="F109" t="n">
+        <v>78.30600000000001</v>
+      </c>
+      <c r="G109" t="n">
+        <v>11.47254200253682</v>
+      </c>
+      <c r="H109" t="n">
+        <v>3.055671775569074</v>
+      </c>
+      <c r="I109" t="n">
+        <v>535.02</v>
+      </c>
+      <c r="J109" t="n">
+        <v>520.106</v>
+      </c>
+      <c r="K109" t="n">
+        <v>8.498554582982836</v>
+      </c>
+      <c r="L109" t="n">
+        <v>1.754886652121195</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>vende_1_compra_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B110" t="b">
+        <v>0</v>
+      </c>
+      <c r="C110" t="n">
+        <v>605.71</v>
+      </c>
+      <c r="D110" t="n">
+        <v>83.28</v>
+      </c>
+      <c r="E110" t="n">
+        <v>601.212</v>
+      </c>
+      <c r="F110" t="n">
+        <v>79.762</v>
+      </c>
+      <c r="G110" t="n">
+        <v>11.13127216449105</v>
+      </c>
+      <c r="H110" t="n">
+        <v>3.397494665192148</v>
+      </c>
+      <c r="I110" t="n">
+        <v>522.4300000000001</v>
+      </c>
+      <c r="J110" t="n">
+        <v>521.45</v>
+      </c>
+      <c r="K110" t="n">
+        <v>8.153928501031888</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0.1201874654500586</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B111" t="b">
+        <v>0</v>
+      </c>
+      <c r="C111" t="n">
+        <v>601.55</v>
+      </c>
+      <c r="D111" t="n">
+        <v>84.29000000000001</v>
+      </c>
+      <c r="E111" t="n">
+        <v>603.176</v>
+      </c>
+      <c r="F111" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="G111" t="n">
+        <v>9.830314338818191</v>
+      </c>
+      <c r="H111" t="n">
+        <v>3.156311138023102</v>
+      </c>
+      <c r="I111" t="n">
+        <v>517.26</v>
+      </c>
+      <c r="J111" t="n">
+        <v>521.7760000000001</v>
+      </c>
+      <c r="K111" t="n">
+        <v>7.891427627491778</v>
+      </c>
+      <c r="L111" t="n">
+        <v>-0.5722665420218075</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>45772</v>
+      </c>
+      <c r="B112" t="b">
+        <v>0</v>
+      </c>
+      <c r="C112" t="n">
+        <v>599.91</v>
+      </c>
+      <c r="D112" t="n">
+        <v>86.28</v>
+      </c>
+      <c r="E112" t="n">
+        <v>604.604</v>
+      </c>
+      <c r="F112" t="n">
+        <v>83.098</v>
+      </c>
+      <c r="G112" t="n">
+        <v>8.34754934097278</v>
+      </c>
+      <c r="H112" t="n">
+        <v>3.008964938314882</v>
+      </c>
+      <c r="I112" t="n">
+        <v>513.63</v>
+      </c>
+      <c r="J112" t="n">
+        <v>521.5060000000001</v>
+      </c>
+      <c r="K112" t="n">
+        <v>8.199172519220467</v>
+      </c>
+      <c r="L112" t="n">
+        <v>-0.96058473968406</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45773</v>
+      </c>
+      <c r="B113" t="b">
+        <v>0</v>
+      </c>
+      <c r="C113" t="n">
+        <v>607.23</v>
+      </c>
+      <c r="D113" t="n">
+        <v>87.06</v>
+      </c>
+      <c r="E113" t="n">
+        <v>606.582</v>
+      </c>
+      <c r="F113" t="n">
+        <v>84.88</v>
+      </c>
+      <c r="G113" t="n">
+        <v>7.302295529487713</v>
+      </c>
+      <c r="H113" t="n">
+        <v>1.699455795249722</v>
+      </c>
+      <c r="I113" t="n">
+        <v>520.1700000000001</v>
+      </c>
+      <c r="J113" t="n">
+        <v>521.702</v>
+      </c>
+      <c r="K113" t="n">
+        <v>8.141478366976134</v>
+      </c>
+      <c r="L113" t="n">
+        <v>-0.1881722128273532</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>45774</v>
+      </c>
+      <c r="B114" t="b">
+        <v>0</v>
+      </c>
+      <c r="C114" t="n">
+        <v>603.46</v>
+      </c>
+      <c r="D114" t="n">
+        <v>85.39</v>
+      </c>
+      <c r="E114" t="n">
+        <v>603.572</v>
+      </c>
+      <c r="F114" t="n">
+        <v>85.26000000000001</v>
+      </c>
+      <c r="G114" t="n">
+        <v>2.977552686347374</v>
+      </c>
+      <c r="H114" t="n">
+        <v>1.513158947370623</v>
+      </c>
+      <c r="I114" t="n">
+        <v>518.0700000000001</v>
+      </c>
+      <c r="J114" t="n">
+        <v>518.3120000000001</v>
+      </c>
+      <c r="K114" t="n">
+        <v>3.297593061603697</v>
+      </c>
+      <c r="L114" t="n">
+        <v>-0.07338685989422393</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B115" t="b">
+        <v>0</v>
+      </c>
+      <c r="C115" t="n">
+        <v>606.16</v>
+      </c>
+      <c r="D115" t="n">
+        <v>85.67</v>
+      </c>
+      <c r="E115" t="n">
+        <v>603.662</v>
+      </c>
+      <c r="F115" t="n">
+        <v>85.73800000000001</v>
+      </c>
+      <c r="G115" t="n">
+        <v>3.063881525120463</v>
+      </c>
+      <c r="H115" t="n">
+        <v>1.032458231604391</v>
+      </c>
+      <c r="I115" t="n">
+        <v>520.49</v>
+      </c>
+      <c r="J115" t="n">
+        <v>517.924</v>
+      </c>
+      <c r="K115" t="n">
+        <v>2.76267623871063</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0.9288095231881425</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B116" t="b">
+        <v>0</v>
+      </c>
+      <c r="C116" t="n">
+        <v>601</v>
+      </c>
+      <c r="D116" t="n">
+        <v>85.56999999999999</v>
+      </c>
+      <c r="E116" t="n">
+        <v>603.5519999999999</v>
+      </c>
+      <c r="F116" t="n">
+        <v>85.994</v>
+      </c>
+      <c r="G116" t="n">
+        <v>3.166807540722098</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.6833227641514795</v>
+      </c>
+      <c r="I116" t="n">
+        <v>515.4300000000001</v>
+      </c>
+      <c r="J116" t="n">
+        <v>517.558</v>
+      </c>
+      <c r="K116" t="n">
+        <v>2.984915409175916</v>
+      </c>
+      <c r="L116" t="n">
+        <v>-0.7129180255689166</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B117" t="b">
+        <v>0</v>
+      </c>
+      <c r="C117" t="n">
+        <v>599.88</v>
+      </c>
+      <c r="D117" t="n">
+        <v>83.51000000000001</v>
+      </c>
+      <c r="E117" t="n">
+        <v>603.546</v>
+      </c>
+      <c r="F117" t="n">
+        <v>85.44000000000001</v>
+      </c>
+      <c r="G117" t="n">
+        <v>3.175449574465687</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1.267043803507884</v>
+      </c>
+      <c r="I117" t="n">
+        <v>516.37</v>
+      </c>
+      <c r="J117" t="n">
+        <v>518.106</v>
+      </c>
+      <c r="K117" t="n">
+        <v>2.24273939634913</v>
+      </c>
+      <c r="L117" t="n">
+        <v>-0.7740533754505575</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B118" t="b">
+        <v>0</v>
+      </c>
+      <c r="C118" t="n">
+        <v>599.63</v>
+      </c>
+      <c r="D118" t="n">
+        <v>88.84999999999999</v>
+      </c>
+      <c r="E118" t="n">
+        <v>602.0260000000001</v>
+      </c>
+      <c r="F118" t="n">
+        <v>85.79799999999999</v>
+      </c>
+      <c r="G118" t="n">
+        <v>2.763381985895765</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1.922529583649529</v>
+      </c>
+      <c r="I118" t="n">
+        <v>510.78</v>
+      </c>
+      <c r="J118" t="n">
+        <v>516.228</v>
+      </c>
+      <c r="K118" t="n">
+        <v>3.601918933004252</v>
+      </c>
+      <c r="L118" t="n">
+        <v>-1.512527100507497</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>compra_1_vende_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B119" t="b">
+        <v>0</v>
+      </c>
+      <c r="C119" t="n">
+        <v>600.6900000000001</v>
+      </c>
+      <c r="D119" t="n">
+        <v>87.97</v>
+      </c>
+      <c r="E119" t="n">
+        <v>601.472</v>
+      </c>
+      <c r="F119" t="n">
+        <v>86.31399999999999</v>
+      </c>
+      <c r="G119" t="n">
+        <v>2.680442127704459</v>
+      </c>
+      <c r="H119" t="n">
+        <v>2.121574886730969</v>
+      </c>
+      <c r="I119" t="n">
+        <v>512.72</v>
+      </c>
+      <c r="J119" t="n">
+        <v>515.158</v>
+      </c>
+      <c r="K119" t="n">
+        <v>3.710925760498757</v>
+      </c>
+      <c r="L119" t="n">
+        <v>-0.6569789204493046</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>compra_1_vende_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45780</v>
+      </c>
+      <c r="B120" t="b">
+        <v>1</v>
+      </c>
+      <c r="C120" t="n">
+        <v>599.36</v>
+      </c>
+      <c r="D120" t="n">
+        <v>86.55</v>
+      </c>
+      <c r="E120" t="n">
+        <v>600.1120000000001</v>
+      </c>
+      <c r="F120" t="n">
+        <v>86.48999999999998</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.7025453721803966</v>
+      </c>
+      <c r="H120" t="n">
+        <v>2.09107627790272</v>
+      </c>
+      <c r="I120" t="n">
+        <v>512.8100000000001</v>
+      </c>
+      <c r="J120" t="n">
+        <v>513.6220000000001</v>
+      </c>
+      <c r="K120" t="n">
+        <v>2.256672328879759</v>
+      </c>
+      <c r="L120" t="n">
+        <v>-0.359821844584366</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>compra_1_vende_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>45781</v>
+      </c>
+      <c r="B121" t="b">
+        <v>1</v>
+      </c>
+      <c r="C121" t="n">
+        <v>586.03</v>
+      </c>
+      <c r="D121" t="n">
+        <v>85.05</v>
+      </c>
+      <c r="E121" t="n">
+        <v>597.1180000000001</v>
+      </c>
+      <c r="F121" t="n">
+        <v>86.386</v>
+      </c>
+      <c r="G121" t="n">
+        <v>6.218285133376414</v>
+      </c>
+      <c r="H121" t="n">
+        <v>2.160064813844139</v>
+      </c>
+      <c r="I121" t="n">
+        <v>500.98</v>
+      </c>
+      <c r="J121" t="n">
+        <v>510.7320000000001</v>
+      </c>
+      <c r="K121" t="n">
+        <v>5.812939875822628</v>
+      </c>
+      <c r="L121" t="n">
+        <v>-1.677636481423275</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>compra_1_vende_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B122" t="b">
+        <v>0</v>
+      </c>
+      <c r="C122" t="n">
+        <v>597.61</v>
+      </c>
+      <c r="D122" t="n">
+        <v>83.25</v>
+      </c>
+      <c r="E122" t="n">
+        <v>596.664</v>
+      </c>
+      <c r="F122" t="n">
+        <v>86.33399999999999</v>
+      </c>
+      <c r="G122" t="n">
+        <v>6.046716464327545</v>
+      </c>
+      <c r="H122" t="n">
+        <v>2.247950177385509</v>
+      </c>
+      <c r="I122" t="n">
+        <v>514.36</v>
+      </c>
+      <c r="J122" t="n">
+        <v>510.3299999999999</v>
+      </c>
+      <c r="K122" t="n">
+        <v>5.378856755847693</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0.7492298424974453</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>compra_1_vende_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B123" t="b">
+        <v>0</v>
+      </c>
+      <c r="C123" t="n">
+        <v>602.5700000000001</v>
+      </c>
+      <c r="D123" t="n">
+        <v>91.59999999999999</v>
+      </c>
+      <c r="E123" t="n">
+        <v>597.2520000000001</v>
+      </c>
+      <c r="F123" t="n">
+        <v>86.884</v>
+      </c>
+      <c r="G123" t="n">
+        <v>6.530813119357374</v>
+      </c>
+      <c r="H123" t="n">
+        <v>3.166272256140873</v>
+      </c>
+      <c r="I123" t="n">
+        <v>510.97</v>
+      </c>
+      <c r="J123" t="n">
+        <v>510.3680000000001</v>
+      </c>
+      <c r="K123" t="n">
+        <v>5.383499791021489</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0.1118231677103398</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="B124" t="b">
+        <v>0</v>
+      </c>
+      <c r="C124" t="n">
+        <v>602.7</v>
+      </c>
+      <c r="D124" t="n">
+        <v>89.53</v>
+      </c>
+      <c r="E124" t="n">
+        <v>597.654</v>
+      </c>
+      <c r="F124" t="n">
+        <v>87.196</v>
+      </c>
+      <c r="G124" t="n">
+        <v>6.849432823232198</v>
+      </c>
+      <c r="H124" t="n">
+        <v>3.370323426617593</v>
+      </c>
+      <c r="I124" t="n">
+        <v>513.1700000000001</v>
+      </c>
+      <c r="J124" t="n">
+        <v>510.458</v>
+      </c>
+      <c r="K124" t="n">
+        <v>5.436153971322791</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0.4988821167146202</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>45785</v>
+      </c>
+      <c r="B125" t="b">
+        <v>1</v>
+      </c>
+      <c r="C125" t="n">
+        <v>629.17</v>
+      </c>
+      <c r="D125" t="n">
+        <v>94.98999999999999</v>
+      </c>
+      <c r="E125" t="n">
+        <v>603.616</v>
+      </c>
+      <c r="F125" t="n">
+        <v>88.88399999999999</v>
+      </c>
+      <c r="G125" t="n">
+        <v>15.81359794607076</v>
+      </c>
+      <c r="H125" t="n">
+        <v>4.783270847443931</v>
+      </c>
+      <c r="I125" t="n">
+        <v>534.1799999999999</v>
+      </c>
+      <c r="J125" t="n">
+        <v>514.732</v>
+      </c>
+      <c r="K125" t="n">
+        <v>12.08380196792102</v>
+      </c>
+      <c r="L125" t="n">
+        <v>1.609427235867384</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>vende_1_compra_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>45786</v>
+      </c>
+      <c r="B126" t="b">
+        <v>0</v>
+      </c>
+      <c r="C126" t="n">
+        <v>666.29</v>
+      </c>
+      <c r="D126" t="n">
+        <v>100.52</v>
+      </c>
+      <c r="E126" t="n">
+        <v>619.668</v>
+      </c>
+      <c r="F126" t="n">
+        <v>91.97799999999999</v>
+      </c>
+      <c r="G126" t="n">
+        <v>28.85614700544724</v>
+      </c>
+      <c r="H126" t="n">
+        <v>6.409982059257752</v>
+      </c>
+      <c r="I126" t="n">
+        <v>565.77</v>
+      </c>
+      <c r="J126" t="n">
+        <v>527.6899999999999</v>
+      </c>
+      <c r="K126" t="n">
+        <v>23.2394287795536</v>
+      </c>
+      <c r="L126" t="n">
+        <v>1.638594492197821</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>vende_1_compra_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>45787</v>
+      </c>
+      <c r="B127" t="b">
+        <v>0</v>
+      </c>
+      <c r="C127" t="n">
+        <v>663.9</v>
+      </c>
+      <c r="D127" t="n">
+        <v>105.27</v>
+      </c>
+      <c r="E127" t="n">
+        <v>632.926</v>
+      </c>
+      <c r="F127" t="n">
+        <v>96.38199999999999</v>
+      </c>
+      <c r="G127" t="n">
+        <v>31.31194069360745</v>
+      </c>
+      <c r="H127" t="n">
+        <v>6.478323085490969</v>
+      </c>
+      <c r="I127" t="n">
+        <v>558.63</v>
+      </c>
+      <c r="J127" t="n">
+        <v>536.5440000000001</v>
+      </c>
+      <c r="K127" t="n">
+        <v>25.23842467350039</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0.8750942376839214</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>vende_1_compra_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>45788</v>
+      </c>
+      <c r="B128" t="b">
+        <v>0</v>
+      </c>
+      <c r="C128" t="n">
+        <v>651.15</v>
+      </c>
+      <c r="D128" t="n">
+        <v>100.12</v>
+      </c>
+      <c r="E128" t="n">
+        <v>642.6420000000001</v>
+      </c>
+      <c r="F128" t="n">
+        <v>98.08599999999998</v>
+      </c>
+      <c r="G128" t="n">
+        <v>26.74123538657102</v>
+      </c>
+      <c r="H128" t="n">
+        <v>6.009611468306819</v>
+      </c>
+      <c r="I128" t="n">
+        <v>551.03</v>
+      </c>
+      <c r="J128" t="n">
+        <v>544.5559999999999</v>
+      </c>
+      <c r="K128" t="n">
+        <v>21.11140876398264</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0.3066588342055642</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>vende_1_compra_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>45789</v>
+      </c>
+      <c r="B129" t="b">
+        <v>0</v>
+      </c>
+      <c r="C129" t="n">
+        <v>660.0700000000001</v>
+      </c>
+      <c r="D129" t="n">
+        <v>103.84</v>
+      </c>
+      <c r="E129" t="n">
+        <v>654.116</v>
+      </c>
+      <c r="F129" t="n">
+        <v>100.948</v>
+      </c>
+      <c r="G129" t="n">
+        <v>15.0871064157448</v>
+      </c>
+      <c r="H129" t="n">
+        <v>3.981516042916837</v>
+      </c>
+      <c r="I129" t="n">
+        <v>556.23</v>
+      </c>
+      <c r="J129" t="n">
+        <v>553.168</v>
+      </c>
+      <c r="K129" t="n">
+        <v>11.8652315611611</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0.2580649171671431</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>45790</v>
+      </c>
+      <c r="B130" t="b">
+        <v>1</v>
+      </c>
+      <c r="C130" t="n">
+        <v>664.13</v>
+      </c>
+      <c r="D130" t="n">
+        <v>103.41</v>
+      </c>
+      <c r="E130" t="n">
+        <v>661.1079999999999</v>
+      </c>
+      <c r="F130" t="n">
+        <v>102.632</v>
+      </c>
+      <c r="G130" t="n">
+        <v>6.000418318751949</v>
+      </c>
+      <c r="H130" t="n">
+        <v>2.224538154315126</v>
+      </c>
+      <c r="I130" t="n">
+        <v>560.72</v>
+      </c>
+      <c r="J130" t="n">
+        <v>558.476</v>
+      </c>
+      <c r="K130" t="n">
+        <v>5.448603490801882</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0.4118486514550491</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>45791</v>
+      </c>
+      <c r="B131" t="b">
+        <v>0</v>
+      </c>
+      <c r="C131" t="n">
+        <v>652.47</v>
+      </c>
+      <c r="D131" t="n">
+        <v>100.95</v>
+      </c>
+      <c r="E131" t="n">
+        <v>658.3439999999999</v>
+      </c>
+      <c r="F131" t="n">
+        <v>102.718</v>
+      </c>
+      <c r="G131" t="n">
+        <v>6.196440913944984</v>
+      </c>
+      <c r="H131" t="n">
+        <v>2.128724970493774</v>
+      </c>
+      <c r="I131" t="n">
+        <v>551.52</v>
+      </c>
+      <c r="J131" t="n">
+        <v>555.626</v>
+      </c>
+      <c r="K131" t="n">
+        <v>4.281358429281076</v>
+      </c>
+      <c r="L131" t="n">
+        <v>-0.9590414042230687</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B132" t="b">
+        <v>0</v>
+      </c>
+      <c r="C132" t="n">
+        <v>651.88</v>
+      </c>
+      <c r="D132" t="n">
+        <v>99.26000000000001</v>
+      </c>
+      <c r="E132" t="n">
+        <v>655.9399999999999</v>
+      </c>
+      <c r="F132" t="n">
+        <v>101.516</v>
+      </c>
+      <c r="G132" t="n">
+        <v>5.822405001372625</v>
+      </c>
+      <c r="H132" t="n">
+        <v>2.021566224491295</v>
+      </c>
+      <c r="I132" t="n">
+        <v>552.62</v>
+      </c>
+      <c r="J132" t="n">
+        <v>554.424</v>
+      </c>
+      <c r="K132" t="n">
+        <v>4.065345003806568</v>
+      </c>
+      <c r="L132" t="n">
+        <v>-0.4437507759638619</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="B133" t="b">
+        <v>1</v>
+      </c>
+      <c r="C133" t="n">
+        <v>646.76</v>
+      </c>
+      <c r="D133" t="n">
+        <v>99.48</v>
+      </c>
+      <c r="E133" t="n">
+        <v>655.0620000000001</v>
+      </c>
+      <c r="F133" t="n">
+        <v>101.388</v>
+      </c>
+      <c r="G133" t="n">
+        <v>6.947580154270113</v>
+      </c>
+      <c r="H133" t="n">
+        <v>2.148341220570888</v>
+      </c>
+      <c r="I133" t="n">
+        <v>547.28</v>
+      </c>
+      <c r="J133" t="n">
+        <v>553.6740000000001</v>
+      </c>
+      <c r="K133" t="n">
+        <v>5.069840234166597</v>
+      </c>
+      <c r="L133" t="n">
+        <v>-1.261183726640884</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>45794</v>
+      </c>
+      <c r="B134" t="b">
+        <v>0</v>
+      </c>
+      <c r="C134" t="n">
+        <v>639.51</v>
+      </c>
+      <c r="D134" t="n">
+        <v>96.06</v>
+      </c>
+      <c r="E134" t="n">
+        <v>650.95</v>
+      </c>
+      <c r="F134" t="n">
+        <v>99.83200000000001</v>
+      </c>
+      <c r="G134" t="n">
+        <v>9.018278660587262</v>
+      </c>
+      <c r="H134" t="n">
+        <v>2.68006902896257</v>
+      </c>
+      <c r="I134" t="n">
+        <v>543.45</v>
+      </c>
+      <c r="J134" t="n">
+        <v>551.1180000000001</v>
+      </c>
+      <c r="K134" t="n">
+        <v>6.483526818019009</v>
+      </c>
+      <c r="L134" t="n">
+        <v>-1.182689640257076</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>45795</v>
+      </c>
+      <c r="B135" t="b">
+        <v>1</v>
+      </c>
+      <c r="C135" t="n">
+        <v>651.53</v>
+      </c>
+      <c r="D135" t="n">
+        <v>100.94</v>
+      </c>
+      <c r="E135" t="n">
+        <v>648.4299999999999</v>
+      </c>
+      <c r="F135" t="n">
+        <v>99.33799999999999</v>
+      </c>
+      <c r="G135" t="n">
+        <v>5.481546314681748</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1.996026051935317</v>
+      </c>
+      <c r="I135" t="n">
+        <v>550.5899999999999</v>
+      </c>
+      <c r="J135" t="n">
+        <v>549.092</v>
+      </c>
+      <c r="K135" t="n">
+        <v>3.731671207377396</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0.4014287210080125</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>45796</v>
+      </c>
+      <c r="B136" t="b">
+        <v>0</v>
+      </c>
+      <c r="C136" t="n">
+        <v>649.62</v>
+      </c>
+      <c r="D136" t="n">
+        <v>98.25</v>
+      </c>
+      <c r="E136" t="n">
+        <v>647.86</v>
+      </c>
+      <c r="F136" t="n">
+        <v>98.798</v>
+      </c>
+      <c r="G136" t="n">
+        <v>5.090663021650565</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1.807185657314879</v>
+      </c>
+      <c r="I136" t="n">
+        <v>551.37</v>
+      </c>
+      <c r="J136" t="n">
+        <v>549.062</v>
+      </c>
+      <c r="K136" t="n">
+        <v>3.707798538212325</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0.6224717918770123</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>45797</v>
+      </c>
+      <c r="B137" t="b">
+        <v>0</v>
+      </c>
+      <c r="C137" t="n">
+        <v>650</v>
+      </c>
+      <c r="D137" t="n">
+        <v>94.45999999999999</v>
+      </c>
+      <c r="E137" t="n">
+        <v>647.484</v>
+      </c>
+      <c r="F137" t="n">
+        <v>97.83799999999999</v>
+      </c>
+      <c r="G137" t="n">
+        <v>4.779427790018387</v>
+      </c>
+      <c r="H137" t="n">
+        <v>2.600984429020062</v>
+      </c>
+      <c r="I137" t="n">
+        <v>555.54</v>
+      </c>
+      <c r="J137" t="n">
+        <v>549.646</v>
+      </c>
+      <c r="K137" t="n">
+        <v>4.543977332686632</v>
+      </c>
+      <c r="L137" t="n">
+        <v>1.297101540890648</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>45798</v>
+      </c>
+      <c r="B138" t="b">
+        <v>0</v>
+      </c>
+      <c r="C138" t="n">
+        <v>673.3099999999999</v>
+      </c>
+      <c r="D138" t="n">
+        <v>97.09</v>
+      </c>
+      <c r="E138" t="n">
+        <v>652.794</v>
+      </c>
+      <c r="F138" t="n">
+        <v>97.35999999999999</v>
+      </c>
+      <c r="G138" t="n">
+        <v>12.41822571867674</v>
+      </c>
+      <c r="H138" t="n">
+        <v>2.438308840160513</v>
+      </c>
+      <c r="I138" t="n">
+        <v>576.2199999999999</v>
+      </c>
+      <c r="J138" t="n">
+        <v>555.434</v>
+      </c>
+      <c r="K138" t="n">
+        <v>12.40630605780683</v>
+      </c>
+      <c r="L138" t="n">
+        <v>1.675438273338427</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>vende_1_compra_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>45799</v>
+      </c>
+      <c r="B139" t="b">
+        <v>0</v>
+      </c>
+      <c r="C139" t="n">
+        <v>686.5700000000001</v>
+      </c>
+      <c r="D139" t="n">
+        <v>100.26</v>
+      </c>
+      <c r="E139" t="n">
+        <v>662.2059999999999</v>
+      </c>
+      <c r="F139" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="G139" t="n">
+        <v>16.86915913731367</v>
+      </c>
+      <c r="H139" t="n">
+        <v>2.596796102893865</v>
+      </c>
+      <c r="I139" t="n">
+        <v>586.3100000000001</v>
+      </c>
+      <c r="J139" t="n">
+        <v>564.006</v>
+      </c>
+      <c r="K139" t="n">
+        <v>16.26330931883126</v>
+      </c>
+      <c r="L139" t="n">
+        <v>1.371430596488398</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>vende_1_compra_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>45800</v>
+      </c>
+      <c r="B140" t="b">
+        <v>0</v>
+      </c>
+      <c r="C140" t="n">
+        <v>656.98</v>
+      </c>
+      <c r="D140" t="n">
+        <v>95.26000000000001</v>
+      </c>
+      <c r="E140" t="n">
+        <v>663.296</v>
+      </c>
+      <c r="F140" t="n">
+        <v>97.06399999999999</v>
+      </c>
+      <c r="G140" t="n">
+        <v>16.16839293189072</v>
+      </c>
+      <c r="H140" t="n">
+        <v>2.326849801771696</v>
+      </c>
+      <c r="I140" t="n">
+        <v>561.72</v>
+      </c>
+      <c r="J140" t="n">
+        <v>566.232</v>
+      </c>
+      <c r="K140" t="n">
+        <v>14.64959282710564</v>
+      </c>
+      <c r="L140" t="n">
+        <v>-0.3079949083398102</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>vende_1_compra_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>45801</v>
+      </c>
+      <c r="B141" t="b">
+        <v>1</v>
+      </c>
+      <c r="C141" t="n">
+        <v>668.01</v>
+      </c>
+      <c r="D141" t="n">
+        <v>95.63</v>
+      </c>
+      <c r="E141" t="n">
+        <v>666.9739999999999</v>
+      </c>
+      <c r="F141" t="n">
+        <v>96.53999999999999</v>
+      </c>
+      <c r="G141" t="n">
+        <v>14.25848975172397</v>
+      </c>
+      <c r="H141" t="n">
+        <v>2.287673490689851</v>
+      </c>
+      <c r="I141" t="n">
+        <v>572.38</v>
+      </c>
+      <c r="J141" t="n">
+        <v>570.434</v>
+      </c>
+      <c r="K141" t="n">
+        <v>12.11483718421296</v>
+      </c>
+      <c r="L141" t="n">
+        <v>0.160629480232379</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>45802</v>
+      </c>
+      <c r="B142" t="b">
+        <v>0</v>
+      </c>
+      <c r="C142" t="n">
+        <v>669.4400000000001</v>
+      </c>
+      <c r="D142" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="E142" t="n">
+        <v>670.862</v>
+      </c>
+      <c r="F142" t="n">
+        <v>96.768</v>
+      </c>
+      <c r="G142" t="n">
+        <v>10.67239289007022</v>
+      </c>
+      <c r="H142" t="n">
+        <v>2.075516803113153</v>
+      </c>
+      <c r="I142" t="n">
+        <v>573.84</v>
+      </c>
+      <c r="J142" t="n">
+        <v>574.0940000000001</v>
+      </c>
+      <c r="K142" t="n">
+        <v>8.8015441826984</v>
+      </c>
+      <c r="L142" t="n">
+        <v>-0.02885857239679812</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>45803</v>
+      </c>
+      <c r="B143" t="b">
+        <v>0</v>
+      </c>
+      <c r="C143" t="n">
+        <v>674.29</v>
+      </c>
+      <c r="D143" t="n">
+        <v>95.02</v>
+      </c>
+      <c r="E143" t="n">
+        <v>671.058</v>
+      </c>
+      <c r="F143" t="n">
+        <v>96.354</v>
+      </c>
+      <c r="G143" t="n">
+        <v>10.73739121016002</v>
+      </c>
+      <c r="H143" t="n">
+        <v>2.198062783453906</v>
+      </c>
+      <c r="I143" t="n">
+        <v>579.27</v>
+      </c>
+      <c r="J143" t="n">
+        <v>574.7040000000001</v>
+      </c>
+      <c r="K143" t="n">
+        <v>9.086794264205199</v>
+      </c>
+      <c r="L143" t="n">
+        <v>0.5024874413616203</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>45804</v>
+      </c>
+      <c r="B144" t="b">
+        <v>0</v>
+      </c>
+      <c r="C144" t="n">
+        <v>686.91</v>
+      </c>
+      <c r="D144" t="n">
+        <v>95.90000000000001</v>
+      </c>
+      <c r="E144" t="n">
+        <v>671.126</v>
+      </c>
+      <c r="F144" t="n">
+        <v>95.482</v>
+      </c>
+      <c r="G144" t="n">
+        <v>10.86055845709699</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0.3439767434076227</v>
+      </c>
+      <c r="I144" t="n">
+        <v>591.01</v>
+      </c>
+      <c r="J144" t="n">
+        <v>575.644</v>
+      </c>
+      <c r="K144" t="n">
+        <v>10.68933721050994</v>
+      </c>
+      <c r="L144" t="n">
+        <v>1.437507274528852</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>45805</v>
+      </c>
+      <c r="B145" t="b">
+        <v>0</v>
+      </c>
+      <c r="C145" t="n">
+        <v>686.89</v>
+      </c>
+      <c r="D145" t="n">
+        <v>95.37</v>
+      </c>
+      <c r="E145" t="n">
+        <v>677.1079999999999</v>
+      </c>
+      <c r="F145" t="n">
+        <v>95.50399999999999</v>
+      </c>
+      <c r="G145" t="n">
+        <v>9.236878260539459</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0.3294389169562536</v>
+      </c>
+      <c r="I145" t="n">
+        <v>591.52</v>
+      </c>
+      <c r="J145" t="n">
+        <v>581.604</v>
+      </c>
+      <c r="K145" t="n">
+        <v>9.187074071759488</v>
+      </c>
+      <c r="L145" t="n">
+        <v>1.079342554827236</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>45806</v>
+      </c>
+      <c r="B146" t="b">
+        <v>0</v>
+      </c>
+      <c r="C146" t="n">
+        <v>675.02</v>
+      </c>
+      <c r="D146" t="n">
+        <v>93.20999999999999</v>
+      </c>
+      <c r="E146" t="n">
+        <v>678.51</v>
+      </c>
+      <c r="F146" t="n">
+        <v>95.02000000000001</v>
+      </c>
+      <c r="G146" t="n">
+        <v>7.953580954515255</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1.061767394491571</v>
+      </c>
+      <c r="I146" t="n">
+        <v>581.8099999999999</v>
+      </c>
+      <c r="J146" t="n">
+        <v>583.49</v>
+      </c>
+      <c r="K146" t="n">
+        <v>7.661341266383869</v>
+      </c>
+      <c r="L146" t="n">
+        <v>-0.2192827524041386</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>45807</v>
+      </c>
+      <c r="B147" t="b">
+        <v>0</v>
+      </c>
+      <c r="C147" t="n">
+        <v>655.36</v>
+      </c>
+      <c r="D147" t="n">
+        <v>85.64</v>
+      </c>
+      <c r="E147" t="n">
+        <v>675.694</v>
+      </c>
+      <c r="F147" t="n">
+        <v>93.02799999999999</v>
+      </c>
+      <c r="G147" t="n">
+        <v>12.91361800581175</v>
+      </c>
+      <c r="H147" t="n">
+        <v>4.251972483448806</v>
+      </c>
+      <c r="I147" t="n">
+        <v>569.72</v>
+      </c>
+      <c r="J147" t="n">
+        <v>582.6659999999999</v>
+      </c>
+      <c r="K147" t="n">
+        <v>9.053730170487498</v>
+      </c>
+      <c r="L147" t="n">
+        <v>-1.429907867389297</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>45808</v>
+      </c>
+      <c r="B148" t="b">
+        <v>0</v>
+      </c>
+      <c r="C148" t="n">
+        <v>658.01</v>
+      </c>
+      <c r="D148" t="n">
+        <v>87.03</v>
+      </c>
+      <c r="E148" t="n">
+        <v>672.438</v>
+      </c>
+      <c r="F148" t="n">
+        <v>91.42999999999999</v>
+      </c>
+      <c r="G148" t="n">
+        <v>15.20518891694616</v>
+      </c>
+      <c r="H148" t="n">
+        <v>4.784271104359171</v>
+      </c>
+      <c r="I148" t="n">
+        <v>570.98</v>
+      </c>
+      <c r="J148" t="n">
+        <v>581.008</v>
+      </c>
+      <c r="K148" t="n">
+        <v>10.47813294437488</v>
+      </c>
+      <c r="L148" t="n">
+        <v>-0.9570407297975245</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>45809</v>
+      </c>
+      <c r="B149" t="b">
+        <v>1</v>
+      </c>
+      <c r="C149" t="n">
+        <v>660.77</v>
+      </c>
+      <c r="D149" t="n">
+        <v>88.39</v>
+      </c>
+      <c r="E149" t="n">
+        <v>667.21</v>
+      </c>
+      <c r="F149" t="n">
+        <v>89.928</v>
+      </c>
+      <c r="G149" t="n">
+        <v>13.368195465358</v>
+      </c>
+      <c r="H149" t="n">
+        <v>4.169462795133974</v>
+      </c>
+      <c r="I149" t="n">
+        <v>572.38</v>
+      </c>
+      <c r="J149" t="n">
+        <v>577.2819999999999</v>
+      </c>
+      <c r="K149" t="n">
+        <v>9.275668170002168</v>
+      </c>
+      <c r="L149" t="n">
+        <v>-0.5284794486130031</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>45810</v>
+      </c>
+      <c r="B150" t="b">
+        <v>1</v>
+      </c>
+      <c r="C150" t="n">
+        <v>665.9299999999999</v>
+      </c>
+      <c r="D150" t="n">
+        <v>89.52</v>
+      </c>
+      <c r="E150" t="n">
+        <v>663.0179999999999</v>
+      </c>
+      <c r="F150" t="n">
+        <v>88.75800000000001</v>
+      </c>
+      <c r="G150" t="n">
+        <v>7.767018089332304</v>
+      </c>
+      <c r="H150" t="n">
+        <v>2.882892644551066</v>
+      </c>
+      <c r="I150" t="n">
+        <v>576.41</v>
+      </c>
+      <c r="J150" t="n">
+        <v>574.26</v>
+      </c>
+      <c r="K150" t="n">
+        <v>4.912468829416553</v>
+      </c>
+      <c r="L150" t="n">
+        <v>0.4376618101117458</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B151" t="b">
+        <v>0</v>
+      </c>
+      <c r="C151" t="n">
+        <v>661.59</v>
+      </c>
+      <c r="D151" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="E151" t="n">
+        <v>660.332</v>
+      </c>
+      <c r="F151" t="n">
+        <v>88.01600000000001</v>
+      </c>
+      <c r="G151" t="n">
+        <v>3.975691134886266</v>
+      </c>
+      <c r="H151" t="n">
+        <v>1.674941790035344</v>
+      </c>
+      <c r="I151" t="n">
+        <v>572.09</v>
+      </c>
+      <c r="J151" t="n">
+        <v>572.316</v>
+      </c>
+      <c r="K151" t="n">
+        <v>2.516948549332672</v>
+      </c>
+      <c r="L151" t="n">
+        <v>-0.08979126731053731</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>45812</v>
+      </c>
+      <c r="B152" t="b">
+        <v>0</v>
+      </c>
+      <c r="C152" t="n">
+        <v>663.23</v>
+      </c>
+      <c r="D152" t="n">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="E152" t="n">
+        <v>661.9060000000001</v>
+      </c>
+      <c r="F152" t="n">
+        <v>88.48599999999999</v>
+      </c>
+      <c r="G152" t="n">
+        <v>2.937461489111745</v>
+      </c>
+      <c r="H152" t="n">
+        <v>1.057416663386157</v>
+      </c>
+      <c r="I152" t="n">
+        <v>575.24</v>
+      </c>
+      <c r="J152" t="n">
+        <v>573.42</v>
+      </c>
+      <c r="K152" t="n">
+        <v>2.294373552843745</v>
+      </c>
+      <c r="L152" t="n">
+        <v>0.7932448479212394</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>45813</v>
+      </c>
+      <c r="B153" t="b">
+        <v>1</v>
+      </c>
+      <c r="C153" t="n">
+        <v>633.3200000000001</v>
+      </c>
+      <c r="D153" t="n">
+        <v>83.58</v>
+      </c>
+      <c r="E153" t="n">
+        <v>656.9680000000001</v>
+      </c>
+      <c r="F153" t="n">
+        <v>87.79600000000001</v>
+      </c>
+      <c r="G153" t="n">
+        <v>13.36577794219291</v>
+      </c>
+      <c r="H153" t="n">
+        <v>2.451577043457303</v>
+      </c>
+      <c r="I153" t="n">
+        <v>549.74</v>
+      </c>
+      <c r="J153" t="n">
+        <v>569.1719999999999</v>
+      </c>
+      <c r="K153" t="n">
+        <v>11.01836966161439</v>
+      </c>
+      <c r="L153" t="n">
+        <v>-1.763600296303071</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>compra_1_vende_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>45814</v>
+      </c>
+      <c r="B154" t="b">
+        <v>0</v>
+      </c>
+      <c r="C154" t="n">
+        <v>642.7</v>
+      </c>
+      <c r="D154" t="n">
+        <v>87.25</v>
+      </c>
+      <c r="E154" t="n">
+        <v>653.354</v>
+      </c>
+      <c r="F154" t="n">
+        <v>87.56800000000001</v>
+      </c>
+      <c r="G154" t="n">
+        <v>14.4774973666034</v>
+      </c>
+      <c r="H154" t="n">
+        <v>2.435481471907946</v>
+      </c>
+      <c r="I154" t="n">
+        <v>555.45</v>
+      </c>
+      <c r="J154" t="n">
+        <v>565.7860000000001</v>
+      </c>
+      <c r="K154" t="n">
+        <v>12.31152833729349</v>
+      </c>
+      <c r="L154" t="n">
+        <v>-0.8395383348703103</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>compra_1_vende_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>45815</v>
+      </c>
+      <c r="B155" t="b">
+        <v>0</v>
+      </c>
+      <c r="C155" t="n">
+        <v>650.8200000000001</v>
+      </c>
+      <c r="D155" t="n">
+        <v>88.31</v>
+      </c>
+      <c r="E155" t="n">
+        <v>650.3320000000001</v>
+      </c>
+      <c r="F155" t="n">
+        <v>87.32599999999999</v>
+      </c>
+      <c r="G155" t="n">
+        <v>12.65893636922184</v>
+      </c>
+      <c r="H155" t="n">
+        <v>2.245758223853793</v>
+      </c>
+      <c r="I155" t="n">
+        <v>562.51</v>
+      </c>
+      <c r="J155" t="n">
+        <v>563.0060000000001</v>
+      </c>
+      <c r="K155" t="n">
+        <v>10.78790665513834</v>
+      </c>
+      <c r="L155" t="n">
+        <v>-0.04597740932100549</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>45816</v>
+      </c>
+      <c r="B156" t="b">
+        <v>0</v>
+      </c>
+      <c r="C156" t="n">
+        <v>652</v>
+      </c>
+      <c r="D156" t="n">
+        <v>87.18000000000001</v>
+      </c>
+      <c r="E156" t="n">
+        <v>648.414</v>
+      </c>
+      <c r="F156" t="n">
+        <v>86.86199999999999</v>
+      </c>
+      <c r="G156" t="n">
+        <v>11.16513233240012</v>
+      </c>
+      <c r="H156" t="n">
+        <v>1.896857928261107</v>
+      </c>
+      <c r="I156" t="n">
+        <v>564.8199999999999</v>
+      </c>
+      <c r="J156" t="n">
+        <v>561.552</v>
+      </c>
+      <c r="K156" t="n">
+        <v>9.691706248126613</v>
+      </c>
+      <c r="L156" t="n">
+        <v>0.3371955274265162</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>45817</v>
+      </c>
+      <c r="B157" t="b">
+        <v>0</v>
+      </c>
+      <c r="C157" t="n">
+        <v>665.58</v>
+      </c>
+      <c r="D157" t="n">
+        <v>90.73</v>
+      </c>
+      <c r="E157" t="n">
+        <v>648.884</v>
+      </c>
+      <c r="F157" t="n">
+        <v>87.41000000000001</v>
+      </c>
+      <c r="G157" t="n">
+        <v>11.96551210772054</v>
+      </c>
+      <c r="H157" t="n">
+        <v>2.577780052682334</v>
+      </c>
+      <c r="I157" t="n">
+        <v>574.85</v>
+      </c>
+      <c r="J157" t="n">
+        <v>561.4739999999999</v>
+      </c>
+      <c r="K157" t="n">
+        <v>9.554602555835398</v>
+      </c>
+      <c r="L157" t="n">
+        <v>1.399953574398634</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>45818</v>
+      </c>
+      <c r="B158" t="b">
+        <v>0</v>
+      </c>
+      <c r="C158" t="n">
+        <v>673.51</v>
+      </c>
+      <c r="D158" t="n">
+        <v>93.33</v>
+      </c>
+      <c r="E158" t="n">
+        <v>656.9220000000001</v>
+      </c>
+      <c r="F158" t="n">
+        <v>89.36</v>
+      </c>
+      <c r="G158" t="n">
+        <v>12.38798288665306</v>
+      </c>
+      <c r="H158" t="n">
+        <v>2.643142069584338</v>
+      </c>
+      <c r="I158" t="n">
+        <v>580.1799999999999</v>
+      </c>
+      <c r="J158" t="n">
+        <v>567.562</v>
+      </c>
+      <c r="K158" t="n">
+        <v>9.900387366158004</v>
+      </c>
+      <c r="L158" t="n">
+        <v>1.274495586216294</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>45819</v>
+      </c>
+      <c r="B159" t="b">
+        <v>0</v>
+      </c>
+      <c r="C159" t="n">
+        <v>667.4299999999999</v>
+      </c>
+      <c r="D159" t="n">
+        <v>91.56</v>
+      </c>
+      <c r="E159" t="n">
+        <v>661.8680000000001</v>
+      </c>
+      <c r="F159" t="n">
+        <v>90.22200000000001</v>
+      </c>
+      <c r="G159" t="n">
+        <v>9.996082732751406</v>
+      </c>
+      <c r="H159" t="n">
+        <v>2.480800274106409</v>
+      </c>
+      <c r="I159" t="n">
+        <v>575.8699999999999</v>
+      </c>
+      <c r="J159" t="n">
+        <v>571.646</v>
+      </c>
+      <c r="K159" t="n">
+        <v>7.599304573445162</v>
+      </c>
+      <c r="L159" t="n">
+        <v>0.5558403350169939</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>45820</v>
+      </c>
+      <c r="B160" t="b">
+        <v>0</v>
+      </c>
+      <c r="C160" t="n">
+        <v>654.75</v>
+      </c>
+      <c r="D160" t="n">
+        <v>86.13</v>
+      </c>
+      <c r="E160" t="n">
+        <v>662.654</v>
+      </c>
+      <c r="F160" t="n">
+        <v>89.786</v>
+      </c>
+      <c r="G160" t="n">
+        <v>9.01672501521541</v>
+      </c>
+      <c r="H160" t="n">
+        <v>3.031324792892788</v>
+      </c>
+      <c r="I160" t="n">
+        <v>568.62</v>
+      </c>
+      <c r="J160" t="n">
+        <v>572.8680000000001</v>
+      </c>
+      <c r="K160" t="n">
+        <v>6.107812210602555</v>
+      </c>
+      <c r="L160" t="n">
+        <v>-0.6955027190629636</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>45821</v>
+      </c>
+      <c r="B161" t="b">
+        <v>0</v>
+      </c>
+      <c r="C161" t="n">
+        <v>655.35</v>
+      </c>
+      <c r="D161" t="n">
+        <v>86.55</v>
+      </c>
+      <c r="E161" t="n">
+        <v>663.324</v>
+      </c>
+      <c r="F161" t="n">
+        <v>89.66</v>
+      </c>
+      <c r="G161" t="n">
+        <v>8.10557709234892</v>
+      </c>
+      <c r="H161" t="n">
+        <v>3.176350106648594</v>
+      </c>
+      <c r="I161" t="n">
+        <v>568.8000000000001</v>
+      </c>
+      <c r="J161" t="n">
+        <v>573.664</v>
+      </c>
+      <c r="K161" t="n">
+        <v>4.945495930640934</v>
+      </c>
+      <c r="L161" t="n">
+        <v>-0.9835211813367212</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>45822</v>
+      </c>
+      <c r="B162" t="b">
+        <v>1</v>
+      </c>
+      <c r="C162" t="n">
+        <v>645.61</v>
+      </c>
+      <c r="D162" t="n">
+        <v>85.18000000000001</v>
+      </c>
+      <c r="E162" t="n">
+        <v>659.33</v>
+      </c>
+      <c r="F162" t="n">
+        <v>88.55</v>
+      </c>
+      <c r="G162" t="n">
+        <v>11.08757863557272</v>
+      </c>
+      <c r="H162" t="n">
+        <v>3.644235173531844</v>
+      </c>
+      <c r="I162" t="n">
+        <v>560.4300000000001</v>
+      </c>
+      <c r="J162" t="n">
+        <v>570.78</v>
+      </c>
+      <c r="K162" t="n">
+        <v>7.58248969666188</v>
+      </c>
+      <c r="L162" t="n">
+        <v>-1.364987017991782</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>45823</v>
+      </c>
+      <c r="B163" t="b">
+        <v>0</v>
+      </c>
+      <c r="C163" t="n">
+        <v>648.1900000000001</v>
+      </c>
+      <c r="D163" t="n">
+        <v>86.3</v>
+      </c>
+      <c r="E163" t="n">
+        <v>654.2660000000001</v>
+      </c>
+      <c r="F163" t="n">
+        <v>87.14399999999999</v>
+      </c>
+      <c r="G163" t="n">
+        <v>8.463810016771685</v>
+      </c>
+      <c r="H163" t="n">
+        <v>2.522484885981852</v>
+      </c>
+      <c r="I163" t="n">
+        <v>561.8900000000001</v>
+      </c>
+      <c r="J163" t="n">
+        <v>567.1220000000001</v>
+      </c>
+      <c r="K163" t="n">
+        <v>6.199674991479919</v>
+      </c>
+      <c r="L163" t="n">
+        <v>-0.8439152063923023</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>45824</v>
+      </c>
+      <c r="B164" t="b">
+        <v>0</v>
+      </c>
+      <c r="C164" t="n">
+        <v>650.74</v>
+      </c>
+      <c r="D164" t="n">
+        <v>86.67</v>
+      </c>
+      <c r="E164" t="n">
+        <v>650.928</v>
+      </c>
+      <c r="F164" t="n">
+        <v>86.166</v>
+      </c>
+      <c r="G164" t="n">
+        <v>4.182549461752116</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0.590110159213532</v>
+      </c>
+      <c r="I164" t="n">
+        <v>564.0700000000001</v>
+      </c>
+      <c r="J164" t="n">
+        <v>564.7620000000001</v>
+      </c>
+      <c r="K164" t="n">
+        <v>3.8302441175441</v>
+      </c>
+      <c r="L164" t="n">
+        <v>-0.1806673357529254</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>45825</v>
+      </c>
+      <c r="B165" t="b">
+        <v>0</v>
+      </c>
+      <c r="C165" t="n">
+        <v>648.08</v>
+      </c>
+      <c r="D165" t="n">
+        <v>84.22</v>
+      </c>
+      <c r="E165" t="n">
+        <v>649.5940000000001</v>
+      </c>
+      <c r="F165" t="n">
+        <v>85.78399999999999</v>
+      </c>
+      <c r="G165" t="n">
+        <v>3.693931509923022</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1.054623155447993</v>
+      </c>
+      <c r="I165" t="n">
+        <v>563.86</v>
+      </c>
+      <c r="J165" t="n">
+        <v>563.8100000000002</v>
+      </c>
+      <c r="K165" t="n">
+        <v>3.165477847021009</v>
+      </c>
+      <c r="L165" t="n">
+        <v>0.01579540354291066</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>45826</v>
+      </c>
+      <c r="B166" t="b">
+        <v>0</v>
+      </c>
+      <c r="C166" t="n">
+        <v>644.77</v>
+      </c>
+      <c r="D166" t="n">
+        <v>85.08</v>
+      </c>
+      <c r="E166" t="n">
+        <v>647.4780000000001</v>
+      </c>
+      <c r="F166" t="n">
+        <v>85.49000000000001</v>
+      </c>
+      <c r="G166" t="n">
+        <v>2.362873250938597</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0.9906563480880406</v>
+      </c>
+      <c r="I166" t="n">
+        <v>559.6899999999999</v>
+      </c>
+      <c r="J166" t="n">
+        <v>561.9880000000001</v>
+      </c>
+      <c r="K166" t="n">
+        <v>1.972110544563831</v>
+      </c>
+      <c r="L166" t="n">
+        <v>-1.165249081160591</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>45827</v>
+      </c>
+      <c r="B167" t="b">
+        <v>0</v>
+      </c>
+      <c r="C167" t="n">
+        <v>644.65</v>
+      </c>
+      <c r="D167" t="n">
+        <v>85.11</v>
+      </c>
+      <c r="E167" t="n">
+        <v>647.2859999999999</v>
+      </c>
+      <c r="F167" t="n">
+        <v>85.476</v>
+      </c>
+      <c r="G167" t="n">
+        <v>2.581497627347565</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0.9966092514155872</v>
+      </c>
+      <c r="I167" t="n">
+        <v>559.54</v>
+      </c>
+      <c r="J167" t="n">
+        <v>561.8100000000001</v>
+      </c>
+      <c r="K167" t="n">
+        <v>2.177372269498233</v>
+      </c>
+      <c r="L167" t="n">
+        <v>-1.0425410628212</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>45828</v>
+      </c>
+      <c r="B168" t="b">
+        <v>0</v>
+      </c>
+      <c r="C168" t="n">
+        <v>641.61</v>
+      </c>
+      <c r="D168" t="n">
+        <v>82.91</v>
+      </c>
+      <c r="E168" t="n">
+        <v>645.97</v>
+      </c>
+      <c r="F168" t="n">
+        <v>84.798</v>
+      </c>
+      <c r="G168" t="n">
+        <v>3.514149968342323</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1.37657909326245</v>
+      </c>
+      <c r="I168" t="n">
+        <v>558.7</v>
+      </c>
+      <c r="J168" t="n">
+        <v>561.172</v>
+      </c>
+      <c r="K168" t="n">
+        <v>2.578482111626817</v>
+      </c>
+      <c r="L168" t="n">
+        <v>-0.9587035678290375</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>45829</v>
+      </c>
+      <c r="B169" t="b">
+        <v>0</v>
+      </c>
+      <c r="C169" t="n">
+        <v>628.97</v>
+      </c>
+      <c r="D169" t="n">
+        <v>80.23</v>
+      </c>
+      <c r="E169" t="n">
+        <v>641.616</v>
+      </c>
+      <c r="F169" t="n">
+        <v>83.51000000000001</v>
+      </c>
+      <c r="G169" t="n">
+        <v>7.430637926853759</v>
+      </c>
+      <c r="H169" t="n">
+        <v>2.040061273591435</v>
+      </c>
+      <c r="I169" t="n">
+        <v>548.74</v>
+      </c>
+      <c r="J169" t="n">
+        <v>558.106</v>
+      </c>
+      <c r="K169" t="n">
+        <v>5.606886836737279</v>
+      </c>
+      <c r="L169" t="n">
+        <v>-1.670445698784637</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>compra_1_vende_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>45830</v>
+      </c>
+      <c r="B170" t="b">
+        <v>0</v>
+      </c>
+      <c r="C170" t="n">
+        <v>615.8099999999999</v>
+      </c>
+      <c r="D170" t="n">
+        <v>80.20999999999999</v>
+      </c>
+      <c r="E170" t="n">
+        <v>635.162</v>
+      </c>
+      <c r="F170" t="n">
+        <v>82.708</v>
+      </c>
+      <c r="G170" t="n">
+        <v>12.61698537686374</v>
+      </c>
+      <c r="H170" t="n">
+        <v>2.440147536524721</v>
+      </c>
+      <c r="I170" t="n">
+        <v>535.5999999999999</v>
+      </c>
+      <c r="J170" t="n">
+        <v>552.454</v>
+      </c>
+      <c r="K170" t="n">
+        <v>10.48134914979817</v>
+      </c>
+      <c r="L170" t="n">
+        <v>-1.607999100032325</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>compra_1_vende_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>45831</v>
+      </c>
+      <c r="B171" t="b">
+        <v>0</v>
+      </c>
+      <c r="C171" t="n">
+        <v>640.49</v>
+      </c>
+      <c r="D171" t="n">
+        <v>84.91</v>
+      </c>
+      <c r="E171" t="n">
+        <v>634.3059999999999</v>
+      </c>
+      <c r="F171" t="n">
+        <v>82.67400000000001</v>
+      </c>
+      <c r="G171" t="n">
+        <v>11.92857409751865</v>
+      </c>
+      <c r="H171" t="n">
+        <v>2.399683312440969</v>
+      </c>
+      <c r="I171" t="n">
+        <v>555.58</v>
+      </c>
+      <c r="J171" t="n">
+        <v>551.6320000000001</v>
+      </c>
+      <c r="K171" t="n">
+        <v>9.918019963680988</v>
+      </c>
+      <c r="L171" t="n">
+        <v>0.3980633245806366</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>compra_1_vende_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>45832</v>
+      </c>
+      <c r="B172" t="b">
+        <v>0</v>
+      </c>
+      <c r="C172" t="n">
+        <v>643.53</v>
+      </c>
+      <c r="D172" t="n">
+        <v>84.84</v>
+      </c>
+      <c r="E172" t="n">
+        <v>634.082</v>
+      </c>
+      <c r="F172" t="n">
+        <v>82.61999999999999</v>
+      </c>
+      <c r="G172" t="n">
+        <v>11.69397793738268</v>
+      </c>
+      <c r="H172" t="n">
+        <v>2.333280951794635</v>
+      </c>
+      <c r="I172" t="n">
+        <v>558.6899999999999</v>
+      </c>
+      <c r="J172" t="n">
+        <v>551.4619999999999</v>
+      </c>
+      <c r="K172" t="n">
+        <v>9.754523053433962</v>
+      </c>
+      <c r="L172" t="n">
+        <v>0.7409895861033959</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>compra_1_vende_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>45833</v>
+      </c>
+      <c r="B173" t="b">
+        <v>0</v>
+      </c>
+      <c r="C173" t="n">
+        <v>646.0700000000001</v>
+      </c>
+      <c r="D173" t="n">
+        <v>84.67</v>
+      </c>
+      <c r="E173" t="n">
+        <v>634.9739999999999</v>
+      </c>
+      <c r="F173" t="n">
+        <v>82.97200000000001</v>
+      </c>
+      <c r="G173" t="n">
+        <v>12.55049321739961</v>
+      </c>
+      <c r="H173" t="n">
+        <v>2.513746208352707</v>
+      </c>
+      <c r="I173" t="n">
+        <v>561.4000000000001</v>
+      </c>
+      <c r="J173" t="n">
+        <v>552.0020000000001</v>
+      </c>
+      <c r="K173" t="n">
+        <v>10.31406903215094</v>
+      </c>
+      <c r="L173" t="n">
+        <v>0.9111825769930998</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>compra_1_vende_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>45834</v>
+      </c>
+      <c r="B174" t="b">
+        <v>0</v>
+      </c>
+      <c r="C174" t="n">
+        <v>642.3</v>
+      </c>
+      <c r="D174" t="n">
+        <v>84.27</v>
+      </c>
+      <c r="E174" t="n">
+        <v>637.64</v>
+      </c>
+      <c r="F174" t="n">
+        <v>83.78</v>
+      </c>
+      <c r="G174" t="n">
+        <v>12.37077200501228</v>
+      </c>
+      <c r="H174" t="n">
+        <v>2.011069367278875</v>
+      </c>
+      <c r="I174" t="n">
+        <v>558.03</v>
+      </c>
+      <c r="J174" t="n">
+        <v>553.86</v>
+      </c>
+      <c r="K174" t="n">
+        <v>10.41579809712038</v>
+      </c>
+      <c r="L174" t="n">
+        <v>0.4003533825365553</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>compra_1_vende_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>45835</v>
+      </c>
+      <c r="B175" t="b">
+        <v>0</v>
+      </c>
+      <c r="C175" t="n">
+        <v>645.71</v>
+      </c>
+      <c r="D175" t="n">
+        <v>84.83</v>
+      </c>
+      <c r="E175" t="n">
+        <v>643.6200000000001</v>
+      </c>
+      <c r="F175" t="n">
+        <v>84.70399999999999</v>
+      </c>
+      <c r="G175" t="n">
+        <v>2.3408331850002</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0.2580310059029123</v>
+      </c>
+      <c r="I175" t="n">
+        <v>560.88</v>
+      </c>
+      <c r="J175" t="n">
+        <v>558.9159999999999</v>
+      </c>
+      <c r="K175" t="n">
+        <v>2.344809160673743</v>
+      </c>
+      <c r="L175" t="n">
+        <v>0.8375948170706274</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>compra_1_vende_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>45836</v>
+      </c>
+      <c r="B176" t="b">
+        <v>0</v>
+      </c>
+      <c r="C176" t="n">
+        <v>648.6</v>
+      </c>
+      <c r="D176" t="n">
+        <v>86.31</v>
+      </c>
+      <c r="E176" t="n">
+        <v>645.242</v>
+      </c>
+      <c r="F176" t="n">
+        <v>84.98400000000001</v>
+      </c>
+      <c r="G176" t="n">
+        <v>2.437574614242451</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0.7763890777227704</v>
+      </c>
+      <c r="I176" t="n">
+        <v>562.29</v>
+      </c>
+      <c r="J176" t="n">
+        <v>560.258</v>
+      </c>
+      <c r="K176" t="n">
+        <v>1.819524663196542</v>
+      </c>
+      <c r="L176" t="n">
+        <v>1.116775189202496</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>compra_1_vende_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>45837</v>
+      </c>
+      <c r="B177" t="b">
+        <v>1</v>
+      </c>
+      <c r="C177" t="n">
+        <v>654.9</v>
+      </c>
+      <c r="D177" t="n">
+        <v>87.95999999999999</v>
+      </c>
+      <c r="E177" t="n">
+        <v>647.5160000000001</v>
+      </c>
+      <c r="F177" t="n">
+        <v>85.60799999999999</v>
+      </c>
+      <c r="G177" t="n">
+        <v>4.697278999591225</v>
+      </c>
+      <c r="H177" t="n">
+        <v>1.524801626444269</v>
+      </c>
+      <c r="I177" t="n">
+        <v>566.9399999999999</v>
+      </c>
+      <c r="J177" t="n">
+        <v>561.908</v>
+      </c>
+      <c r="K177" t="n">
+        <v>3.233445530696556</v>
+      </c>
+      <c r="L177" t="n">
+        <v>1.556234658115896</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>vende_1_compra_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B178" t="b">
+        <v>0</v>
+      </c>
+      <c r="C178" t="n">
+        <v>656.9</v>
+      </c>
+      <c r="D178" t="n">
+        <v>86</v>
+      </c>
+      <c r="E178" t="n">
+        <v>649.682</v>
+      </c>
+      <c r="F178" t="n">
+        <v>85.874</v>
+      </c>
+      <c r="G178" t="n">
+        <v>6.139390849262035</v>
+      </c>
+      <c r="H178" t="n">
+        <v>1.433537582349009</v>
+      </c>
+      <c r="I178" t="n">
+        <v>570.9</v>
+      </c>
+      <c r="J178" t="n">
+        <v>563.8079999999999</v>
+      </c>
+      <c r="K178" t="n">
+        <v>5.108049529906988</v>
+      </c>
+      <c r="L178" t="n">
+        <v>1.388396874086152</v>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>vende_1_compra_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B179" t="b">
+        <v>0</v>
+      </c>
+      <c r="C179" t="n">
+        <v>646.33</v>
+      </c>
+      <c r="D179" t="n">
+        <v>83.22</v>
+      </c>
+      <c r="E179" t="n">
+        <v>650.4880000000001</v>
+      </c>
+      <c r="F179" t="n">
+        <v>85.664</v>
+      </c>
+      <c r="G179" t="n">
+        <v>5.105445132405483</v>
+      </c>
+      <c r="H179" t="n">
+        <v>1.765681171674853</v>
+      </c>
+      <c r="I179" t="n">
+        <v>563.11</v>
+      </c>
+      <c r="J179" t="n">
+        <v>564.824</v>
+      </c>
+      <c r="K179" t="n">
+        <v>4.07152674066913</v>
+      </c>
+      <c r="L179" t="n">
+        <v>-0.4209723057641657</v>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>vende_1_compra_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B180" t="b">
+        <v>0</v>
+      </c>
+      <c r="C180" t="n">
+        <v>659.71</v>
+      </c>
+      <c r="D180" t="n">
+        <v>87.31999999999999</v>
+      </c>
+      <c r="E180" t="n">
+        <v>653.288</v>
+      </c>
+      <c r="F180" t="n">
+        <v>86.16200000000001</v>
+      </c>
+      <c r="G180" t="n">
+        <v>5.640883796002615</v>
+      </c>
+      <c r="H180" t="n">
+        <v>1.821900107033037</v>
+      </c>
+      <c r="I180" t="n">
+        <v>572.3900000000001</v>
+      </c>
+      <c r="J180" t="n">
+        <v>567.126</v>
+      </c>
+      <c r="K180" t="n">
+        <v>4.513937305721632</v>
+      </c>
+      <c r="L180" t="n">
+        <v>1.166165953020161</v>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>vende_1_compra_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B181" t="b">
+        <v>0</v>
+      </c>
+      <c r="C181" t="n">
+        <v>663.59</v>
+      </c>
+      <c r="D181" t="n">
+        <v>89.08</v>
+      </c>
+      <c r="E181" t="n">
+        <v>656.2860000000001</v>
+      </c>
+      <c r="F181" t="n">
+        <v>86.71599999999999</v>
+      </c>
+      <c r="G181" t="n">
+        <v>6.451591276577193</v>
+      </c>
+      <c r="H181" t="n">
+        <v>2.249195411698791</v>
+      </c>
+      <c r="I181" t="n">
+        <v>574.51</v>
+      </c>
+      <c r="J181" t="n">
+        <v>569.5699999999999</v>
+      </c>
+      <c r="K181" t="n">
+        <v>4.548994394367498</v>
+      </c>
+      <c r="L181" t="n">
+        <v>1.085954294891349</v>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>vende_1_compra_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>45842</v>
+      </c>
+      <c r="B182" t="b">
+        <v>0</v>
+      </c>
+      <c r="C182" t="n">
+        <v>653.6</v>
+      </c>
+      <c r="D182" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="E182" t="n">
+        <v>656.0260000000001</v>
+      </c>
+      <c r="F182" t="n">
+        <v>86.492</v>
+      </c>
+      <c r="G182" t="n">
+        <v>6.546902320945894</v>
+      </c>
+      <c r="H182" t="n">
+        <v>2.147817496903994</v>
+      </c>
+      <c r="I182" t="n">
+        <v>566.76</v>
+      </c>
+      <c r="J182" t="n">
+        <v>569.534</v>
+      </c>
+      <c r="K182" t="n">
+        <v>4.575645309678928</v>
+      </c>
+      <c r="L182" t="n">
+        <v>-0.60625328500269</v>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>vende_1_compra_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>45843</v>
+      </c>
+      <c r="B183" t="b">
+        <v>0</v>
+      </c>
+      <c r="C183" t="n">
+        <v>656.16</v>
+      </c>
+      <c r="D183" t="n">
+        <v>87.55</v>
+      </c>
+      <c r="E183" t="n">
+        <v>655.878</v>
+      </c>
+      <c r="F183" t="n">
+        <v>86.80199999999999</v>
+      </c>
+      <c r="G183" t="n">
+        <v>6.530548981518066</v>
+      </c>
+      <c r="H183" t="n">
+        <v>2.170787875405351</v>
+      </c>
+      <c r="I183" t="n">
+        <v>568.61</v>
+      </c>
+      <c r="J183" t="n">
+        <v>569.076</v>
+      </c>
+      <c r="K183" t="n">
+        <v>4.518991037829836</v>
+      </c>
+      <c r="L183" t="n">
+        <v>-0.1031203638376314</v>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>45844</v>
+      </c>
+      <c r="B184" t="b">
+        <v>0</v>
+      </c>
+      <c r="C184" t="n">
+        <v>663.13</v>
+      </c>
+      <c r="D184" t="n">
+        <v>87.34999999999999</v>
+      </c>
+      <c r="E184" t="n">
+        <v>659.2380000000001</v>
+      </c>
+      <c r="F184" t="n">
+        <v>87.628</v>
+      </c>
+      <c r="G184" t="n">
+        <v>4.346592918598345</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0.8525667129361254</v>
+      </c>
+      <c r="I184" t="n">
+        <v>575.78</v>
+      </c>
+      <c r="J184" t="n">
+        <v>571.61</v>
+      </c>
+      <c r="K184" t="n">
+        <v>3.838287378504671</v>
+      </c>
+      <c r="L184" t="n">
+        <v>1.086422038993995</v>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B185" t="b">
+        <v>0</v>
+      </c>
+      <c r="C185" t="n">
+        <v>661.0599999999999</v>
+      </c>
+      <c r="D185" t="n">
+        <v>86.05</v>
+      </c>
+      <c r="E185" t="n">
+        <v>659.508</v>
+      </c>
+      <c r="F185" t="n">
+        <v>87.374</v>
+      </c>
+      <c r="G185" t="n">
+        <v>4.424473980035301</v>
+      </c>
+      <c r="H185" t="n">
+        <v>1.115809123464569</v>
+      </c>
+      <c r="I185" t="n">
+        <v>575.01</v>
+      </c>
+      <c r="J185" t="n">
+        <v>572.1339999999999</v>
+      </c>
+      <c r="K185" t="n">
+        <v>4.138493687320155</v>
+      </c>
+      <c r="L185" t="n">
+        <v>0.6949388394168166</v>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B186" t="b">
+        <v>0</v>
+      </c>
+      <c r="C186" t="n">
+        <v>660.63</v>
+      </c>
+      <c r="D186" t="n">
+        <v>87.75</v>
+      </c>
+      <c r="E186" t="n">
+        <v>658.9159999999999</v>
+      </c>
+      <c r="F186" t="n">
+        <v>87.108</v>
+      </c>
+      <c r="G186" t="n">
+        <v>3.9098503807702</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0.6814103022458905</v>
+      </c>
+      <c r="I186" t="n">
+        <v>572.88</v>
+      </c>
+      <c r="J186" t="n">
+        <v>571.808</v>
+      </c>
+      <c r="K186" t="n">
+        <v>3.965106555943789</v>
+      </c>
+      <c r="L186" t="n">
+        <v>0.2703584342249389</v>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B187" t="b">
+        <v>0</v>
+      </c>
+      <c r="C187" t="n">
+        <v>668.6799999999999</v>
+      </c>
+      <c r="D187" t="n">
+        <v>90.61</v>
+      </c>
+      <c r="E187" t="n">
+        <v>661.932</v>
+      </c>
+      <c r="F187" t="n">
+        <v>87.86199999999999</v>
+      </c>
+      <c r="G187" t="n">
+        <v>4.548139179929627</v>
+      </c>
+      <c r="H187" t="n">
+        <v>1.673833922468613</v>
+      </c>
+      <c r="I187" t="n">
+        <v>578.0699999999999</v>
+      </c>
+      <c r="J187" t="n">
+        <v>574.0699999999999</v>
+      </c>
+      <c r="K187" t="n">
+        <v>3.571953247173047</v>
+      </c>
+      <c r="L187" t="n">
+        <v>1.119835485855175</v>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B188" t="b">
+        <v>1</v>
+      </c>
+      <c r="C188" t="n">
+        <v>685.8</v>
+      </c>
+      <c r="D188" t="n">
+        <v>94.84999999999999</v>
+      </c>
+      <c r="E188" t="n">
+        <v>667.8599999999999</v>
+      </c>
+      <c r="F188" t="n">
+        <v>89.322</v>
+      </c>
+      <c r="G188" t="n">
+        <v>10.52855403177547</v>
+      </c>
+      <c r="H188" t="n">
+        <v>3.510116807174132</v>
+      </c>
+      <c r="I188" t="n">
+        <v>590.9499999999999</v>
+      </c>
+      <c r="J188" t="n">
+        <v>578.538</v>
+      </c>
+      <c r="K188" t="n">
+        <v>7.182323440224144</v>
+      </c>
+      <c r="L188" t="n">
+        <v>1.728131586289655</v>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>vende_1_compra_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B189" t="b">
+        <v>0</v>
+      </c>
+      <c r="C189" t="n">
+        <v>689.99</v>
+      </c>
+      <c r="D189" t="n">
+        <v>94.26000000000001</v>
+      </c>
+      <c r="E189" t="n">
+        <v>673.232</v>
+      </c>
+      <c r="F189" t="n">
+        <v>90.70399999999999</v>
+      </c>
+      <c r="G189" t="n">
+        <v>13.84263233637376</v>
+      </c>
+      <c r="H189" t="n">
+        <v>3.880371116273031</v>
+      </c>
+      <c r="I189" t="n">
+        <v>595.73</v>
+      </c>
+      <c r="J189" t="n">
+        <v>582.528</v>
+      </c>
+      <c r="K189" t="n">
+        <v>10.18210292621305</v>
+      </c>
+      <c r="L189" t="n">
+        <v>1.296588739641636</v>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>vende_1_compra_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>45850</v>
+      </c>
+      <c r="B190" t="b">
+        <v>0</v>
+      </c>
+      <c r="C190" t="n">
+        <v>685.86</v>
+      </c>
+      <c r="D190" t="n">
+        <v>92.77</v>
+      </c>
+      <c r="E190" t="n">
+        <v>678.192</v>
+      </c>
+      <c r="F190" t="n">
+        <v>92.048</v>
+      </c>
+      <c r="G190" t="n">
+        <v>12.7942827075231</v>
+      </c>
+      <c r="H190" t="n">
+        <v>2.907149806942478</v>
+      </c>
+      <c r="I190" t="n">
+        <v>593.09</v>
+      </c>
+      <c r="J190" t="n">
+        <v>586.144</v>
+      </c>
+      <c r="K190" t="n">
+        <v>10.05434135087921</v>
+      </c>
+      <c r="L190" t="n">
+        <v>0.6908458503244105</v>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>vende_1_compra_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>45851</v>
+      </c>
+      <c r="B191" t="b">
+        <v>0</v>
+      </c>
+      <c r="C191" t="n">
+        <v>692</v>
+      </c>
+      <c r="D191" t="n">
+        <v>94.62</v>
+      </c>
+      <c r="E191" t="n">
+        <v>684.466</v>
+      </c>
+      <c r="F191" t="n">
+        <v>93.422</v>
+      </c>
+      <c r="G191" t="n">
+        <v>9.222205809893321</v>
+      </c>
+      <c r="H191" t="n">
+        <v>1.768408889370705</v>
+      </c>
+      <c r="I191" t="n">
+        <v>597.38</v>
+      </c>
+      <c r="J191" t="n">
+        <v>591.044</v>
+      </c>
+      <c r="K191" t="n">
+        <v>7.658706157047912</v>
+      </c>
+      <c r="L191" t="n">
+        <v>0.8272937843645194</v>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>vende_1_compra_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B192" t="b">
+        <v>0</v>
+      </c>
+      <c r="C192" t="n">
+        <v>689.12</v>
+      </c>
+      <c r="D192" t="n">
+        <v>95.64</v>
+      </c>
+      <c r="E192" t="n">
+        <v>688.554</v>
+      </c>
+      <c r="F192" t="n">
+        <v>94.428</v>
+      </c>
+      <c r="G192" t="n">
+        <v>2.697198546646715</v>
+      </c>
+      <c r="H192" t="n">
+        <v>1.05606344506618</v>
+      </c>
+      <c r="I192" t="n">
+        <v>593.48</v>
+      </c>
+      <c r="J192" t="n">
+        <v>594.126</v>
+      </c>
+      <c r="K192" t="n">
+        <v>2.486911739488523</v>
+      </c>
+      <c r="L192" t="n">
+        <v>-0.2597599222129288</v>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B193" t="b">
+        <v>1</v>
+      </c>
+      <c r="C193" t="n">
+        <v>689.92</v>
+      </c>
+      <c r="D193" t="n">
+        <v>96.34999999999999</v>
+      </c>
+      <c r="E193" t="n">
+        <v>689.378</v>
+      </c>
+      <c r="F193" t="n">
+        <v>94.72799999999999</v>
+      </c>
+      <c r="G193" t="n">
+        <v>2.235289690405644</v>
+      </c>
+      <c r="H193" t="n">
+        <v>1.371776220819185</v>
+      </c>
+      <c r="I193" t="n">
+        <v>593.5699999999999</v>
+      </c>
+      <c r="J193" t="n">
+        <v>594.65</v>
+      </c>
+      <c r="K193" t="n">
+        <v>1.843108786807276</v>
+      </c>
+      <c r="L193" t="n">
+        <v>-0.5859664973280662</v>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B194" t="b">
+        <v>0</v>
+      </c>
+      <c r="C194" t="n">
+        <v>708.61</v>
+      </c>
+      <c r="D194" t="n">
+        <v>97.47</v>
+      </c>
+      <c r="E194" t="n">
+        <v>693.102</v>
+      </c>
+      <c r="F194" t="n">
+        <v>95.37</v>
+      </c>
+      <c r="G194" t="n">
+        <v>8.946234962264082</v>
+      </c>
+      <c r="H194" t="n">
+        <v>1.786462985903929</v>
+      </c>
+      <c r="I194" t="n">
+        <v>611.14</v>
+      </c>
+      <c r="J194" t="n">
+        <v>597.732</v>
+      </c>
+      <c r="K194" t="n">
+        <v>7.694937946469024</v>
+      </c>
+      <c r="L194" t="n">
+        <v>1.742444200755711</v>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>vende_1_compra_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B195" t="b">
+        <v>0</v>
+      </c>
+      <c r="C195" t="n">
+        <v>720.65</v>
+      </c>
+      <c r="D195" t="n">
+        <v>101.6</v>
+      </c>
+      <c r="E195" t="n">
+        <v>700.0599999999999</v>
+      </c>
+      <c r="F195" t="n">
+        <v>97.136</v>
+      </c>
+      <c r="G195" t="n">
+        <v>14.00461888092784</v>
+      </c>
+      <c r="H195" t="n">
+        <v>2.703003884570687</v>
+      </c>
+      <c r="I195" t="n">
+        <v>619.05</v>
+      </c>
+      <c r="J195" t="n">
+        <v>602.924</v>
+      </c>
+      <c r="K195" t="n">
+        <v>11.56474080989342</v>
+      </c>
+      <c r="L195" t="n">
+        <v>1.394410844573748</v>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>vende_1_compra_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B196" t="b">
+        <v>0</v>
+      </c>
+      <c r="C196" t="n">
+        <v>729.92</v>
+      </c>
+      <c r="D196" t="n">
+        <v>101.73</v>
+      </c>
+      <c r="E196" t="n">
+        <v>707.644</v>
+      </c>
+      <c r="F196" t="n">
+        <v>98.55799999999999</v>
+      </c>
+      <c r="G196" t="n">
+        <v>18.19057530701122</v>
+      </c>
+      <c r="H196" t="n">
+        <v>2.910716406660704</v>
+      </c>
+      <c r="I196" t="n">
+        <v>628.1899999999999</v>
+      </c>
+      <c r="J196" t="n">
+        <v>609.086</v>
+      </c>
+      <c r="K196" t="n">
+        <v>15.43337714176718</v>
+      </c>
+      <c r="L196" t="n">
+        <v>1.237836659113253</v>
+      </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>vende_1_compra_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>45857</v>
+      </c>
+      <c r="B197" t="b">
+        <v>1</v>
+      </c>
+      <c r="C197" t="n">
+        <v>733.2</v>
+      </c>
+      <c r="D197" t="n">
+        <v>113.16</v>
+      </c>
+      <c r="E197" t="n">
+        <v>716.4599999999999</v>
+      </c>
+      <c r="F197" t="n">
+        <v>102.062</v>
+      </c>
+      <c r="G197" t="n">
+        <v>17.64192024695876</v>
+      </c>
+      <c r="H197" t="n">
+        <v>6.65587484858322</v>
+      </c>
+      <c r="I197" t="n">
+        <v>620.0400000000001</v>
+      </c>
+      <c r="J197" t="n">
+        <v>614.3979999999999</v>
+      </c>
+      <c r="K197" t="n">
+        <v>13.1159509758168</v>
+      </c>
+      <c r="L197" t="n">
+        <v>0.4301632424825994</v>
+      </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>vende_1_compra_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>45858</v>
+      </c>
+      <c r="B198" t="b">
+        <v>0</v>
+      </c>
+      <c r="C198" t="n">
+        <v>756.8200000000001</v>
+      </c>
+      <c r="D198" t="n">
+        <v>116.59</v>
+      </c>
+      <c r="E198" t="n">
+        <v>729.84</v>
+      </c>
+      <c r="F198" t="n">
+        <v>106.11</v>
+      </c>
+      <c r="G198" t="n">
+        <v>17.84926749197469</v>
+      </c>
+      <c r="H198" t="n">
+        <v>8.272046300644204</v>
+      </c>
+      <c r="I198" t="n">
+        <v>640.23</v>
+      </c>
+      <c r="J198" t="n">
+        <v>623.7299999999999</v>
+      </c>
+      <c r="K198" t="n">
+        <v>11.02461110425404</v>
+      </c>
+      <c r="L198" t="n">
+        <v>1.496651432324293</v>
+      </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>vende_1_compra_2</t>
         </is>
       </c>
     </row>
